--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A1C67-33CC-48F7-9437-C3576E2F4D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CBA34-A1C2-B148-8C37-DEC6B019AA7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="254">
   <si>
     <t>connection</t>
   </si>
@@ -774,31 +774,31 @@
     <t>EX_WOOD</t>
   </si>
   <si>
+    <t>StorageDuration</t>
+  </si>
+  <si>
+    <t>[%/yr]</t>
+  </si>
+  <si>
+    <t>CostInvestIncr</t>
+  </si>
+  <si>
+    <t>FirstBuild</t>
+  </si>
+  <si>
+    <t>LastBuild</t>
+  </si>
+  <si>
+    <t>Ref_BuildYears</t>
+  </si>
+  <si>
+    <t>CostFixedIncr</t>
+  </si>
+  <si>
     <t>CO2</t>
   </si>
   <si>
     <t>kton</t>
-  </si>
-  <si>
-    <t>StorageDuration</t>
-  </si>
-  <si>
-    <t>[%/yr]</t>
-  </si>
-  <si>
-    <t>CostInvestIncr</t>
-  </si>
-  <si>
-    <t>FirstBuild</t>
-  </si>
-  <si>
-    <t>LastBuild</t>
-  </si>
-  <si>
-    <t>Ref_BuildYears</t>
-  </si>
-  <si>
-    <t>CostFixedIncr</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +848,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -892,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -921,6 +927,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1237,12 +1244,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1262,7 +1269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1299,13 +1306,13 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1316,7 +1323,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1349,7 +1356,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1357,32 +1364,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1406,7 +1413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -1414,13 +1421,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -1491,26 +1498,26 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1527,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1548,16 +1555,16 @@
         <v>156</v>
       </c>
       <c r="M1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -1625,7 +1632,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -1685,7 +1692,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1754,7 +1761,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1768,7 +1775,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1782,7 +1789,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -1830,12 +1837,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1849,7 +1856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1876,14 +1883,14 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1912,10 +1919,10 @@
         <v>200</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1947,7 +1954,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -1999,7 +2006,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2025,7 +2032,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -2077,7 +2084,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -2103,7 +2110,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -2129,7 +2136,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -2207,7 +2214,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>206</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
@@ -2259,7 +2266,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>222</v>
       </c>
@@ -2288,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>213</v>
       </c>
@@ -2314,7 +2321,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>244</v>
       </c>
@@ -2340,7 +2347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>223</v>
       </c>
@@ -2369,7 +2376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -2398,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -2424,7 +2431,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>195</v>
       </c>
@@ -2450,7 +2457,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>196</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>198</v>
       </c>
@@ -2502,7 +2509,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>116</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>117</v>
       </c>
@@ -2554,7 +2561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>118</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
@@ -2606,7 +2613,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>128</v>
       </c>
@@ -2635,7 +2642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>129</v>
       </c>
@@ -2661,7 +2668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>175</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>131</v>
       </c>
@@ -2739,7 +2746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>132</v>
       </c>
@@ -2795,22 +2802,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2839,7 +2846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2868,7 +2875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>203</v>
       </c>
       <c r="D3" s="8">
-        <v>34.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>203</v>
@@ -2893,7 +2900,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2918,7 +2925,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2943,7 +2950,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2968,7 +2975,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3018,7 +3025,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3029,7 +3036,7 @@
         <v>203</v>
       </c>
       <c r="D9" s="8">
-        <v>36.799999999999997</v>
+        <v>90</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>203</v>
@@ -3043,7 +3050,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -3068,18 +3075,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="8">
-        <v>40</v>
+        <v>54.1</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>203</v>
@@ -3093,18 +3100,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="5">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="5">
-        <v>36.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>203</v>
@@ -3118,18 +3125,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>206</v>
       </c>
       <c r="B13" s="5">
-        <v>93</v>
+        <v>93.6</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D13" s="5">
-        <v>35</v>
+        <v>32.6</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>203</v>
@@ -3143,18 +3150,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>213</v>
       </c>
       <c r="B14" s="5">
-        <v>61</v>
+        <v>61.9</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D14" s="5">
-        <v>40</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>203</v>
@@ -3168,12 +3175,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>222</v>
       </c>
       <c r="B15" s="5">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>203</v>
@@ -3193,18 +3200,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="5">
-        <v>45</v>
+        <v>48.5</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D16" s="5">
-        <v>36.799999999999997</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>203</v>
@@ -3218,7 +3225,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>244</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>224</v>
       </c>
       <c r="D17" s="24">
-        <v>25.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>203</v>
@@ -3243,7 +3250,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -3268,12 +3275,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>223</v>
       </c>
       <c r="B19" s="16">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>203</v>
@@ -3293,18 +3300,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="16">
-        <v>61</v>
+        <v>61.9</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D20" s="16">
-        <v>40</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>203</v>
@@ -3318,18 +3325,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>195</v>
       </c>
       <c r="B21" s="16">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D21" s="19">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>203</v>
@@ -3343,7 +3350,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>196</v>
       </c>
@@ -3368,7 +3375,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>198</v>
       </c>
@@ -3393,18 +3400,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="18">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D24" s="16">
-        <v>62.02</v>
+        <v>54.1</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>203</v>
@@ -3418,7 +3425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -3443,18 +3450,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="16">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D26" s="16">
-        <v>36.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>203</v>
@@ -3468,18 +3475,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="16">
-        <v>45</v>
+        <v>48.5</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D27" s="16">
-        <v>36.799999999999997</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>203</v>
@@ -3493,7 +3500,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -3518,18 +3525,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B29" s="5">
-        <v>61</v>
+        <v>61.9</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D29" s="5">
-        <v>25.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>203</v>
@@ -3543,18 +3550,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>175</v>
       </c>
       <c r="B30" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D30" s="8">
-        <v>54.17</v>
+        <v>54.1</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>203</v>
@@ -3568,18 +3575,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B31" s="5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D31" s="8">
-        <v>37.6</v>
+        <v>54.1</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>203</v>
@@ -3593,18 +3600,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="5">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D32" s="5">
-        <v>36.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>203</v>
@@ -3618,18 +3625,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D33" s="5">
-        <v>36.799999999999997</v>
+        <v>50</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>203</v>
@@ -3654,24 +3661,24 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -3688,7 +3695,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>34</v>
@@ -3703,7 +3710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3735,7 +3742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -3759,7 +3766,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -3807,7 +3814,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -3831,7 +3838,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3855,7 +3862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3879,7 +3886,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -3927,7 +3934,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -3951,7 +3958,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -3963,19 +3970,23 @@
       <c r="E12" s="5">
         <v>19</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>-2.67</v>
+      </c>
       <c r="G12" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
       <c r="J12" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>206</v>
       </c>
@@ -3999,7 +4010,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>213</v>
       </c>
@@ -4023,7 +4034,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>222</v>
       </c>
@@ -4047,7 +4058,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -4059,19 +4070,23 @@
       <c r="E16" s="6">
         <v>108</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6">
+        <v>-2.65</v>
+      </c>
       <c r="G16" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H16" s="21">
         <v>0</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
       <c r="J16" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>244</v>
       </c>
@@ -4095,7 +4110,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -4121,7 +4136,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>223</v>
       </c>
@@ -4147,7 +4162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -4173,7 +4188,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>195</v>
       </c>
@@ -4199,7 +4214,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>196</v>
       </c>
@@ -4225,7 +4240,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>198</v>
       </c>
@@ -4251,7 +4266,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -4277,7 +4292,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -4303,59 +4318,71 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="17">
         <v>1566</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>-2.6</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E26" s="17">
         <v>19</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="5">
+        <v>-2.67</v>
+      </c>
       <c r="G26" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H26" s="17">
         <v>0</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
       <c r="J26" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="17">
-        <v>4455</v>
-      </c>
-      <c r="C27" s="17"/>
+        <v>3055</v>
+      </c>
+      <c r="C27" s="17">
+        <v>-2.75</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="17">
-        <v>108</v>
-      </c>
-      <c r="F27" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="F27" s="17">
+        <v>-2.65</v>
+      </c>
       <c r="G27" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H27" s="17">
         <v>0</v>
       </c>
-      <c r="I27" s="17"/>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
       <c r="J27" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -4381,7 +4408,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -4407,7 +4434,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>175</v>
       </c>
@@ -4433,7 +4460,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -4459,59 +4486,71 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="6">
-        <v>1566</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>2033</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-2.96</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E32" s="6">
-        <v>19</v>
-      </c>
-      <c r="F32" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F32" s="6">
+        <v>-3.37</v>
+      </c>
       <c r="G32" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
       <c r="J32" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="6">
         <v>4455</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>-4.12</v>
+      </c>
       <c r="D33" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E33" s="6">
         <v>108</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="6">
+        <v>-2.67</v>
+      </c>
       <c r="G33" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H33" s="6">
         <v>0</v>
       </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
       <c r="J33" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5"/>
@@ -4529,23 +4568,23 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4568,16 +4607,16 @@
         <v>32</v>
       </c>
       <c r="H1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4609,7 +4648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4619,8 +4658,11 @@
       <c r="C3" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -4630,8 +4672,11 @@
       <c r="C4" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -4641,8 +4686,11 @@
       <c r="C5" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -4652,8 +4700,11 @@
       <c r="C6" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -4663,8 +4714,11 @@
       <c r="C7" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -4674,22 +4728,31 @@
       <c r="C8" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -4697,15 +4760,21 @@
         <v>1</v>
       </c>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>206</v>
       </c>
@@ -4715,15 +4784,21 @@
       <c r="C13" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
@@ -4733,8 +4808,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
@@ -4744,8 +4822,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>223</v>
       </c>
@@ -4755,8 +4836,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>115</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>195</v>
       </c>
@@ -4785,8 +4872,11 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>196</v>
       </c>
@@ -4800,8 +4890,11 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>198</v>
       </c>
@@ -4815,8 +4908,11 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>116</v>
       </c>
@@ -4826,8 +4922,11 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>117</v>
       </c>
@@ -4835,40 +4934,48 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="19">
-        <v>1000</v>
-      </c>
+      <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="19">
-        <v>1000</v>
-      </c>
+      <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>119</v>
       </c>
       <c r="D25">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="H25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
@@ -4878,34 +4985,47 @@
       <c r="C27" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D30">
         <v>20000</v>
       </c>
-      <c r="F30" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+      <c r="H30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>132</v>
+      </c>
+      <c r="D31">
+        <v>10000</v>
+      </c>
+      <c r="H31">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -4922,14 +5042,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4943,7 +5063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4957,7 +5077,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -4971,7 +5091,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -4982,7 +5102,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -4993,7 +5113,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -5007,7 +5127,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -5021,7 +5141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -5035,7 +5155,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -5049,7 +5169,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -5060,7 +5180,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -5074,7 +5194,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -5088,7 +5208,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -5102,7 +5222,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -5116,7 +5236,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -5130,7 +5250,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -5144,7 +5264,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -5172,14 +5292,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5187,7 +5307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5195,7 +5315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5213,15 +5333,15 @@
       <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5238,7 +5358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5255,7 +5375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5272,7 +5392,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5289,7 +5409,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5306,7 +5426,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5323,7 +5443,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5340,7 +5460,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5357,7 +5477,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5374,7 +5494,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5391,7 +5511,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5408,7 +5528,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5425,7 +5545,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5442,7 +5562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5459,7 +5579,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5476,7 +5596,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5493,7 +5613,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5510,7 +5630,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5527,7 +5647,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5544,7 +5664,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5561,7 +5681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5578,7 +5698,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -5595,7 +5715,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -5612,7 +5732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -5629,7 +5749,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -5646,7 +5766,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -5663,7 +5783,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5680,7 +5800,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5697,7 +5817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5714,7 +5834,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -5731,7 +5851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -5748,7 +5868,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -5765,7 +5885,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -5782,7 +5902,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -5799,7 +5919,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -5816,7 +5936,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5833,7 +5953,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -5850,7 +5970,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -5867,7 +5987,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -5884,7 +6004,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -5901,7 +6021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -5918,7 +6038,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -5935,7 +6055,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -5952,7 +6072,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -5969,7 +6089,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -5986,7 +6106,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -6003,7 +6123,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -6020,7 +6140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -6037,7 +6157,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -6054,7 +6174,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -6071,7 +6191,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -6088,7 +6208,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -6105,7 +6225,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6122,7 +6242,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -6139,7 +6259,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -6156,7 +6276,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6173,7 +6293,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6190,7 +6310,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6207,7 +6327,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6224,7 +6344,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6241,7 +6361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6258,7 +6378,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6275,7 +6395,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6292,7 +6412,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6309,7 +6429,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6326,7 +6446,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6343,7 +6463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6360,7 +6480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6377,7 +6497,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6394,7 +6514,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6411,7 +6531,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6428,7 +6548,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6445,7 +6565,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6462,7 +6582,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6599,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6496,7 +6616,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6513,7 +6633,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6530,7 +6650,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6547,7 +6667,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6564,7 +6684,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6581,7 +6701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -6598,7 +6718,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -6615,7 +6735,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -6632,7 +6752,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6649,7 +6769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -6666,7 +6786,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6683,7 +6803,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -6700,7 +6820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -6717,7 +6837,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -6734,7 +6854,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -6751,7 +6871,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -6768,7 +6888,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -6785,7 +6905,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -6802,7 +6922,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6819,7 +6939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -6836,7 +6956,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -6853,7 +6973,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -6870,7 +6990,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -6887,7 +7007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -6904,7 +7024,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -6921,7 +7041,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -6938,7 +7058,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -6955,7 +7075,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -6972,7 +7092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -6989,7 +7109,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -7006,7 +7126,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -7023,7 +7143,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -7040,7 +7160,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -7057,7 +7177,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -7074,7 +7194,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -7091,7 +7211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -7108,7 +7228,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -7125,7 +7245,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -7142,7 +7262,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -7159,7 +7279,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -7176,7 +7296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -7193,7 +7313,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -7210,7 +7330,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -7227,7 +7347,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7244,7 +7364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7261,7 +7381,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7278,7 +7398,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7295,7 +7415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -7312,7 +7432,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -7329,7 +7449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -7346,7 +7466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7363,7 +7483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -7380,7 +7500,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -7397,7 +7517,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -7414,7 +7534,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -7431,7 +7551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -7448,7 +7568,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -7465,7 +7585,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -7482,7 +7602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -7499,7 +7619,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7516,7 +7636,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7533,7 +7653,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7550,7 +7670,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7567,7 +7687,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7584,7 +7704,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -7601,7 +7721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -7618,7 +7738,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -7635,7 +7755,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -7652,7 +7772,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -7669,7 +7789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -7686,7 +7806,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -7703,7 +7823,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -7720,7 +7840,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -7737,7 +7857,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -7754,7 +7874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -7771,7 +7891,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -7788,7 +7908,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -7805,7 +7925,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -7822,7 +7942,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -7839,7 +7959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -7856,7 +7976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -7873,7 +7993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -7890,7 +8010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -7907,7 +8027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -7924,7 +8044,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -7941,7 +8061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -7958,7 +8078,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -7975,7 +8095,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -7992,7 +8112,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -8009,7 +8129,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -8026,7 +8146,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -8043,7 +8163,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -8060,7 +8180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -8077,7 +8197,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -8094,7 +8214,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -8111,7 +8231,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -8128,7 +8248,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -8145,7 +8265,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -8162,7 +8282,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -8179,7 +8299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8196,7 +8316,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8213,7 +8333,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8230,7 +8350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8247,7 +8367,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8264,7 +8384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8281,7 +8401,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8298,7 +8418,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8315,7 +8435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8332,7 +8452,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8349,7 +8469,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8366,7 +8486,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8383,7 +8503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8400,7 +8520,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8417,7 +8537,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8434,7 +8554,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8451,7 +8571,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8468,7 +8588,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8485,7 +8605,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8502,7 +8622,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8519,7 +8639,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8536,7 +8656,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8553,7 +8673,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8570,7 +8690,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -8587,7 +8707,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -8604,7 +8724,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -8621,7 +8741,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -8638,7 +8758,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -8655,7 +8775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -8672,7 +8792,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -8689,7 +8809,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -8706,7 +8826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -8723,7 +8843,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -8740,7 +8860,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -8757,7 +8877,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -8774,7 +8894,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -8791,7 +8911,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -8808,7 +8928,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -8825,7 +8945,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -8842,7 +8962,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -8859,7 +8979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -8876,7 +8996,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -8893,7 +9013,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -8910,7 +9030,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -8927,7 +9047,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -8944,7 +9064,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -8961,7 +9081,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -8978,7 +9098,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -8995,7 +9115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -9012,7 +9132,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -9029,7 +9149,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -9046,7 +9166,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -9063,7 +9183,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -9080,7 +9200,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -9097,7 +9217,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -9114,7 +9234,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -9131,7 +9251,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -9148,7 +9268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -9165,7 +9285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -9182,7 +9302,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -9199,7 +9319,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -9216,7 +9336,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -9233,7 +9353,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -9250,7 +9370,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -9267,7 +9387,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -9284,7 +9404,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -9301,7 +9421,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -9318,7 +9438,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -9335,7 +9455,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -9352,7 +9472,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -9369,7 +9489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -9386,7 +9506,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -9403,7 +9523,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -9420,7 +9540,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -9437,7 +9557,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -9454,7 +9574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -9471,7 +9591,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -9488,7 +9608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -9505,7 +9625,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9522,7 +9642,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9539,7 +9659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9556,7 +9676,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9573,7 +9693,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -9590,7 +9710,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -9607,7 +9727,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -9624,7 +9744,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -9641,7 +9761,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -9658,7 +9778,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -9675,7 +9795,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -9692,7 +9812,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -9709,7 +9829,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -9726,7 +9846,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -9743,7 +9863,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -9760,7 +9880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
@@ -9777,7 +9897,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
@@ -9794,7 +9914,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
@@ -9811,7 +9931,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
@@ -9828,7 +9948,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
@@ -9845,7 +9965,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -9862,7 +9982,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
@@ -9879,7 +9999,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -9896,7 +10016,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
@@ -9913,7 +10033,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
@@ -9930,7 +10050,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
@@ -9947,7 +10067,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
@@ -9964,7 +10084,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
@@ -9981,7 +10101,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -9998,7 +10118,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
@@ -10015,7 +10135,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
@@ -10032,7 +10152,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
@@ -10049,7 +10169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
@@ -10066,7 +10186,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
@@ -10083,7 +10203,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
@@ -10100,7 +10220,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
@@ -10117,7 +10237,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -10134,7 +10254,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
@@ -10165,13 +10285,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10182,7 +10302,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10193,7 +10313,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -10204,7 +10324,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -10215,7 +10335,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>241</v>
       </c>
@@ -10226,7 +10346,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -10237,7 +10357,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -10248,7 +10368,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -10272,13 +10392,13 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -10289,7 +10409,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10300,7 +10420,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -10311,7 +10431,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -10322,7 +10442,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -10333,7 +10453,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -10344,7 +10464,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -10355,7 +10475,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -10366,7 +10486,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -10377,7 +10497,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -10388,7 +10508,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -10399,7 +10519,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10410,7 +10530,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -10421,7 +10541,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -10432,7 +10552,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -10443,7 +10563,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10454,7 +10574,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -10465,7 +10585,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -10476,7 +10596,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -10487,7 +10607,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -10498,7 +10618,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -10509,7 +10629,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -10520,7 +10640,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -10531,7 +10651,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -10542,7 +10662,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -10553,7 +10673,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -10574,26 +10694,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10622,7 +10742,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -10634,16 +10754,16 @@
         <v>10</v>
       </c>
       <c r="N1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="O1" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10663,7 +10783,7 @@
         <v>72</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
         <v>71</v>
@@ -10672,7 +10792,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
@@ -10693,7 +10813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10712,14 +10832,18 @@
       <c r="F3" s="2">
         <v>0.86</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I3" s="2">
         <v>2084.1332580463013</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
       <c r="K3" s="2" t="s">
         <v>179</v>
       </c>
@@ -10729,8 +10853,14 @@
       <c r="M3" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -10746,13 +10876,19 @@
       <c r="E4" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <v>688.39634941329859</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>179</v>
       </c>
@@ -10762,8 +10898,14 @@
       <c r="M4" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -10782,14 +10924,18 @@
       <c r="F5" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I5" s="2">
         <v>323.88212908717634</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>179</v>
       </c>
@@ -10799,8 +10945,14 @@
       <c r="M5" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -10819,14 +10971,18 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>165</v>
       </c>
       <c r="I6" s="2">
         <v>539.80354847862725</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>179</v>
       </c>
@@ -10836,8 +10992,14 @@
       <c r="M6" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -10850,10 +11012,19 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2">
         <v>30</v>
@@ -10861,8 +11032,14 @@
       <c r="M7" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -10881,14 +11058,18 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>165</v>
       </c>
       <c r="I8" s="2">
         <v>4531.3620000000001</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>179</v>
       </c>
@@ -10898,8 +11079,14 @@
       <c r="M8" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -10918,14 +11105,18 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>165</v>
       </c>
       <c r="I9" s="2">
         <v>7746.9369999999999</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
       <c r="K9" s="2" t="s">
         <v>179</v>
       </c>
@@ -10935,8 +11126,14 @@
       <c r="M9" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -10949,13 +11146,19 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="F10" s="28">
+        <v>0.50697570000000003</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <v>30</v>
@@ -10963,8 +11166,14 @@
       <c r="M10" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N10" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -10977,13 +11186,19 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="F11" s="28">
+        <v>0.37906770000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <v>30</v>
@@ -10991,8 +11206,14 @@
       <c r="M11" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -11008,10 +11229,16 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <v>30</v>
@@ -11019,8 +11246,14 @@
       <c r="M12" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N12" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -11033,13 +11266,19 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="28">
+        <v>0.37906770000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <v>30</v>
@@ -11047,8 +11286,14 @@
       <c r="M13" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -11061,19 +11306,31 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="F14" s="28">
+        <v>0.28218300000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
         <v>30</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>165</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -11090,13 +11347,13 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11110,7 +11367,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11124,7 +11381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2018</v>
       </c>
@@ -11138,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2020</v>
       </c>
@@ -11152,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2025</v>
       </c>
@@ -11166,7 +11423,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>2030</v>
       </c>
@@ -11180,7 +11437,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>2035</v>
       </c>
@@ -11194,7 +11451,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2040</v>
       </c>
@@ -11208,7 +11465,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>2045</v>
       </c>
@@ -11222,7 +11479,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2050</v>
       </c>
@@ -11236,7 +11493,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2055</v>
       </c>
@@ -11264,13 +11521,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11284,7 +11541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -11298,7 +11555,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11312,7 +11569,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -11326,7 +11583,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -11340,7 +11597,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -11368,13 +11625,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -11382,7 +11639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -11390,7 +11647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -11405,15 +11662,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEDF73-15BA-AB46-9BE9-827A810B084A}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>225</v>
       </c>
@@ -11427,7 +11684,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>232</v>
       </c>
@@ -11441,7 +11698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -11455,7 +11712,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>229</v>
       </c>
@@ -11469,7 +11726,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>230</v>
       </c>
@@ -11483,12 +11740,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6">
-        <v>2020</v>
+        <v>118</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2025</v>
       </c>
       <c r="C6">
         <v>0.08</v>
@@ -11497,9 +11754,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="B7" s="15">
         <v>2025</v>
@@ -11511,9 +11768,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B8" s="15">
         <v>2025</v>
@@ -11525,12 +11782,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B9" s="15">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="C9">
         <v>0.08</v>
@@ -11539,12 +11796,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B10" s="15">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="C10">
         <v>0.08</v>
@@ -11553,9 +11810,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B11" s="15">
         <v>2030</v>
@@ -11567,9 +11824,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B12" s="15">
         <v>2030</v>
@@ -11581,12 +11838,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B13" s="15">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="C13">
         <v>0.08</v>
@@ -11595,12 +11852,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B14" s="15">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="C14">
         <v>0.08</v>
@@ -11609,9 +11866,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B15" s="15">
         <v>2035</v>
@@ -11623,9 +11880,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B16" s="15">
         <v>2035</v>
@@ -11637,12 +11894,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B17" s="15">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="C17">
         <v>0.08</v>
@@ -11651,12 +11908,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B18" s="15">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="C18">
         <v>0.08</v>
@@ -11665,9 +11922,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B19" s="15">
         <v>2040</v>
@@ -11679,9 +11936,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B20" s="15">
         <v>2040</v>
@@ -11693,12 +11950,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B21" s="15">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="C21">
         <v>0.08</v>
@@ -11707,12 +11964,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B22" s="15">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="C22">
         <v>0.08</v>
@@ -11721,9 +11978,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B23" s="15">
         <v>2045</v>
@@ -11735,9 +11992,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B24" s="15">
         <v>2045</v>
@@ -11749,12 +12006,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B25" s="15">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C25">
         <v>0.08</v>
@@ -11763,12 +12020,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B26" s="15">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C26">
         <v>0.08</v>
@@ -11777,9 +12034,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B27" s="15">
         <v>2050</v>
@@ -11791,9 +12048,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B28" s="15">
         <v>2050</v>
@@ -11802,34 +12059,6 @@
         <v>0.08</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C29">
-        <v>0.08</v>
-      </c>
-      <c r="D29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C30">
-        <v>0.08</v>
-      </c>
-      <c r="D30" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11842,13 +12071,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
@@ -11865,7 +12094,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -11882,88 +12111,88 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2025</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C3" s="25">
         <v>23800</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>2030</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C4" s="25">
         <v>19600</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>2035</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C5" s="25">
         <v>14700</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>2040</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C6" s="25">
         <v>9800</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>2045</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C7" s="25">
         <v>4900</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>2050</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C8" s="25">
         <v>0</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CBA34-A1C2-B148-8C37-DEC6B019AA7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC785B2B-0E37-9544-BBB2-03F6CA987B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -5329,8 +5329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243:D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7834,7 +7834,7 @@
         <v>166</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>1.1554536082474227</v>
       </c>
       <c r="E147" t="s">
         <v>146</v>
@@ -7851,7 +7851,7 @@
         <v>167</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>1.1594819243986256</v>
       </c>
       <c r="E148" t="s">
         <v>146</v>
@@ -7868,7 +7868,7 @@
         <v>168</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>1.2116105841924398</v>
       </c>
       <c r="E149" t="s">
         <v>146</v>
@@ -7885,7 +7885,7 @@
         <v>169</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>1.2471928522336768</v>
       </c>
       <c r="E150" t="s">
         <v>146</v>
@@ -7902,7 +7902,7 @@
         <v>170</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>1.2250734020618557</v>
       </c>
       <c r="E151" t="s">
         <v>146</v>
@@ -7919,7 +7919,7 @@
         <v>171</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>1.2236000687285224</v>
       </c>
       <c r="E152" t="s">
         <v>146</v>
@@ -7936,7 +7936,7 @@
         <v>172</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>1.269471615120275</v>
       </c>
       <c r="E153" t="s">
         <v>146</v>
@@ -7953,7 +7953,7 @@
         <v>173</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>1.2459049484536082</v>
       </c>
       <c r="E154" t="s">
         <v>146</v>
@@ -7970,7 +7970,7 @@
         <v>174</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>1.1986987628865979</v>
       </c>
       <c r="E155" t="s">
         <v>146</v>
@@ -7987,7 +7987,7 @@
         <v>48</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>1.1830810996563574</v>
       </c>
       <c r="E156" t="s">
         <v>146</v>
@@ -8004,7 +8004,7 @@
         <v>49</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>1.2029348453608246</v>
       </c>
       <c r="E157" t="s">
         <v>146</v>
@@ -8021,7 +8021,7 @@
         <v>50</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>1.1969397250859108</v>
       </c>
       <c r="E158" t="s">
         <v>146</v>
@@ -8038,7 +8038,7 @@
         <v>51</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>1.1610441237113402</v>
       </c>
       <c r="E159" t="s">
         <v>146</v>
@@ -8055,7 +8055,7 @@
         <v>52</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>1.1242072852233675</v>
       </c>
       <c r="E160" t="s">
         <v>146</v>
@@ -8072,7 +8072,7 @@
         <v>53</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>1.073711408934708</v>
       </c>
       <c r="E161" t="s">
         <v>146</v>
@@ -8089,7 +8089,7 @@
         <v>54</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>1.0144912714776633</v>
       </c>
       <c r="E162" t="s">
         <v>146</v>
@@ -8106,7 +8106,7 @@
         <v>55</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0.96214570446735392</v>
       </c>
       <c r="E163" t="s">
         <v>146</v>
@@ -8123,7 +8123,7 @@
         <v>56</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0.94084206185567021</v>
       </c>
       <c r="E164" t="s">
         <v>146</v>
@@ -8140,7 +8140,7 @@
         <v>57</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0.92393993127147767</v>
       </c>
       <c r="E165" t="s">
         <v>146</v>
@@ -8157,7 +8157,7 @@
         <v>58</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0.9992430927835052</v>
       </c>
       <c r="E166" t="s">
         <v>146</v>
@@ -8174,7 +8174,7 @@
         <v>59</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>1.0121810996563574</v>
       </c>
       <c r="E167" t="s">
         <v>146</v>
@@ -8191,7 +8191,7 @@
         <v>60</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>1.0649843986254295</v>
       </c>
       <c r="E168" t="s">
         <v>146</v>
@@ -8208,7 +8208,7 @@
         <v>61</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>1.0855740206185567</v>
       </c>
       <c r="E169" t="s">
         <v>146</v>
@@ -8225,7 +8225,7 @@
         <v>82</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>1.1591992439862542</v>
       </c>
       <c r="E170" t="s">
         <v>146</v>
@@ -8242,7 +8242,7 @@
         <v>166</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0.7082865292096221</v>
       </c>
       <c r="E171" t="s">
         <v>146</v>
@@ -8259,7 +8259,7 @@
         <v>167</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0.7055918900343644</v>
       </c>
       <c r="E172" t="s">
         <v>146</v>
@@ -8276,7 +8276,7 @@
         <v>168</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0.73409807560137474</v>
       </c>
       <c r="E173" t="s">
         <v>146</v>
@@ -8293,7 +8293,7 @@
         <v>169</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0.7242515463917526</v>
       </c>
       <c r="E174" t="s">
         <v>146</v>
@@ -8310,7 +8310,7 @@
         <v>170</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0.69141910652920968</v>
       </c>
       <c r="E175" t="s">
         <v>146</v>
@@ -8327,7 +8327,7 @@
         <v>171</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0.64054776632302413</v>
       </c>
       <c r="E176" t="s">
         <v>146</v>
@@ -8344,7 +8344,7 @@
         <v>172</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0.59681731958762885</v>
       </c>
       <c r="E177" t="s">
         <v>146</v>
@@ -8361,7 +8361,7 @@
         <v>173</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0.58485711340206181</v>
       </c>
       <c r="E178" t="s">
         <v>146</v>
@@ -8378,7 +8378,7 @@
         <v>174</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0.59055931271477669</v>
       </c>
       <c r="E179" t="s">
         <v>146</v>
@@ -8395,7 +8395,7 @@
         <v>48</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0.56244536082474228</v>
       </c>
       <c r="E180" t="s">
         <v>146</v>
@@ -8412,7 +8412,7 @@
         <v>49</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0.5557881786941582</v>
       </c>
       <c r="E181" t="s">
         <v>146</v>
@@ -8429,7 +8429,7 @@
         <v>50</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0.53917353951890024</v>
       </c>
       <c r="E182" t="s">
         <v>146</v>
@@ -8446,7 +8446,7 @@
         <v>51</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0.50700082474226804</v>
       </c>
       <c r="E183" t="s">
         <v>146</v>
@@ -8463,7 +8463,7 @@
         <v>52</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0.48673807560137461</v>
       </c>
       <c r="E184" t="s">
         <v>146</v>
@@ -8480,7 +8480,7 @@
         <v>53</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0.46426089347079036</v>
       </c>
       <c r="E185" t="s">
         <v>146</v>
@@ -8497,7 +8497,7 @@
         <v>54</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0.46601869415807556</v>
       </c>
       <c r="E186" t="s">
         <v>146</v>
@@ -8514,7 +8514,7 @@
         <v>55</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0.48226378006872855</v>
       </c>
       <c r="E187" t="s">
         <v>146</v>
@@ -8531,7 +8531,7 @@
         <v>56</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0.49528577319587624</v>
       </c>
       <c r="E188" t="s">
         <v>146</v>
@@ -8548,7 +8548,7 @@
         <v>57</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0.55130680412371125</v>
       </c>
       <c r="E189" t="s">
         <v>146</v>
@@ -8565,7 +8565,7 @@
         <v>58</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0.59025525773195875</v>
       </c>
       <c r="E190" t="s">
         <v>146</v>
@@ -8582,7 +8582,7 @@
         <v>59</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0.59578240549828176</v>
       </c>
       <c r="E191" t="s">
         <v>146</v>
@@ -8599,7 +8599,7 @@
         <v>60</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0.65839030927835052</v>
       </c>
       <c r="E192" t="s">
         <v>146</v>
@@ -8616,7 +8616,7 @@
         <v>61</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0.69512666666666656</v>
       </c>
       <c r="E193" t="s">
         <v>146</v>
@@ -8633,7 +8633,7 @@
         <v>82</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0.72474955326460488</v>
       </c>
       <c r="E194" t="s">
         <v>146</v>
@@ -8650,7 +8650,7 @@
         <v>166</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>1.012730996563574</v>
       </c>
       <c r="E195" t="s">
         <v>146</v>
@@ -8667,7 +8667,7 @@
         <v>167</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0.99179491408934706</v>
       </c>
       <c r="E196" t="s">
         <v>146</v>
@@ -8684,7 +8684,7 @@
         <v>168</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0.93255910652920948</v>
       </c>
       <c r="E197" t="s">
         <v>146</v>
@@ -8701,7 +8701,7 @@
         <v>169</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0.91981553264604832</v>
       </c>
       <c r="E198" t="s">
         <v>146</v>
@@ -8718,7 +8718,7 @@
         <v>170</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0.93877594501718209</v>
       </c>
       <c r="E199" t="s">
         <v>146</v>
@@ -8735,7 +8735,7 @@
         <v>171</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0.9205189003436427</v>
       </c>
       <c r="E200" t="s">
         <v>146</v>
@@ -8752,7 +8752,7 @@
         <v>172</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0.90993498281786944</v>
       </c>
       <c r="E201" t="s">
         <v>146</v>
@@ -8769,7 +8769,7 @@
         <v>173</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0.87932969072164946</v>
       </c>
       <c r="E202" t="s">
         <v>146</v>
@@ -8786,7 +8786,7 @@
         <v>174</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0.90216109965635738</v>
       </c>
       <c r="E203" t="s">
         <v>146</v>
@@ -8803,7 +8803,7 @@
         <v>48</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0.89415642611683843</v>
       </c>
       <c r="E204" t="s">
         <v>146</v>
@@ -8820,7 +8820,7 @@
         <v>49</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0.90243855670103079</v>
       </c>
       <c r="E205" t="s">
         <v>146</v>
@@ -8837,7 +8837,7 @@
         <v>50</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>0.94036343642611675</v>
       </c>
       <c r="E206" t="s">
         <v>146</v>
@@ -8854,7 +8854,7 @@
         <v>51</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0.94337168384879744</v>
       </c>
       <c r="E207" t="s">
         <v>146</v>
@@ -8871,7 +8871,7 @@
         <v>52</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>0.97142872852233675</v>
       </c>
       <c r="E208" t="s">
         <v>146</v>
@@ -8888,7 +8888,7 @@
         <v>53</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0.96377704467353953</v>
       </c>
       <c r="E209" t="s">
         <v>146</v>
@@ -8905,7 +8905,7 @@
         <v>54</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0.96066701030927837</v>
       </c>
       <c r="E210" t="s">
         <v>146</v>
@@ -8922,7 +8922,7 @@
         <v>55</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>0.90678261168384877</v>
       </c>
       <c r="E211" t="s">
         <v>146</v>
@@ -8939,7 +8939,7 @@
         <v>56</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0.91838247422680419</v>
       </c>
       <c r="E212" t="s">
         <v>146</v>
@@ -8956,7 +8956,7 @@
         <v>57</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>0.93904302405498274</v>
       </c>
       <c r="E213" t="s">
         <v>146</v>
@@ -8973,7 +8973,7 @@
         <v>58</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0.95965958762886616</v>
       </c>
       <c r="E214" t="s">
         <v>146</v>
@@ -8990,7 +8990,7 @@
         <v>59</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0.96059388316151217</v>
       </c>
       <c r="E215" t="s">
         <v>146</v>
@@ -9007,7 +9007,7 @@
         <v>60</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>0.96798563573883156</v>
       </c>
       <c r="E216" t="s">
         <v>146</v>
@@ -9024,7 +9024,7 @@
         <v>61</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0.94874384879725093</v>
       </c>
       <c r="E217" t="s">
         <v>146</v>
@@ -9041,7 +9041,7 @@
         <v>82</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0.99128584192439861</v>
       </c>
       <c r="E218" t="s">
         <v>146</v>
@@ -9058,7 +9058,7 @@
         <v>166</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>1.09651470790378</v>
       </c>
       <c r="E219" t="s">
         <v>146</v>
@@ -9075,7 +9075,7 @@
         <v>167</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>1.127360206185567</v>
       </c>
       <c r="E220" t="s">
         <v>146</v>
@@ -9092,7 +9092,7 @@
         <v>168</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>1.1543338144329898</v>
       </c>
       <c r="E221" t="s">
         <v>146</v>
@@ -9109,7 +9109,7 @@
         <v>169</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>1.2045236426116839</v>
       </c>
       <c r="E222" t="s">
         <v>146</v>
@@ -9126,7 +9126,7 @@
         <v>170</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>1.2453232989690721</v>
       </c>
       <c r="E223" t="s">
         <v>146</v>
@@ -9143,7 +9143,7 @@
         <v>171</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>1.2950220618556703</v>
       </c>
       <c r="E224" t="s">
         <v>146</v>
@@ -9160,7 +9160,7 @@
         <v>172</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>1.3106542955326459</v>
       </c>
       <c r="E225" t="s">
         <v>146</v>
@@ -9177,7 +9177,7 @@
         <v>173</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>1.2977606872852234</v>
       </c>
       <c r="E226" t="s">
         <v>146</v>
@@ -9194,7 +9194,7 @@
         <v>174</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>1.3214600000000001</v>
       </c>
       <c r="E227" t="s">
         <v>146</v>
@@ -9211,7 +9211,7 @@
         <v>48</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>1.2708189003436425</v>
       </c>
       <c r="E228" t="s">
         <v>146</v>
@@ -9228,7 +9228,7 @@
         <v>49</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>1.2609050171821305</v>
       </c>
       <c r="E229" t="s">
         <v>146</v>
@@ -9245,7 +9245,7 @@
         <v>50</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>1.2240962199312715</v>
       </c>
       <c r="E230" t="s">
         <v>146</v>
@@ -9262,7 +9262,7 @@
         <v>51</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>1.1857129896907217</v>
       </c>
       <c r="E231" t="s">
         <v>146</v>
@@ -9279,7 +9279,7 @@
         <v>52</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>1.0889511340206186</v>
       </c>
       <c r="E232" t="s">
         <v>146</v>
@@ -9296,7 +9296,7 @@
         <v>53</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>1.0770185567010309</v>
       </c>
       <c r="E233" t="s">
         <v>146</v>
@@ -9313,7 +9313,7 @@
         <v>54</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>1.0882625429553265</v>
       </c>
       <c r="E234" t="s">
         <v>146</v>
@@ -9330,7 +9330,7 @@
         <v>55</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>1.0373694845360826</v>
       </c>
       <c r="E235" t="s">
         <v>146</v>
@@ -9347,7 +9347,7 @@
         <v>56</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>1.0282863917525773</v>
       </c>
       <c r="E236" t="s">
         <v>146</v>
@@ -9364,7 +9364,7 @@
         <v>57</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>1.0052668728522336</v>
       </c>
       <c r="E237" t="s">
         <v>146</v>
@@ -9381,7 +9381,7 @@
         <v>58</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>1.010078969072165</v>
       </c>
       <c r="E238" t="s">
         <v>146</v>
@@ -9398,7 +9398,7 @@
         <v>59</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>1.0360531958762886</v>
       </c>
       <c r="E239" t="s">
         <v>146</v>
@@ -9415,7 +9415,7 @@
         <v>60</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>1.1252995876288658</v>
       </c>
       <c r="E240" t="s">
         <v>146</v>
@@ -9432,7 +9432,7 @@
         <v>61</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>1.1131998625429553</v>
       </c>
       <c r="E241" t="s">
         <v>146</v>
@@ -9449,7 +9449,7 @@
         <v>82</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>1.1386089347079038</v>
       </c>
       <c r="E242" t="s">
         <v>146</v>
@@ -9466,7 +9466,7 @@
         <v>166</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>1.09651470790378</v>
       </c>
       <c r="E243" t="s">
         <v>146</v>
@@ -9483,7 +9483,7 @@
         <v>167</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>1.127360206185567</v>
       </c>
       <c r="E244" t="s">
         <v>146</v>
@@ -9500,7 +9500,7 @@
         <v>168</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>1.1543338144329898</v>
       </c>
       <c r="E245" t="s">
         <v>146</v>
@@ -9517,7 +9517,7 @@
         <v>169</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>1.2045236426116839</v>
       </c>
       <c r="E246" t="s">
         <v>146</v>
@@ -9534,7 +9534,7 @@
         <v>170</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>1.2453232989690721</v>
       </c>
       <c r="E247" t="s">
         <v>146</v>
@@ -9551,7 +9551,7 @@
         <v>171</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>1.2950220618556703</v>
       </c>
       <c r="E248" t="s">
         <v>146</v>
@@ -9568,7 +9568,7 @@
         <v>172</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>1.3106542955326459</v>
       </c>
       <c r="E249" t="s">
         <v>146</v>
@@ -9585,7 +9585,7 @@
         <v>173</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>1.2977606872852234</v>
       </c>
       <c r="E250" t="s">
         <v>146</v>
@@ -9602,7 +9602,7 @@
         <v>174</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>1.3214600000000001</v>
       </c>
       <c r="E251" t="s">
         <v>146</v>
@@ -9619,7 +9619,7 @@
         <v>48</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>1.2708189003436425</v>
       </c>
       <c r="E252" t="s">
         <v>146</v>
@@ -9636,7 +9636,7 @@
         <v>49</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>1.2609050171821305</v>
       </c>
       <c r="E253" t="s">
         <v>146</v>
@@ -9653,7 +9653,7 @@
         <v>50</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>1.2240962199312715</v>
       </c>
       <c r="E254" t="s">
         <v>146</v>
@@ -9670,7 +9670,7 @@
         <v>51</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>1.1857129896907217</v>
       </c>
       <c r="E255" t="s">
         <v>146</v>
@@ -9687,7 +9687,7 @@
         <v>52</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>1.0889511340206186</v>
       </c>
       <c r="E256" t="s">
         <v>146</v>
@@ -9704,7 +9704,7 @@
         <v>53</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>1.0770185567010309</v>
       </c>
       <c r="E257" t="s">
         <v>146</v>
@@ -9721,7 +9721,7 @@
         <v>54</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>1.0882625429553265</v>
       </c>
       <c r="E258" t="s">
         <v>146</v>
@@ -9738,7 +9738,7 @@
         <v>55</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>1.0373694845360826</v>
       </c>
       <c r="E259" t="s">
         <v>146</v>
@@ -9755,7 +9755,7 @@
         <v>56</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>1.0282863917525773</v>
       </c>
       <c r="E260" t="s">
         <v>146</v>
@@ -9772,7 +9772,7 @@
         <v>57</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>1.0052668728522336</v>
       </c>
       <c r="E261" t="s">
         <v>146</v>
@@ -9789,7 +9789,7 @@
         <v>58</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>1.010078969072165</v>
       </c>
       <c r="E262" t="s">
         <v>146</v>
@@ -9806,7 +9806,7 @@
         <v>59</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>1.0360531958762886</v>
       </c>
       <c r="E263" t="s">
         <v>146</v>
@@ -9823,7 +9823,7 @@
         <v>60</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>1.1252995876288658</v>
       </c>
       <c r="E264" t="s">
         <v>146</v>
@@ -9840,7 +9840,7 @@
         <v>61</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>1.1131998625429553</v>
       </c>
       <c r="E265" t="s">
         <v>146</v>
@@ -9857,7 +9857,7 @@
         <v>82</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>1.1386089347079038</v>
       </c>
       <c r="E266" t="s">
         <v>146</v>
@@ -9874,7 +9874,7 @@
         <v>166</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0.7082865292096221</v>
       </c>
       <c r="E267" t="s">
         <v>146</v>
@@ -9891,7 +9891,7 @@
         <v>167</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0.7055918900343644</v>
       </c>
       <c r="E268" t="s">
         <v>146</v>
@@ -9908,7 +9908,7 @@
         <v>168</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0.73409807560137474</v>
       </c>
       <c r="E269" t="s">
         <v>146</v>
@@ -9925,7 +9925,7 @@
         <v>169</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0.7242515463917526</v>
       </c>
       <c r="E270" t="s">
         <v>146</v>
@@ -9942,7 +9942,7 @@
         <v>170</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0.69141910652920968</v>
       </c>
       <c r="E271" t="s">
         <v>146</v>
@@ -9959,7 +9959,7 @@
         <v>171</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0.64054776632302413</v>
       </c>
       <c r="E272" t="s">
         <v>146</v>
@@ -9976,7 +9976,7 @@
         <v>172</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0.59681731958762885</v>
       </c>
       <c r="E273" t="s">
         <v>146</v>
@@ -9993,7 +9993,7 @@
         <v>173</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0.58485711340206181</v>
       </c>
       <c r="E274" t="s">
         <v>146</v>
@@ -10010,7 +10010,7 @@
         <v>174</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0.59055931271477669</v>
       </c>
       <c r="E275" t="s">
         <v>146</v>
@@ -10027,7 +10027,7 @@
         <v>48</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0.56244536082474228</v>
       </c>
       <c r="E276" t="s">
         <v>146</v>
@@ -10044,7 +10044,7 @@
         <v>49</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>0.5557881786941582</v>
       </c>
       <c r="E277" t="s">
         <v>146</v>
@@ -10061,7 +10061,7 @@
         <v>50</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0.53917353951890024</v>
       </c>
       <c r="E278" t="s">
         <v>146</v>
@@ -10078,7 +10078,7 @@
         <v>51</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0.50700082474226804</v>
       </c>
       <c r="E279" t="s">
         <v>146</v>
@@ -10095,7 +10095,7 @@
         <v>52</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>0.48673807560137461</v>
       </c>
       <c r="E280" t="s">
         <v>146</v>
@@ -10112,7 +10112,7 @@
         <v>53</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0.46426089347079036</v>
       </c>
       <c r="E281" t="s">
         <v>146</v>
@@ -10129,7 +10129,7 @@
         <v>54</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0.46601869415807556</v>
       </c>
       <c r="E282" t="s">
         <v>146</v>
@@ -10146,7 +10146,7 @@
         <v>55</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>0.48226378006872855</v>
       </c>
       <c r="E283" t="s">
         <v>146</v>
@@ -10163,7 +10163,7 @@
         <v>56</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0.49528577319587624</v>
       </c>
       <c r="E284" t="s">
         <v>146</v>
@@ -10180,7 +10180,7 @@
         <v>57</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0.55130680412371125</v>
       </c>
       <c r="E285" t="s">
         <v>146</v>
@@ -10197,7 +10197,7 @@
         <v>58</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>0.59025525773195875</v>
       </c>
       <c r="E286" t="s">
         <v>146</v>
@@ -10214,7 +10214,7 @@
         <v>59</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0.59578240549828176</v>
       </c>
       <c r="E287" t="s">
         <v>146</v>
@@ -10231,7 +10231,7 @@
         <v>60</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0.65839030927835052</v>
       </c>
       <c r="E288" t="s">
         <v>146</v>
@@ -10248,7 +10248,7 @@
         <v>61</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0.69512666666666656</v>
       </c>
       <c r="E289" t="s">
         <v>146</v>
@@ -10265,7 +10265,7 @@
         <v>82</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>0.72474955326460488</v>
       </c>
       <c r="E290" t="s">
         <v>146</v>
@@ -10694,7 +10694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC785B2B-0E37-9544-BBB2-03F6CA987B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA25E0-9023-4614-952E-E125DB780D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -15,17 +15,16 @@
     <sheet name="Demand" sheetId="3" r:id="rId5"/>
     <sheet name="ConnectionsExisting" sheetId="2" r:id="rId6"/>
     <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
-    <sheet name="DiscountRateTech" sheetId="19" r:id="rId8"/>
-    <sheet name="Emission" sheetId="20" r:id="rId9"/>
-    <sheet name="Fuels" sheetId="6" r:id="rId10"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId13"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
-    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
-    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
-    <sheet name="ReserveMargin" sheetId="13" r:id="rId17"/>
-    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId18"/>
+    <sheet name="Emission" sheetId="20" r:id="rId8"/>
+    <sheet name="Fuels" sheetId="6" r:id="rId9"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId10"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId11"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId12"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
+    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId14"/>
+    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId15"/>
+    <sheet name="ReserveMargin" sheetId="13" r:id="rId16"/>
+    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="248">
   <si>
     <t>connection</t>
   </si>
@@ -714,30 +713,9 @@
     <t>EIA</t>
   </si>
   <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>vintage</t>
-  </si>
-  <si>
-    <t>tech_rate</t>
-  </si>
-  <si>
-    <t>tech_rate_notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC_WIND    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ED_SOLPV   </t>
-  </si>
-  <si>
     <t>8% discount rate Virginia</t>
   </si>
   <si>
-    <t>[name]</t>
-  </si>
-  <si>
     <t>periods</t>
   </si>
   <si>
@@ -799,6 +777,9 @@
   </si>
   <si>
     <t>kton</t>
+  </si>
+  <si>
+    <t>Ref_DiscountRate</t>
   </si>
 </sst>
 </file>
@@ -1244,12 +1225,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,7 +1250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1289,15 +1270,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1306,13 +1287,13 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1323,7 +1304,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1334,7 +1315,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1345,7 +1326,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1356,7 +1337,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1364,32 +1345,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1397,7 +1378,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -1405,7 +1386,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1413,7 +1394,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -1421,13 +1402,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -1435,7 +1416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -1443,7 +1424,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1451,7 +1432,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -1459,7 +1440,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -1467,7 +1448,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -1494,342 +1475,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4">
-        <v>2.76</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>90.37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5">
-        <v>11.3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>69.34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>39.51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8">
-        <v>11.3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>67.58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9">
-        <v>3.9140000000000001</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>63.3</v>
-      </c>
-      <c r="H9">
-        <v>50.3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12">
-        <v>1.94</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13">
-        <v>2.76</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>90.37</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1837,12 +1482,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1875,7 +1520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -1883,14 +1528,14 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1919,10 +1564,10 @@
         <v>200</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1954,7 +1599,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -1980,7 +1625,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2006,7 +1651,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2032,7 +1677,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2058,7 +1703,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -2084,7 +1729,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -2110,7 +1755,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -2136,7 +1781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -2162,7 +1807,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -2188,7 +1833,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -2214,7 +1859,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>206</v>
       </c>
@@ -2240,7 +1885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
@@ -2266,7 +1911,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>222</v>
       </c>
@@ -2295,7 +1940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>213</v>
       </c>
@@ -2321,12 +1966,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>102</v>
@@ -2347,7 +1992,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>223</v>
       </c>
@@ -2376,7 +2021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -2405,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -2431,7 +2076,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>195</v>
       </c>
@@ -2457,7 +2102,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>196</v>
       </c>
@@ -2483,7 +2128,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>198</v>
       </c>
@@ -2509,7 +2154,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>116</v>
       </c>
@@ -2535,7 +2180,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>117</v>
       </c>
@@ -2561,7 +2206,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>118</v>
       </c>
@@ -2587,7 +2232,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
@@ -2613,7 +2258,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>128</v>
       </c>
@@ -2642,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>129</v>
       </c>
@@ -2668,7 +2313,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>175</v>
       </c>
@@ -2694,7 +2339,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -2720,7 +2365,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>131</v>
       </c>
@@ -2746,7 +2391,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>132</v>
       </c>
@@ -2798,7 +2443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -2806,18 +2451,18 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2846,7 +2491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2875,7 +2520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -2900,7 +2545,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2925,7 +2570,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2950,7 +2595,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2975,7 +2620,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3000,7 +2645,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3025,7 +2670,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3050,7 +2695,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -3075,7 +2720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -3100,7 +2745,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -3125,7 +2770,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>206</v>
       </c>
@@ -3150,7 +2795,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>213</v>
       </c>
@@ -3175,7 +2820,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>222</v>
       </c>
@@ -3200,7 +2845,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -3225,9 +2870,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B17" s="5">
         <v>61</v>
@@ -3250,7 +2895,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -3275,7 +2920,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>223</v>
       </c>
@@ -3300,7 +2945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -3325,7 +2970,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>195</v>
       </c>
@@ -3350,7 +2995,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>196</v>
       </c>
@@ -3375,7 +3020,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>198</v>
       </c>
@@ -3400,7 +3045,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -3425,7 +3070,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -3450,7 +3095,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
@@ -3475,7 +3120,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
@@ -3500,7 +3145,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -3525,7 +3170,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -3550,7 +3195,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>175</v>
       </c>
@@ -3575,7 +3220,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -3600,7 +3245,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
@@ -3625,7 +3270,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>132</v>
       </c>
@@ -3649,6 +3294,949 @@
       <c r="I33" s="5" t="s">
         <v>203</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="5">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="11">
+        <v>19.599999999999998</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="11">
+        <v>24.633333333333336</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30.57</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="5">
+        <v>34.31</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45.56</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="11">
+        <v>42</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="11">
+        <v>425.4</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="9">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-2.67</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="5">
+        <v>119</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="6">
+        <v>123</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="21">
+        <v>1.39</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2.78</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="6">
+        <v>108</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-2.65</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="6">
+        <v>123</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1.39</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1544</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="17">
+        <v>38.6</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="17">
+        <v>4300</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="17">
+        <v>3</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" s="17">
+        <v>2.78</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="17">
+        <v>4020</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="17">
+        <v>123</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1.39</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="17">
+        <v>3603</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="17">
+        <v>40</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1044</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="17">
+        <v>13</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1044</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="17">
+        <v>13</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1044</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="22">
+        <v>13</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="17">
+        <v>943</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="17">
+        <v>11</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1566</v>
+      </c>
+      <c r="C26" s="17">
+        <v>-2.6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="17">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5">
+        <v>-2.67</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26">
+        <v>0.08</v>
+      </c>
+      <c r="L26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="17">
+        <v>3055</v>
+      </c>
+      <c r="C27" s="17">
+        <v>-2.75</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="17">
+        <v>130</v>
+      </c>
+      <c r="F27" s="17">
+        <v>-2.65</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27">
+        <v>0.08</v>
+      </c>
+      <c r="L27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1544</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="17">
+        <v>4020</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="17">
+        <v>123</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" s="17">
+        <v>1.39</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="20">
+        <v>1044</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="22">
+        <v>13</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="17">
+        <v>943</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="17">
+        <v>11</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2033</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-2.96</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="6">
+        <v>18</v>
+      </c>
+      <c r="F32" s="6">
+        <v>-3.37</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32">
+        <v>0.08</v>
+      </c>
+      <c r="L32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4455</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-4.12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="6">
+        <v>108</v>
+      </c>
+      <c r="F33" s="6">
+        <v>-2.67</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K33">
+        <v>0.08</v>
+      </c>
+      <c r="L33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3657,913 +4245,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L34"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="5">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="11">
-        <v>19.599999999999998</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2.8380000000000001</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="11">
-        <v>24.633333333333336</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="5">
-        <v>30.57</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="5">
-        <v>34.31</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="5">
-        <v>45.56</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="11">
-        <v>42</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="11">
-        <v>425.4</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="8">
-        <v>2.6309999999999998</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="9">
-        <v>13</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="5">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-2.67</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="5">
-        <v>119</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="6">
-        <v>123</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="21">
-        <v>1.39</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H15" s="21">
-        <v>2.78</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="6">
-        <v>108</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-2.65</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="6">
-        <v>123</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="21">
-        <v>1.39</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1544</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="17">
-        <v>38.6</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="17">
-        <v>4300</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="17">
-        <v>3</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="17">
-        <v>2.78</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="17">
-        <v>4020</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="17">
-        <v>123</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1.39</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="17">
-        <v>3603</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="17">
-        <v>40</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="17">
-        <v>1044</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="17">
-        <v>13</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="17">
-        <v>1044</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="17">
-        <v>13</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1044</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="22">
-        <v>13</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="17">
-        <v>943</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="17">
-        <v>11</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H25" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="17">
-        <v>1566</v>
-      </c>
-      <c r="C26" s="17">
-        <v>-2.6</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="17">
-        <v>19</v>
-      </c>
-      <c r="F26" s="5">
-        <v>-2.67</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="17">
-        <v>3055</v>
-      </c>
-      <c r="C27" s="17">
-        <v>-2.75</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="17">
-        <v>130</v>
-      </c>
-      <c r="F27" s="17">
-        <v>-2.65</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1544</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="6">
-        <v>38.6</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="17">
-        <v>4020</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="17">
-        <v>123</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="17">
-        <v>1.39</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="20">
-        <v>1044</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" s="22">
-        <v>13</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="17">
-        <v>943</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" s="17">
-        <v>11</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H31" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="6">
-        <v>2033</v>
-      </c>
-      <c r="C32" s="6">
-        <v>-2.96</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="6">
-        <v>18</v>
-      </c>
-      <c r="F32" s="6">
-        <v>-3.37</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="6">
-        <v>4455</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-4.12</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="6">
-        <v>108</v>
-      </c>
-      <c r="F33" s="6">
-        <v>-2.67</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -4571,20 +4252,20 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4607,16 +4288,16 @@
         <v>32</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4648,7 +4329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4662,7 +4343,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -4676,7 +4357,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -4690,7 +4371,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -4704,7 +4385,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -4718,7 +4399,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -4732,7 +4413,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -4742,7 +4423,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -4752,7 +4433,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -4764,7 +4445,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -4774,7 +4455,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>206</v>
       </c>
@@ -4788,7 +4469,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>222</v>
       </c>
@@ -4798,7 +4479,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
@@ -4812,7 +4493,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
@@ -4826,7 +4507,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>223</v>
       </c>
@@ -4840,7 +4521,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>115</v>
       </c>
@@ -4858,7 +4539,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>195</v>
       </c>
@@ -4876,7 +4557,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>196</v>
       </c>
@@ -4894,7 +4575,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>198</v>
       </c>
@@ -4912,7 +4593,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>116</v>
       </c>
@@ -4926,7 +4607,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>117</v>
       </c>
@@ -4940,7 +4621,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>118</v>
       </c>
@@ -4956,7 +4637,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>119</v>
       </c>
@@ -4967,7 +4648,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
@@ -4975,7 +4656,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
@@ -4989,7 +4670,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>175</v>
       </c>
@@ -4997,7 +4678,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
@@ -5005,7 +4686,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -5017,7 +4698,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>132</v>
       </c>
@@ -5034,7 +4715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -5042,14 +4723,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5063,7 +4744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5077,7 +4758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -5091,7 +4772,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -5102,7 +4783,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -5113,7 +4794,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -5127,7 +4808,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -5141,7 +4822,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -5155,7 +4836,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -5169,7 +4850,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -5180,7 +4861,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -5194,7 +4875,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -5208,7 +4889,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -5222,7 +4903,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -5236,7 +4917,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -5250,7 +4931,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -5264,7 +4945,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -5284,7 +4965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5292,14 +4973,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5307,7 +4988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5315,7 +4996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5325,23 +5006,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243:D266"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5358,7 +5039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5375,7 +5056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5392,7 +5073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5409,7 +5090,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5426,7 +5107,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5443,7 +5124,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5460,7 +5141,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5477,7 +5158,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5494,7 +5175,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5511,7 +5192,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5528,7 +5209,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5545,7 +5226,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5562,7 +5243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5579,7 +5260,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5596,7 +5277,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5613,7 +5294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5630,7 +5311,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5647,7 +5328,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5664,7 +5345,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5681,7 +5362,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5698,7 +5379,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -5715,7 +5396,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -5732,7 +5413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -5749,7 +5430,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -5766,7 +5447,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -5783,7 +5464,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5800,7 +5481,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5817,7 +5498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5834,7 +5515,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -5851,7 +5532,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -5868,7 +5549,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -5885,7 +5566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -5902,7 +5583,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -5919,7 +5600,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -5936,7 +5617,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5953,7 +5634,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -5970,7 +5651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -5987,7 +5668,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -6004,7 +5685,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -6021,7 +5702,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -6038,7 +5719,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -6055,7 +5736,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -6072,7 +5753,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -6089,7 +5770,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -6106,7 +5787,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -6123,7 +5804,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -6140,7 +5821,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -6157,7 +5838,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -6174,7 +5855,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -6191,7 +5872,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -6208,7 +5889,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -6225,7 +5906,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6242,7 +5923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -6259,7 +5940,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -6276,7 +5957,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6293,7 +5974,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6310,7 +5991,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6327,7 +6008,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6344,7 +6025,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6361,7 +6042,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6378,7 +6059,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6395,7 +6076,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6412,7 +6093,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6429,7 +6110,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6446,7 +6127,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6463,7 +6144,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6480,7 +6161,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6497,7 +6178,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6514,7 +6195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6531,7 +6212,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6548,7 +6229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6565,7 +6246,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6582,7 +6263,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6599,7 +6280,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6616,7 +6297,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6633,7 +6314,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6650,7 +6331,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6667,7 +6348,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6684,7 +6365,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6701,7 +6382,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -6718,7 +6399,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -6735,7 +6416,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -6752,7 +6433,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6769,7 +6450,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -6786,7 +6467,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6803,7 +6484,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -6820,7 +6501,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -6837,7 +6518,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -6854,7 +6535,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -6871,7 +6552,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -6888,7 +6569,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -6905,7 +6586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -6922,7 +6603,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6939,7 +6620,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -6956,7 +6637,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -6973,7 +6654,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -6990,7 +6671,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -7007,7 +6688,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -7024,7 +6705,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -7041,7 +6722,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -7058,7 +6739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -7075,7 +6756,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -7092,7 +6773,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -7109,7 +6790,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -7126,7 +6807,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -7143,7 +6824,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -7160,7 +6841,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -7177,7 +6858,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -7194,7 +6875,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -7211,7 +6892,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -7228,7 +6909,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -7245,7 +6926,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -7262,7 +6943,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -7279,7 +6960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -7296,7 +6977,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -7313,7 +6994,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -7330,7 +7011,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -7347,7 +7028,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7364,7 +7045,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7381,7 +7062,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7398,7 +7079,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7415,12 +7096,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>166</v>
@@ -7432,12 +7113,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>167</v>
@@ -7449,12 +7130,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>168</v>
@@ -7466,12 +7147,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>169</v>
@@ -7483,12 +7164,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>170</v>
@@ -7500,12 +7181,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>171</v>
@@ -7517,12 +7198,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>172</v>
@@ -7534,12 +7215,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>173</v>
@@ -7551,12 +7232,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>174</v>
@@ -7568,12 +7249,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>48</v>
@@ -7585,12 +7266,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>49</v>
@@ -7602,12 +7283,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>50</v>
@@ -7619,12 +7300,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>51</v>
@@ -7636,12 +7317,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>52</v>
@@ -7653,12 +7334,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>53</v>
@@ -7670,12 +7351,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>54</v>
@@ -7687,12 +7368,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>55</v>
@@ -7704,12 +7385,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>56</v>
@@ -7721,12 +7402,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>57</v>
@@ -7738,12 +7419,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>58</v>
@@ -7755,12 +7436,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B143" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>59</v>
@@ -7772,12 +7453,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>60</v>
@@ -7789,12 +7470,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>61</v>
@@ -7806,12 +7487,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B146" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>82</v>
@@ -7823,7 +7504,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -7840,7 +7521,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -7857,7 +7538,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -7874,7 +7555,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -7891,7 +7572,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -7908,7 +7589,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -7925,7 +7606,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -7942,7 +7623,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -7959,7 +7640,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -7976,7 +7657,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -7993,7 +7674,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -8010,7 +7691,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -8027,7 +7708,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -8044,7 +7725,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -8061,7 +7742,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -8078,7 +7759,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -8095,7 +7776,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -8112,7 +7793,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -8129,7 +7810,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -8146,7 +7827,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -8163,7 +7844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -8180,7 +7861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -8197,7 +7878,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -8214,7 +7895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -8231,7 +7912,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -8248,7 +7929,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -8265,7 +7946,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -8282,7 +7963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -8299,7 +7980,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8316,7 +7997,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8333,7 +8014,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8350,7 +8031,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8367,7 +8048,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8384,7 +8065,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8401,7 +8082,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8418,7 +8099,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8435,7 +8116,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8452,7 +8133,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8469,7 +8150,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8486,7 +8167,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8503,7 +8184,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8520,7 +8201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8537,7 +8218,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8554,7 +8235,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8571,7 +8252,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8588,7 +8269,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8605,7 +8286,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8622,7 +8303,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8639,7 +8320,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8656,7 +8337,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8673,7 +8354,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8690,7 +8371,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -8707,7 +8388,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -8724,7 +8405,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -8741,7 +8422,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -8758,7 +8439,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -8775,7 +8456,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -8792,7 +8473,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -8809,7 +8490,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -8826,7 +8507,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -8843,7 +8524,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -8860,7 +8541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -8877,7 +8558,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -8894,7 +8575,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -8911,7 +8592,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -8928,7 +8609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -8945,7 +8626,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -8962,7 +8643,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -8979,7 +8660,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -8996,7 +8677,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -9013,7 +8694,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -9030,7 +8711,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -9047,7 +8728,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -9064,7 +8745,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -9081,7 +8762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -9098,7 +8779,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -9115,7 +8796,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -9132,7 +8813,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -9149,7 +8830,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -9166,7 +8847,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -9183,7 +8864,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -9200,7 +8881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -9217,7 +8898,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -9234,7 +8915,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -9251,7 +8932,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -9268,7 +8949,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -9285,7 +8966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -9302,7 +8983,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -9319,7 +9000,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -9336,7 +9017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -9353,7 +9034,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -9370,7 +9051,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -9387,7 +9068,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -9404,7 +9085,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -9421,7 +9102,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -9438,7 +9119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -9455,7 +9136,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -9472,7 +9153,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -9489,7 +9170,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -9506,7 +9187,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -9523,7 +9204,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -9540,7 +9221,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -9557,7 +9238,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -9574,7 +9255,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -9591,7 +9272,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -9608,7 +9289,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -9625,7 +9306,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9642,7 +9323,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9659,7 +9340,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9676,7 +9357,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9693,7 +9374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -9710,7 +9391,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -9727,7 +9408,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -9744,7 +9425,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -9761,7 +9442,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -9778,7 +9459,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -9795,7 +9476,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -9812,7 +9493,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -9829,7 +9510,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -9846,7 +9527,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -9863,12 +9544,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B267" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C267" s="15" t="s">
         <v>166</v>
@@ -9880,12 +9561,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B268" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C268" s="15" t="s">
         <v>167</v>
@@ -9897,12 +9578,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B269" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C269" s="15" t="s">
         <v>168</v>
@@ -9914,12 +9595,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B270" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C270" s="15" t="s">
         <v>169</v>
@@ -9931,12 +9612,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B271" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>170</v>
@@ -9948,12 +9629,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B272" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>171</v>
@@ -9965,12 +9646,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B273" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>172</v>
@@ -9982,12 +9663,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B274" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>173</v>
@@ -9999,12 +9680,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B275" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C275" s="15" t="s">
         <v>174</v>
@@ -10016,12 +9697,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B276" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>48</v>
@@ -10033,12 +9714,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B277" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>49</v>
@@ -10050,12 +9731,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B278" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C278" s="15" t="s">
         <v>50</v>
@@ -10067,12 +9748,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B279" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C279" s="15" t="s">
         <v>51</v>
@@ -10084,12 +9765,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B280" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C280" s="15" t="s">
         <v>52</v>
@@ -10101,12 +9782,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B281" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C281" s="15" t="s">
         <v>53</v>
@@ -10118,12 +9799,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B282" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C282" s="15" t="s">
         <v>54</v>
@@ -10135,12 +9816,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B283" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>55</v>
@@ -10152,12 +9833,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B284" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C284" s="15" t="s">
         <v>56</v>
@@ -10169,12 +9850,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B285" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C285" s="15" t="s">
         <v>57</v>
@@ -10186,12 +9867,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B286" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C286" s="15" t="s">
         <v>58</v>
@@ -10203,12 +9884,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B287" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C287" s="15" t="s">
         <v>59</v>
@@ -10220,12 +9901,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B288" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C288" s="15" t="s">
         <v>60</v>
@@ -10237,12 +9918,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B289" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C289" s="15" t="s">
         <v>61</v>
@@ -10254,12 +9935,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B290" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C290" s="15" t="s">
         <v>82</v>
@@ -10285,13 +9966,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10302,7 +9983,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10313,7 +9994,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -10324,7 +10005,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -10335,9 +10016,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B5">
         <v>6.4000000000000001E-2</v>
@@ -10346,7 +10027,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -10357,7 +10038,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -10368,7 +10049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -10392,13 +10073,13 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -10409,7 +10090,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10420,7 +10101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -10431,7 +10112,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -10442,7 +10123,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -10453,7 +10134,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -10464,7 +10145,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -10475,7 +10156,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -10486,7 +10167,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -10497,7 +10178,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -10508,7 +10189,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -10519,7 +10200,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10530,7 +10211,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -10541,7 +10222,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -10552,7 +10233,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -10563,7 +10244,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10574,7 +10255,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -10585,7 +10266,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -10596,7 +10277,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -10607,7 +10288,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -10618,7 +10299,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -10629,7 +10310,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -10640,7 +10321,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -10651,7 +10332,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -10662,7 +10343,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -10673,7 +10354,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -10698,22 +10379,22 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10742,7 +10423,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -10754,16 +10435,16 @@
         <v>10</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10783,7 +10464,7 @@
         <v>72</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
         <v>71</v>
@@ -10792,7 +10473,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
@@ -10813,7 +10494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10860,7 +10541,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -10905,7 +10586,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -10952,7 +10633,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -10999,7 +10680,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -11039,7 +10720,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -11086,7 +10767,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -11133,7 +10814,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -11173,7 +10854,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -11213,7 +10894,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -11253,7 +10934,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -11293,7 +10974,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -11347,13 +11028,13 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11367,7 +11048,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11381,7 +11062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2018</v>
       </c>
@@ -11395,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2020</v>
       </c>
@@ -11409,7 +11090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2025</v>
       </c>
@@ -11423,7 +11104,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2030</v>
       </c>
@@ -11437,7 +11118,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2035</v>
       </c>
@@ -11451,7 +11132,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2040</v>
       </c>
@@ -11465,7 +11146,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>2045</v>
       </c>
@@ -11479,7 +11160,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2050</v>
       </c>
@@ -11493,7 +11174,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2055</v>
       </c>
@@ -11521,13 +11202,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11541,7 +11222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -11555,7 +11236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11569,7 +11250,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -11583,7 +11264,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -11597,7 +11278,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -11625,13 +11306,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -11639,7 +11320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -11647,7 +11328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -11661,542 +11342,471 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEDF73-15BA-AB46-9BE9-827A810B084A}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3">
-        <v>2020</v>
-      </c>
-      <c r="C3">
-        <v>0.08</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="C4">
-        <v>0.08</v>
-      </c>
-      <c r="D4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5">
-        <v>2020</v>
-      </c>
-      <c r="C5">
-        <v>0.08</v>
-      </c>
-      <c r="D5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
         <v>2025</v>
       </c>
-      <c r="C6">
-        <v>0.08</v>
-      </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="15">
-        <v>2025</v>
-      </c>
-      <c r="C7">
-        <v>0.08</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="15">
-        <v>2025</v>
-      </c>
-      <c r="C8">
-        <v>0.08</v>
-      </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="B3" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="25">
+        <v>23800</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
         <v>2030</v>
       </c>
-      <c r="C9">
-        <v>0.08</v>
-      </c>
-      <c r="D9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="15">
-        <v>2030</v>
-      </c>
-      <c r="C10">
-        <v>0.08</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="15">
-        <v>2030</v>
-      </c>
-      <c r="C11">
-        <v>0.08</v>
-      </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2030</v>
-      </c>
-      <c r="C12">
-        <v>0.08</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="B4" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="25">
+        <v>19600</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>2035</v>
       </c>
-      <c r="C13">
-        <v>0.08</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2035</v>
-      </c>
-      <c r="C14">
-        <v>0.08</v>
-      </c>
-      <c r="D14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="15">
-        <v>2035</v>
-      </c>
-      <c r="C15">
-        <v>0.08</v>
-      </c>
-      <c r="D15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="15">
-        <v>2035</v>
-      </c>
-      <c r="C16">
-        <v>0.08</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="B5" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="25">
+        <v>14700</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>2040</v>
       </c>
-      <c r="C17">
-        <v>0.08</v>
-      </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="15">
-        <v>2040</v>
-      </c>
-      <c r="C18">
-        <v>0.08</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="15">
-        <v>2040</v>
-      </c>
-      <c r="C19">
-        <v>0.08</v>
-      </c>
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="15">
-        <v>2040</v>
-      </c>
-      <c r="C20">
-        <v>0.08</v>
-      </c>
-      <c r="D20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="15">
+      <c r="B6" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="25">
+        <v>9800</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>2045</v>
       </c>
-      <c r="C21">
-        <v>0.08</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="15">
-        <v>2045</v>
-      </c>
-      <c r="C22">
-        <v>0.08</v>
-      </c>
-      <c r="D22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="15">
-        <v>2045</v>
-      </c>
-      <c r="C23">
-        <v>0.08</v>
-      </c>
-      <c r="D23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="15">
-        <v>2045</v>
-      </c>
-      <c r="C24">
-        <v>0.08</v>
-      </c>
-      <c r="D24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="15">
+      <c r="B7" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="25">
+        <v>4900</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>2050</v>
       </c>
-      <c r="C25">
-        <v>0.08</v>
-      </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C26">
-        <v>0.08</v>
-      </c>
-      <c r="D26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C27">
-        <v>0.08</v>
-      </c>
-      <c r="D27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C28">
-        <v>0.08</v>
-      </c>
-      <c r="D28" t="s">
-        <v>165</v>
+      <c r="B8" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>2.76</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>90.37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>11.3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>69.34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>39.51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>11.3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>67.58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>63.3</v>
+      </c>
+      <c r="H9">
+        <v>50.3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12">
+        <v>1.94</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
-        <v>2025</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="25">
-        <v>23800</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>2030</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" s="25">
-        <v>19600</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>2035</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="25">
-        <v>14700</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>2040</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="25">
-        <v>9800</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>2045</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="25">
-        <v>4900</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>2050</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>253</v>
+      <c r="B13">
+        <v>2.76</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>90.37</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA25E0-9023-4614-952E-E125DB780D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B3AE7-C9E3-48EC-A5DE-53B90B339FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
     <sheet name="representativeDays" sheetId="16" r:id="rId2"/>
     <sheet name="timesOfDay" sheetId="18" r:id="rId3"/>
     <sheet name="Connections" sheetId="1" r:id="rId4"/>
-    <sheet name="Demand" sheetId="3" r:id="rId5"/>
-    <sheet name="ConnectionsExisting" sheetId="2" r:id="rId6"/>
+    <sheet name="ConnectionsExisting" sheetId="2" r:id="rId5"/>
+    <sheet name="Demand" sheetId="3" r:id="rId6"/>
     <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
     <sheet name="Emission" sheetId="20" r:id="rId8"/>
     <sheet name="Fuels" sheetId="6" r:id="rId9"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="248">
   <si>
     <t>connection</t>
   </si>
@@ -3305,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3320,6 +3320,8 @@
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3330,25 +3332,25 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3368,25 +3370,25 @@
       <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J2" t="s">
@@ -3415,10 +3417,10 @@
       <c r="G3" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="10" t="s">
         <v>203</v>
       </c>
@@ -4249,7 +4251,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4287,13 +4289,13 @@
       <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4319,13 +4321,13 @@
       <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5010,9 +5012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10373,10 +10373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10389,12 +10389,14 @@
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10413,38 +10415,44 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="P1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="Q1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="R1" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10463,38 +10471,44 @@
       <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="P2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="Q2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="R2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10528,20 +10542,20 @@
       <c r="K3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>2018</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -10573,20 +10587,20 @@
       <c r="K4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>30</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>2018</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -10620,20 +10634,20 @@
       <c r="K5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>30</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>2018</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -10667,20 +10681,20 @@
       <c r="K6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>30</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>2018</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -10707,20 +10721,20 @@
         <v>0</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>30</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>2018</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -10754,20 +10768,20 @@
       <c r="K8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>30</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>2018</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -10801,20 +10815,20 @@
       <c r="K9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>30</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>2018</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -10841,20 +10855,21 @@
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2">
+      <c r="L10" s="2"/>
+      <c r="N10" s="2">
         <v>30</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>2018</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -10881,20 +10896,20 @@
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>30</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>2018</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -10921,20 +10936,20 @@
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>30</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>2018</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -10961,20 +10976,20 @@
         <v>0</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>30</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>2018</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -11001,16 +11016,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>30</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>2018</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <v>2050</v>
       </c>
     </row>
@@ -11021,6 +11036,110 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -11186,110 +11305,6 @@
       </c>
       <c r="D11" s="15">
         <v>772.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>50000</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4">
-        <v>50000</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5">
-        <v>50000</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6">
-        <v>50000</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -11345,7 +11360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
@@ -11477,10 +11492,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11497,9 +11512,11 @@
     <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -11515,7 +11532,7 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>240</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -11536,17 +11553,23 @@
       <c r="L1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -11562,7 +11585,7 @@
       <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G2" t="s">
@@ -11583,17 +11606,23 @@
       <c r="L2" t="s">
         <v>157</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -11614,7 +11643,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -11637,7 +11666,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -11660,7 +11689,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -11674,7 +11703,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -11694,7 +11723,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -11717,7 +11746,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -11743,7 +11772,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -11757,7 +11786,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -11771,7 +11800,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -11785,7 +11814,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>236</v>
       </c>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B3AE7-C9E3-48EC-A5DE-53B90B339FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A9E75C-E2A4-417F-A385-CA0670035084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="253">
   <si>
     <t>connection</t>
   </si>
@@ -593,18 +593,6 @@
     <t>ELC_DIST_MID</t>
   </si>
   <si>
-    <t>COAL_TAX</t>
-  </si>
-  <si>
-    <t>DSL_TAX</t>
-  </si>
-  <si>
-    <t>OIL_TAX</t>
-  </si>
-  <si>
-    <t>NATGAS_TAX</t>
-  </si>
-  <si>
     <t>DSL_TAXED</t>
   </si>
   <si>
@@ -617,9 +605,6 @@
     <t>NATGAS_TAXED</t>
   </si>
   <si>
-    <t>MSW_LF_TAX</t>
-  </si>
-  <si>
     <t>MSW_LF_TAXED</t>
   </si>
   <si>
@@ -780,6 +765,36 @@
   </si>
   <si>
     <t>Ref_DiscountRate</t>
+  </si>
+  <si>
+    <t>COAL_TAX_ON</t>
+  </si>
+  <si>
+    <t>DSL_TAX_ON</t>
+  </si>
+  <si>
+    <t>MSW_LF_TAX_ON</t>
+  </si>
+  <si>
+    <t>NATGAS_TAX_ON</t>
+  </si>
+  <si>
+    <t>OIL_TAX_ON</t>
+  </si>
+  <si>
+    <t>COAL_TAX_OFF</t>
+  </si>
+  <si>
+    <t>DSL_TAX_OFF</t>
+  </si>
+  <si>
+    <t>MSW_LF_TAX_OFF</t>
+  </si>
+  <si>
+    <t>OIL_TAX_OFF</t>
+  </si>
+  <si>
+    <t>NATGAS_TAX_OFF</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1290,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1283,7 +1298,7 @@
         <v>84</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -1298,10 +1313,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1309,10 +1324,10 @@
         <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1320,10 +1335,10 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1331,10 +1346,10 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1399,7 +1414,7 @@
         <v>139</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,7 +1460,7 @@
         <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1453,7 +1468,7 @@
         <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1540,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,10 +1576,10 @@
         <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1593,10 +1608,10 @@
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1604,7 +1619,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>102</v>
@@ -1630,7 +1645,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>102</v>
@@ -1656,7 +1671,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>102</v>
@@ -1682,7 +1697,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>102</v>
@@ -1708,7 +1723,7 @@
         <v>107</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>102</v>
@@ -1734,7 +1749,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>102</v>
@@ -1786,7 +1801,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>102</v>
@@ -1812,7 +1827,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -1861,10 +1876,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>102</v>
@@ -1913,7 +1928,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>102</v>
@@ -1942,7 +1957,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>120</v>
@@ -1968,10 +1983,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>102</v>
@@ -1994,7 +2009,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>102</v>
@@ -2078,10 +2093,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>102</v>
@@ -2104,10 +2119,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>102</v>
@@ -2130,10 +2145,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>102</v>
@@ -2159,7 +2174,7 @@
         <v>116</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>102</v>
@@ -2185,7 +2200,7 @@
         <v>117</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>102</v>
@@ -2318,7 +2333,7 @@
         <v>175</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>99</v>
@@ -2344,7 +2359,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>99</v>
@@ -2528,13 +2543,13 @@
         <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D3" s="8">
         <v>39.4</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2542,7 +2557,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2553,13 +2568,13 @@
         <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D4" s="8">
         <v>29.9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2567,7 +2582,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2578,13 +2593,13 @@
         <v>80</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D5" s="8">
         <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2592,7 +2607,7 @@
         <v>50</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2603,13 +2618,13 @@
         <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8">
         <v>35.299999999999997</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2617,7 +2632,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2628,13 +2643,13 @@
         <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D7" s="8">
         <v>34.6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -2642,7 +2657,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2653,13 +2668,13 @@
         <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D8" s="8">
         <v>34.1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -2667,7 +2682,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2678,13 +2693,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D9" s="8">
         <v>90</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2692,7 +2707,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2703,13 +2718,13 @@
         <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D10" s="5">
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2717,7 +2732,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2728,13 +2743,13 @@
         <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D11" s="8">
         <v>54.1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -2742,7 +2757,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2753,13 +2768,13 @@
         <v>23.2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D12" s="5">
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2767,24 +2782,24 @@
         <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5">
         <v>93.6</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D13" s="5">
         <v>32.6</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2792,24 +2807,24 @@
         <v>100</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5">
         <v>61.9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D14" s="5">
         <v>35.299999999999997</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="8"/>
@@ -2817,24 +2832,24 @@
         <v>45</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B15" s="5">
         <v>14.8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D15" s="5">
         <v>80</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
@@ -2842,7 +2857,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2853,13 +2868,13 @@
         <v>48.5</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D16" s="5">
         <v>50</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -2867,24 +2882,24 @@
         <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B17" s="5">
         <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D17" s="24">
         <v>35.299999999999997</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
@@ -2892,7 +2907,7 @@
         <v>50</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2903,13 +2918,13 @@
         <v>16.7</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D18" s="16">
         <v>85</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -2917,24 +2932,24 @@
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B19" s="16">
         <v>14.8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D19" s="16">
         <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -2942,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2953,13 +2968,13 @@
         <v>61.9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D20" s="16">
         <v>35.299999999999997</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -2967,24 +2982,24 @@
         <v>45</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B21" s="16">
         <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D21" s="19">
         <v>39.4</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2992,24 +3007,24 @@
         <v>40</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B22" s="16">
         <v>87</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D22" s="19">
         <v>51.7</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -3017,24 +3032,24 @@
         <v>55</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B23" s="16">
         <v>87</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D23" s="19">
         <v>51.7</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -3042,7 +3057,7 @@
         <v>45</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3053,13 +3068,13 @@
         <v>55</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D24" s="16">
         <v>54.1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3067,7 +3082,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3078,13 +3093,13 @@
         <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D25" s="16">
         <v>42.47</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -3092,7 +3107,7 @@
         <v>55</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3103,13 +3118,13 @@
         <v>23.2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D26" s="16">
         <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -3117,7 +3132,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3128,13 +3143,13 @@
         <v>48.5</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D27" s="16">
         <v>50</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -3142,7 +3157,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3153,13 +3168,13 @@
         <v>16.7</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D28" s="8">
         <v>85</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -3167,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3178,13 +3193,13 @@
         <v>61.9</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D29" s="5">
         <v>35.299999999999997</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
@@ -3192,7 +3207,7 @@
         <v>45</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3203,13 +3218,13 @@
         <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D30" s="8">
         <v>54.1</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
@@ -3217,7 +3232,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3228,13 +3243,13 @@
         <v>55</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D31" s="8">
         <v>54.1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
@@ -3242,7 +3257,7 @@
         <v>55</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3253,13 +3268,13 @@
         <v>23.2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D32" s="5">
         <v>20</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
@@ -3267,7 +3282,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3278,13 +3293,13 @@
         <v>46</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D33" s="5">
         <v>50</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="8"/>
@@ -3292,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3305,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" activeCellId="1" sqref="A27 A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3333,7 +3348,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -3342,7 +3357,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>34</v>
@@ -3360,7 +3375,7 @@
         <v>79</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -3408,21 +3423,21 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E3" s="5">
         <v>40</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H3" s="5">
         <v>1.1100000000000001</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3432,21 +3447,21 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E4" s="11">
         <v>19.599999999999998</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H4" s="8">
         <v>2.8380000000000001</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3456,21 +3471,21 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E5" s="11">
         <v>24.633333333333336</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H5" s="8">
         <v>0.99299999999999999</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3480,21 +3495,21 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E6" s="5">
         <v>30.57</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H6" s="8">
         <v>0.59699999999999998</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3504,21 +3519,21 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E7" s="5">
         <v>34.31</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H7" s="8">
         <v>0.72199999999999998</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3528,21 +3543,21 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E8" s="5">
         <v>45.56</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H8" s="8">
         <v>1.0289999999999999</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3552,21 +3567,21 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E9" s="11">
         <v>42</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -3576,21 +3591,21 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E10" s="11">
         <v>425.4</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H10" s="8">
         <v>2.6309999999999998</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3600,21 +3615,21 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E11" s="9">
         <v>13</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H11" s="8">
         <v>0.55600000000000005</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3624,7 +3639,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E12" s="5">
         <v>19</v>
@@ -3633,7 +3648,7 @@
         <v>-2.67</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -3642,79 +3657,79 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E13" s="5">
         <v>119</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H13" s="5">
         <v>0.55600000000000005</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E14" s="6">
         <v>123</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H14" s="21">
         <v>1.39</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H15" s="21">
         <v>2.78</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3724,7 +3739,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E16" s="6">
         <v>108</v>
@@ -3733,7 +3748,7 @@
         <v>-2.65</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H16" s="21">
         <v>0</v>
@@ -3742,31 +3757,31 @@
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E17" s="6">
         <v>123</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H17" s="21">
         <v>1.39</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3778,47 +3793,47 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E18" s="17">
         <v>38.6</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H18" s="17">
         <v>0</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B19" s="17">
         <v>4300</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E19" s="17">
         <v>3</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H19" s="17">
         <v>2.78</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3830,99 +3845,99 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E20" s="17">
         <v>123</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H20" s="17">
         <v>1.39</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B21" s="17">
         <v>3603</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E21" s="17">
         <v>40</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H21" s="17">
         <v>1.1100000000000001</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B22" s="17">
         <v>1044</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E22" s="17">
         <v>13</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H22" s="17">
         <v>0.55600000000000005</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B23" s="17">
         <v>1044</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E23" s="17">
         <v>13</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H23" s="17">
         <v>0.55600000000000005</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3934,21 +3949,21 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E24" s="22">
         <v>13</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H24" s="17">
         <v>0.55600000000000005</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3960,21 +3975,21 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E25" s="17">
         <v>11</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H25" s="17">
         <v>1.1100000000000001</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3988,7 +4003,7 @@
         <v>-2.6</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E26" s="17">
         <v>19</v>
@@ -3997,7 +4012,7 @@
         <v>-2.67</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H26" s="17">
         <v>0</v>
@@ -4006,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K26">
         <v>0.08</v>
@@ -4026,7 +4041,7 @@
         <v>-2.75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E27" s="17">
         <v>130</v>
@@ -4035,7 +4050,7 @@
         <v>-2.65</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H27" s="17">
         <v>0</v>
@@ -4044,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K27">
         <v>0.08</v>
@@ -4062,21 +4077,21 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E28" s="6">
         <v>38.6</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H28" s="21">
         <v>0</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -4088,21 +4103,21 @@
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E29" s="17">
         <v>123</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H29" s="17">
         <v>1.39</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -4114,21 +4129,21 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E30" s="22">
         <v>13</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H30" s="17">
         <v>0.55600000000000005</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -4140,21 +4155,21 @@
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E31" s="17">
         <v>11</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H31" s="17">
         <v>1.1100000000000001</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -4168,7 +4183,7 @@
         <v>-2.96</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E32" s="6">
         <v>18</v>
@@ -4177,7 +4192,7 @@
         <v>-3.37</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H32" s="6">
         <v>0</v>
@@ -4186,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K32">
         <v>0.08</v>
@@ -4206,7 +4221,7 @@
         <v>-4.12</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E33" s="6">
         <v>108</v>
@@ -4215,7 +4230,7 @@
         <v>-2.67</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H33" s="6">
         <v>0</v>
@@ -4224,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K33">
         <v>0.08</v>
@@ -4290,13 +4305,13 @@
         <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4459,7 +4474,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5">
         <v>0.01</v>
@@ -4473,7 +4488,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4511,7 +4526,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -4543,7 +4558,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B19" s="19">
         <v>0.93</v>
@@ -4561,7 +4576,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B20" s="19">
         <v>0.93</v>
@@ -4579,7 +4594,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B21" s="16">
         <v>1</v>
@@ -4771,7 +4786,7 @@
         <v>1985</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4807,7 +4822,7 @@
         <v>1980</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4849,7 +4864,7 @@
         <v>2010</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4874,7 +4889,7 @@
         <v>1995</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4888,7 +4903,7 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4902,7 +4917,7 @@
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4916,12 +4931,12 @@
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B15">
         <v>3568</v>
@@ -4930,12 +4945,12 @@
         <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B16">
         <v>1475</v>
@@ -4944,12 +4959,12 @@
         <v>2013</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B17">
         <v>3241</v>
@@ -4958,7 +4973,7 @@
         <v>1970</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5061,7 +5076,7 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>166</v>
@@ -5078,7 +5093,7 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>167</v>
@@ -5095,7 +5110,7 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>168</v>
@@ -5112,7 +5127,7 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>169</v>
@@ -5129,7 +5144,7 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>170</v>
@@ -5146,7 +5161,7 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>171</v>
@@ -5163,7 +5178,7 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>172</v>
@@ -5180,7 +5195,7 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>173</v>
@@ -5197,7 +5212,7 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>174</v>
@@ -5214,7 +5229,7 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>48</v>
@@ -5231,7 +5246,7 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>49</v>
@@ -5248,7 +5263,7 @@
         <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>50</v>
@@ -5265,7 +5280,7 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>51</v>
@@ -5282,7 +5297,7 @@
         <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>52</v>
@@ -5299,7 +5314,7 @@
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>53</v>
@@ -5316,7 +5331,7 @@
         <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>54</v>
@@ -5333,7 +5348,7 @@
         <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>55</v>
@@ -5350,7 +5365,7 @@
         <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>56</v>
@@ -5367,7 +5382,7 @@
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>57</v>
@@ -5384,7 +5399,7 @@
         <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>58</v>
@@ -5401,7 +5416,7 @@
         <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>59</v>
@@ -5418,7 +5433,7 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>60</v>
@@ -5435,7 +5450,7 @@
         <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>61</v>
@@ -5452,7 +5467,7 @@
         <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>82</v>
@@ -5469,7 +5484,7 @@
         <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>166</v>
@@ -5486,7 +5501,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>167</v>
@@ -5503,7 +5518,7 @@
         <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>168</v>
@@ -5520,7 +5535,7 @@
         <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>169</v>
@@ -5537,7 +5552,7 @@
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>170</v>
@@ -5554,7 +5569,7 @@
         <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>171</v>
@@ -5571,7 +5586,7 @@
         <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>172</v>
@@ -5588,7 +5603,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>173</v>
@@ -5605,7 +5620,7 @@
         <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>174</v>
@@ -5622,7 +5637,7 @@
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>48</v>
@@ -5639,7 +5654,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>49</v>
@@ -5656,7 +5671,7 @@
         <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>50</v>
@@ -5673,7 +5688,7 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>51</v>
@@ -5690,7 +5705,7 @@
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>52</v>
@@ -5707,7 +5722,7 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>53</v>
@@ -5724,7 +5739,7 @@
         <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>54</v>
@@ -5741,7 +5756,7 @@
         <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>55</v>
@@ -5758,7 +5773,7 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>56</v>
@@ -5775,7 +5790,7 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>57</v>
@@ -5792,7 +5807,7 @@
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>58</v>
@@ -5809,7 +5824,7 @@
         <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>59</v>
@@ -5826,7 +5841,7 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>60</v>
@@ -5843,7 +5858,7 @@
         <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>61</v>
@@ -5860,7 +5875,7 @@
         <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>82</v>
@@ -5877,7 +5892,7 @@
         <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>166</v>
@@ -5894,7 +5909,7 @@
         <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>167</v>
@@ -5911,7 +5926,7 @@
         <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>168</v>
@@ -5928,7 +5943,7 @@
         <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>169</v>
@@ -5945,7 +5960,7 @@
         <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>170</v>
@@ -5962,7 +5977,7 @@
         <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>171</v>
@@ -5979,7 +5994,7 @@
         <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>172</v>
@@ -5996,7 +6011,7 @@
         <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>173</v>
@@ -6013,7 +6028,7 @@
         <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>174</v>
@@ -6030,7 +6045,7 @@
         <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>48</v>
@@ -6047,7 +6062,7 @@
         <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>49</v>
@@ -6064,7 +6079,7 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>50</v>
@@ -6081,7 +6096,7 @@
         <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>51</v>
@@ -6098,7 +6113,7 @@
         <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>52</v>
@@ -6115,7 +6130,7 @@
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>53</v>
@@ -6132,7 +6147,7 @@
         <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>54</v>
@@ -6149,7 +6164,7 @@
         <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>55</v>
@@ -6166,7 +6181,7 @@
         <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>56</v>
@@ -6183,7 +6198,7 @@
         <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>57</v>
@@ -6200,7 +6215,7 @@
         <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>58</v>
@@ -6217,7 +6232,7 @@
         <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>59</v>
@@ -6234,7 +6249,7 @@
         <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>60</v>
@@ -6251,7 +6266,7 @@
         <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>61</v>
@@ -6268,7 +6283,7 @@
         <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>82</v>
@@ -6285,7 +6300,7 @@
         <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>166</v>
@@ -6302,7 +6317,7 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>167</v>
@@ -6319,7 +6334,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>168</v>
@@ -6336,7 +6351,7 @@
         <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>169</v>
@@ -6353,7 +6368,7 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>170</v>
@@ -6370,7 +6385,7 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>171</v>
@@ -6387,7 +6402,7 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>172</v>
@@ -6404,7 +6419,7 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>173</v>
@@ -6421,7 +6436,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>174</v>
@@ -6438,7 +6453,7 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>48</v>
@@ -6455,7 +6470,7 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>49</v>
@@ -6472,7 +6487,7 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>50</v>
@@ -6489,7 +6504,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>51</v>
@@ -6506,7 +6521,7 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>52</v>
@@ -6523,7 +6538,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>53</v>
@@ -6540,7 +6555,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>54</v>
@@ -6557,7 +6572,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>55</v>
@@ -6574,7 +6589,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>56</v>
@@ -6591,7 +6606,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>57</v>
@@ -6608,7 +6623,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>58</v>
@@ -6625,7 +6640,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>59</v>
@@ -6642,7 +6657,7 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>60</v>
@@ -6659,7 +6674,7 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>61</v>
@@ -6676,7 +6691,7 @@
         <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>82</v>
@@ -6693,7 +6708,7 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>166</v>
@@ -6710,7 +6725,7 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>167</v>
@@ -6727,7 +6742,7 @@
         <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>168</v>
@@ -6744,7 +6759,7 @@
         <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>169</v>
@@ -6761,7 +6776,7 @@
         <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>170</v>
@@ -6778,7 +6793,7 @@
         <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>171</v>
@@ -6795,7 +6810,7 @@
         <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>172</v>
@@ -6812,7 +6827,7 @@
         <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>173</v>
@@ -6829,7 +6844,7 @@
         <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>174</v>
@@ -6846,7 +6861,7 @@
         <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>48</v>
@@ -6863,7 +6878,7 @@
         <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>49</v>
@@ -6880,7 +6895,7 @@
         <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>50</v>
@@ -6897,7 +6912,7 @@
         <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>51</v>
@@ -6914,7 +6929,7 @@
         <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>52</v>
@@ -6931,7 +6946,7 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>53</v>
@@ -6948,7 +6963,7 @@
         <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>54</v>
@@ -6965,7 +6980,7 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>55</v>
@@ -6982,7 +6997,7 @@
         <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>56</v>
@@ -6999,7 +7014,7 @@
         <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>57</v>
@@ -7016,7 +7031,7 @@
         <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>58</v>
@@ -7033,7 +7048,7 @@
         <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>59</v>
@@ -7050,7 +7065,7 @@
         <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>60</v>
@@ -7067,7 +7082,7 @@
         <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>61</v>
@@ -7084,7 +7099,7 @@
         <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>82</v>
@@ -7101,7 +7116,7 @@
         <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>166</v>
@@ -7118,7 +7133,7 @@
         <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>167</v>
@@ -7135,7 +7150,7 @@
         <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>168</v>
@@ -7152,7 +7167,7 @@
         <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>169</v>
@@ -7169,7 +7184,7 @@
         <v>92</v>
       </c>
       <c r="B127" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>170</v>
@@ -7186,7 +7201,7 @@
         <v>92</v>
       </c>
       <c r="B128" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>171</v>
@@ -7203,7 +7218,7 @@
         <v>92</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>172</v>
@@ -7220,7 +7235,7 @@
         <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>173</v>
@@ -7237,7 +7252,7 @@
         <v>92</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>174</v>
@@ -7254,7 +7269,7 @@
         <v>92</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>48</v>
@@ -7271,7 +7286,7 @@
         <v>92</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>49</v>
@@ -7288,7 +7303,7 @@
         <v>92</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>50</v>
@@ -7305,7 +7320,7 @@
         <v>92</v>
       </c>
       <c r="B135" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>51</v>
@@ -7322,7 +7337,7 @@
         <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>52</v>
@@ -7339,7 +7354,7 @@
         <v>92</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>53</v>
@@ -7356,7 +7371,7 @@
         <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>54</v>
@@ -7373,7 +7388,7 @@
         <v>92</v>
       </c>
       <c r="B139" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>55</v>
@@ -7390,7 +7405,7 @@
         <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>56</v>
@@ -7407,7 +7422,7 @@
         <v>92</v>
       </c>
       <c r="B141" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>57</v>
@@ -7424,7 +7439,7 @@
         <v>92</v>
       </c>
       <c r="B142" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>58</v>
@@ -7441,7 +7456,7 @@
         <v>92</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>59</v>
@@ -7458,7 +7473,7 @@
         <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>60</v>
@@ -7475,7 +7490,7 @@
         <v>92</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>61</v>
@@ -7492,7 +7507,7 @@
         <v>92</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>82</v>
@@ -7509,7 +7524,7 @@
         <v>93</v>
       </c>
       <c r="B147" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>166</v>
@@ -7526,7 +7541,7 @@
         <v>93</v>
       </c>
       <c r="B148" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>167</v>
@@ -7543,7 +7558,7 @@
         <v>93</v>
       </c>
       <c r="B149" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>168</v>
@@ -7560,7 +7575,7 @@
         <v>93</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>169</v>
@@ -7577,7 +7592,7 @@
         <v>93</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>170</v>
@@ -7594,7 +7609,7 @@
         <v>93</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>171</v>
@@ -7611,7 +7626,7 @@
         <v>93</v>
       </c>
       <c r="B153" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>172</v>
@@ -7628,7 +7643,7 @@
         <v>93</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>173</v>
@@ -7645,7 +7660,7 @@
         <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>174</v>
@@ -7662,7 +7677,7 @@
         <v>93</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>48</v>
@@ -7679,7 +7694,7 @@
         <v>93</v>
       </c>
       <c r="B157" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>49</v>
@@ -7696,7 +7711,7 @@
         <v>93</v>
       </c>
       <c r="B158" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>50</v>
@@ -7713,7 +7728,7 @@
         <v>93</v>
       </c>
       <c r="B159" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>51</v>
@@ -7730,7 +7745,7 @@
         <v>93</v>
       </c>
       <c r="B160" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>52</v>
@@ -7747,7 +7762,7 @@
         <v>93</v>
       </c>
       <c r="B161" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>53</v>
@@ -7764,7 +7779,7 @@
         <v>93</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>54</v>
@@ -7781,7 +7796,7 @@
         <v>93</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>55</v>
@@ -7798,7 +7813,7 @@
         <v>93</v>
       </c>
       <c r="B164" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>56</v>
@@ -7815,7 +7830,7 @@
         <v>93</v>
       </c>
       <c r="B165" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>57</v>
@@ -7832,7 +7847,7 @@
         <v>93</v>
       </c>
       <c r="B166" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>58</v>
@@ -7849,7 +7864,7 @@
         <v>93</v>
       </c>
       <c r="B167" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>59</v>
@@ -7866,7 +7881,7 @@
         <v>93</v>
       </c>
       <c r="B168" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>60</v>
@@ -7883,7 +7898,7 @@
         <v>93</v>
       </c>
       <c r="B169" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>61</v>
@@ -7900,7 +7915,7 @@
         <v>93</v>
       </c>
       <c r="B170" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>82</v>
@@ -7917,7 +7932,7 @@
         <v>93</v>
       </c>
       <c r="B171" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>166</v>
@@ -7934,7 +7949,7 @@
         <v>93</v>
       </c>
       <c r="B172" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>167</v>
@@ -7951,7 +7966,7 @@
         <v>93</v>
       </c>
       <c r="B173" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>168</v>
@@ -7968,7 +7983,7 @@
         <v>93</v>
       </c>
       <c r="B174" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>169</v>
@@ -7985,7 +8000,7 @@
         <v>93</v>
       </c>
       <c r="B175" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>170</v>
@@ -8002,7 +8017,7 @@
         <v>93</v>
       </c>
       <c r="B176" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>171</v>
@@ -8019,7 +8034,7 @@
         <v>93</v>
       </c>
       <c r="B177" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>172</v>
@@ -8036,7 +8051,7 @@
         <v>93</v>
       </c>
       <c r="B178" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>173</v>
@@ -8053,7 +8068,7 @@
         <v>93</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>174</v>
@@ -8070,7 +8085,7 @@
         <v>93</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>48</v>
@@ -8087,7 +8102,7 @@
         <v>93</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>49</v>
@@ -8104,7 +8119,7 @@
         <v>93</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>50</v>
@@ -8121,7 +8136,7 @@
         <v>93</v>
       </c>
       <c r="B183" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>51</v>
@@ -8138,7 +8153,7 @@
         <v>93</v>
       </c>
       <c r="B184" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>52</v>
@@ -8155,7 +8170,7 @@
         <v>93</v>
       </c>
       <c r="B185" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>53</v>
@@ -8172,7 +8187,7 @@
         <v>93</v>
       </c>
       <c r="B186" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>54</v>
@@ -8189,7 +8204,7 @@
         <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>55</v>
@@ -8206,7 +8221,7 @@
         <v>93</v>
       </c>
       <c r="B188" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>56</v>
@@ -8223,7 +8238,7 @@
         <v>93</v>
       </c>
       <c r="B189" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>57</v>
@@ -8240,7 +8255,7 @@
         <v>93</v>
       </c>
       <c r="B190" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>58</v>
@@ -8257,7 +8272,7 @@
         <v>93</v>
       </c>
       <c r="B191" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>59</v>
@@ -8274,7 +8289,7 @@
         <v>93</v>
       </c>
       <c r="B192" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>60</v>
@@ -8291,7 +8306,7 @@
         <v>93</v>
       </c>
       <c r="B193" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>61</v>
@@ -8308,7 +8323,7 @@
         <v>93</v>
       </c>
       <c r="B194" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>82</v>
@@ -8325,7 +8340,7 @@
         <v>93</v>
       </c>
       <c r="B195" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>166</v>
@@ -8342,7 +8357,7 @@
         <v>93</v>
       </c>
       <c r="B196" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>167</v>
@@ -8359,7 +8374,7 @@
         <v>93</v>
       </c>
       <c r="B197" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>168</v>
@@ -8376,7 +8391,7 @@
         <v>93</v>
       </c>
       <c r="B198" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>169</v>
@@ -8393,7 +8408,7 @@
         <v>93</v>
       </c>
       <c r="B199" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C199" s="15" t="s">
         <v>170</v>
@@ -8410,7 +8425,7 @@
         <v>93</v>
       </c>
       <c r="B200" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C200" s="15" t="s">
         <v>171</v>
@@ -8427,7 +8442,7 @@
         <v>93</v>
       </c>
       <c r="B201" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C201" s="15" t="s">
         <v>172</v>
@@ -8444,7 +8459,7 @@
         <v>93</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C202" s="15" t="s">
         <v>173</v>
@@ -8461,7 +8476,7 @@
         <v>93</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C203" s="15" t="s">
         <v>174</v>
@@ -8478,7 +8493,7 @@
         <v>93</v>
       </c>
       <c r="B204" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C204" s="15" t="s">
         <v>48</v>
@@ -8495,7 +8510,7 @@
         <v>93</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>49</v>
@@ -8512,7 +8527,7 @@
         <v>93</v>
       </c>
       <c r="B206" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C206" s="15" t="s">
         <v>50</v>
@@ -8529,7 +8544,7 @@
         <v>93</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>51</v>
@@ -8546,7 +8561,7 @@
         <v>93</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>52</v>
@@ -8563,7 +8578,7 @@
         <v>93</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C209" s="15" t="s">
         <v>53</v>
@@ -8580,7 +8595,7 @@
         <v>93</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C210" s="15" t="s">
         <v>54</v>
@@ -8597,7 +8612,7 @@
         <v>93</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C211" s="15" t="s">
         <v>55</v>
@@ -8614,7 +8629,7 @@
         <v>93</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C212" s="15" t="s">
         <v>56</v>
@@ -8631,7 +8646,7 @@
         <v>93</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C213" s="15" t="s">
         <v>57</v>
@@ -8648,7 +8663,7 @@
         <v>93</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>58</v>
@@ -8665,7 +8680,7 @@
         <v>93</v>
       </c>
       <c r="B215" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>59</v>
@@ -8682,7 +8697,7 @@
         <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C216" s="15" t="s">
         <v>60</v>
@@ -8699,7 +8714,7 @@
         <v>93</v>
       </c>
       <c r="B217" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>61</v>
@@ -8716,7 +8731,7 @@
         <v>93</v>
       </c>
       <c r="B218" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C218" s="15" t="s">
         <v>82</v>
@@ -8733,7 +8748,7 @@
         <v>93</v>
       </c>
       <c r="B219" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C219" s="15" t="s">
         <v>166</v>
@@ -8750,7 +8765,7 @@
         <v>93</v>
       </c>
       <c r="B220" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C220" s="15" t="s">
         <v>167</v>
@@ -8767,7 +8782,7 @@
         <v>93</v>
       </c>
       <c r="B221" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C221" s="15" t="s">
         <v>168</v>
@@ -8784,7 +8799,7 @@
         <v>93</v>
       </c>
       <c r="B222" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C222" s="15" t="s">
         <v>169</v>
@@ -8801,7 +8816,7 @@
         <v>93</v>
       </c>
       <c r="B223" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C223" s="15" t="s">
         <v>170</v>
@@ -8818,7 +8833,7 @@
         <v>93</v>
       </c>
       <c r="B224" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>171</v>
@@ -8835,7 +8850,7 @@
         <v>93</v>
       </c>
       <c r="B225" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C225" s="15" t="s">
         <v>172</v>
@@ -8852,7 +8867,7 @@
         <v>93</v>
       </c>
       <c r="B226" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C226" s="15" t="s">
         <v>173</v>
@@ -8869,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B227" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C227" s="15" t="s">
         <v>174</v>
@@ -8886,7 +8901,7 @@
         <v>93</v>
       </c>
       <c r="B228" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C228" s="15" t="s">
         <v>48</v>
@@ -8903,7 +8918,7 @@
         <v>93</v>
       </c>
       <c r="B229" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C229" s="15" t="s">
         <v>49</v>
@@ -8920,7 +8935,7 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C230" s="15" t="s">
         <v>50</v>
@@ -8937,7 +8952,7 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>51</v>
@@ -8954,7 +8969,7 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>52</v>
@@ -8971,7 +8986,7 @@
         <v>93</v>
       </c>
       <c r="B233" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>53</v>
@@ -8988,7 +9003,7 @@
         <v>93</v>
       </c>
       <c r="B234" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>54</v>
@@ -9005,7 +9020,7 @@
         <v>93</v>
       </c>
       <c r="B235" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C235" s="15" t="s">
         <v>55</v>
@@ -9022,7 +9037,7 @@
         <v>93</v>
       </c>
       <c r="B236" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C236" s="15" t="s">
         <v>56</v>
@@ -9039,7 +9054,7 @@
         <v>93</v>
       </c>
       <c r="B237" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>57</v>
@@ -9056,7 +9071,7 @@
         <v>93</v>
       </c>
       <c r="B238" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>58</v>
@@ -9073,7 +9088,7 @@
         <v>93</v>
       </c>
       <c r="B239" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>59</v>
@@ -9090,7 +9105,7 @@
         <v>93</v>
       </c>
       <c r="B240" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C240" s="15" t="s">
         <v>60</v>
@@ -9107,7 +9122,7 @@
         <v>93</v>
       </c>
       <c r="B241" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>61</v>
@@ -9124,7 +9139,7 @@
         <v>93</v>
       </c>
       <c r="B242" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>82</v>
@@ -9141,7 +9156,7 @@
         <v>93</v>
       </c>
       <c r="B243" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C243" s="15" t="s">
         <v>166</v>
@@ -9158,7 +9173,7 @@
         <v>93</v>
       </c>
       <c r="B244" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C244" s="15" t="s">
         <v>167</v>
@@ -9175,7 +9190,7 @@
         <v>93</v>
       </c>
       <c r="B245" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C245" s="15" t="s">
         <v>168</v>
@@ -9192,7 +9207,7 @@
         <v>93</v>
       </c>
       <c r="B246" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C246" s="15" t="s">
         <v>169</v>
@@ -9209,7 +9224,7 @@
         <v>93</v>
       </c>
       <c r="B247" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C247" s="15" t="s">
         <v>170</v>
@@ -9226,7 +9241,7 @@
         <v>93</v>
       </c>
       <c r="B248" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C248" s="15" t="s">
         <v>171</v>
@@ -9243,7 +9258,7 @@
         <v>93</v>
       </c>
       <c r="B249" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C249" s="15" t="s">
         <v>172</v>
@@ -9260,7 +9275,7 @@
         <v>93</v>
       </c>
       <c r="B250" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>173</v>
@@ -9277,7 +9292,7 @@
         <v>93</v>
       </c>
       <c r="B251" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C251" s="15" t="s">
         <v>174</v>
@@ -9294,7 +9309,7 @@
         <v>93</v>
       </c>
       <c r="B252" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C252" s="15" t="s">
         <v>48</v>
@@ -9311,7 +9326,7 @@
         <v>93</v>
       </c>
       <c r="B253" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C253" s="15" t="s">
         <v>49</v>
@@ -9328,7 +9343,7 @@
         <v>93</v>
       </c>
       <c r="B254" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>50</v>
@@ -9345,7 +9360,7 @@
         <v>93</v>
       </c>
       <c r="B255" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C255" s="15" t="s">
         <v>51</v>
@@ -9362,7 +9377,7 @@
         <v>93</v>
       </c>
       <c r="B256" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C256" s="15" t="s">
         <v>52</v>
@@ -9379,7 +9394,7 @@
         <v>93</v>
       </c>
       <c r="B257" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>53</v>
@@ -9396,7 +9411,7 @@
         <v>93</v>
       </c>
       <c r="B258" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C258" s="15" t="s">
         <v>54</v>
@@ -9413,7 +9428,7 @@
         <v>93</v>
       </c>
       <c r="B259" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C259" s="15" t="s">
         <v>55</v>
@@ -9430,7 +9445,7 @@
         <v>93</v>
       </c>
       <c r="B260" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C260" s="15" t="s">
         <v>56</v>
@@ -9447,7 +9462,7 @@
         <v>93</v>
       </c>
       <c r="B261" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C261" s="15" t="s">
         <v>57</v>
@@ -9464,7 +9479,7 @@
         <v>93</v>
       </c>
       <c r="B262" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C262" s="15" t="s">
         <v>58</v>
@@ -9481,7 +9496,7 @@
         <v>93</v>
       </c>
       <c r="B263" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C263" s="15" t="s">
         <v>59</v>
@@ -9498,7 +9513,7 @@
         <v>93</v>
       </c>
       <c r="B264" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C264" s="15" t="s">
         <v>60</v>
@@ -9515,7 +9530,7 @@
         <v>93</v>
       </c>
       <c r="B265" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C265" s="15" t="s">
         <v>61</v>
@@ -9532,7 +9547,7 @@
         <v>93</v>
       </c>
       <c r="B266" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>82</v>
@@ -9549,7 +9564,7 @@
         <v>93</v>
       </c>
       <c r="B267" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C267" s="15" t="s">
         <v>166</v>
@@ -9566,7 +9581,7 @@
         <v>93</v>
       </c>
       <c r="B268" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C268" s="15" t="s">
         <v>167</v>
@@ -9583,7 +9598,7 @@
         <v>93</v>
       </c>
       <c r="B269" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C269" s="15" t="s">
         <v>168</v>
@@ -9600,7 +9615,7 @@
         <v>93</v>
       </c>
       <c r="B270" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C270" s="15" t="s">
         <v>169</v>
@@ -9617,7 +9632,7 @@
         <v>93</v>
       </c>
       <c r="B271" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>170</v>
@@ -9634,7 +9649,7 @@
         <v>93</v>
       </c>
       <c r="B272" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>171</v>
@@ -9651,7 +9666,7 @@
         <v>93</v>
       </c>
       <c r="B273" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>172</v>
@@ -9668,7 +9683,7 @@
         <v>93</v>
       </c>
       <c r="B274" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>173</v>
@@ -9685,7 +9700,7 @@
         <v>93</v>
       </c>
       <c r="B275" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C275" s="15" t="s">
         <v>174</v>
@@ -9702,7 +9717,7 @@
         <v>93</v>
       </c>
       <c r="B276" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>48</v>
@@ -9719,7 +9734,7 @@
         <v>93</v>
       </c>
       <c r="B277" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>49</v>
@@ -9736,7 +9751,7 @@
         <v>93</v>
       </c>
       <c r="B278" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C278" s="15" t="s">
         <v>50</v>
@@ -9753,7 +9768,7 @@
         <v>93</v>
       </c>
       <c r="B279" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C279" s="15" t="s">
         <v>51</v>
@@ -9770,7 +9785,7 @@
         <v>93</v>
       </c>
       <c r="B280" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C280" s="15" t="s">
         <v>52</v>
@@ -9787,7 +9802,7 @@
         <v>93</v>
       </c>
       <c r="B281" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C281" s="15" t="s">
         <v>53</v>
@@ -9804,7 +9819,7 @@
         <v>93</v>
       </c>
       <c r="B282" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C282" s="15" t="s">
         <v>54</v>
@@ -9821,7 +9836,7 @@
         <v>93</v>
       </c>
       <c r="B283" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>55</v>
@@ -9838,7 +9853,7 @@
         <v>93</v>
       </c>
       <c r="B284" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C284" s="15" t="s">
         <v>56</v>
@@ -9855,7 +9870,7 @@
         <v>93</v>
       </c>
       <c r="B285" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C285" s="15" t="s">
         <v>57</v>
@@ -9872,7 +9887,7 @@
         <v>93</v>
       </c>
       <c r="B286" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C286" s="15" t="s">
         <v>58</v>
@@ -9889,7 +9904,7 @@
         <v>93</v>
       </c>
       <c r="B287" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C287" s="15" t="s">
         <v>59</v>
@@ -9906,7 +9921,7 @@
         <v>93</v>
       </c>
       <c r="B288" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C288" s="15" t="s">
         <v>60</v>
@@ -9923,7 +9938,7 @@
         <v>93</v>
       </c>
       <c r="B289" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C289" s="15" t="s">
         <v>61</v>
@@ -9940,7 +9955,7 @@
         <v>93</v>
       </c>
       <c r="B290" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C290" s="15" t="s">
         <v>82</v>
@@ -9996,7 +10011,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -10007,7 +10022,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B4">
         <v>0.25600000000000001</v>
@@ -10018,7 +10033,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B5">
         <v>6.4000000000000001E-2</v>
@@ -10029,7 +10044,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -10040,7 +10055,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B7">
         <v>0.224</v>
@@ -10051,7 +10066,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B8">
         <v>5.6000000000000001E-2</v>
@@ -10373,15 +10388,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
@@ -10425,7 +10440,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -10443,13 +10458,13 @@
         <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -10472,7 +10487,7 @@
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>71</v>
@@ -10481,7 +10496,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>71</v>
@@ -10830,13 +10845,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10871,13 +10886,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10911,13 +10926,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10951,13 +10966,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10991,13 +11006,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11026,6 +11041,207 @@
         <v>2018</v>
       </c>
       <c r="Q14" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="2">
+        <v>30</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="N16" s="2">
+        <v>30</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="N17" s="2">
+        <v>30</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="N18" s="2">
+        <v>30</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="N19" s="2">
+        <v>30</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Q19" s="2">
         <v>2050</v>
       </c>
     </row>
@@ -11368,36 +11584,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -11405,13 +11621,13 @@
         <v>2025</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C3" s="25">
         <v>23800</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -11419,13 +11635,13 @@
         <v>2030</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C4" s="25">
         <v>19600</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -11433,13 +11649,13 @@
         <v>2035</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C5" s="25">
         <v>14700</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11447,13 +11663,13 @@
         <v>2040</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C6" s="25">
         <v>9800</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11461,13 +11677,13 @@
         <v>2045</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C7" s="25">
         <v>4900</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11475,13 +11691,13 @@
         <v>2050</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C8" s="25">
         <v>0</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -11495,7 +11711,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11533,7 +11749,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -11554,13 +11770,13 @@
         <v>156</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P1" s="26" t="s">
         <v>31</v>
@@ -11802,7 +12018,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B12">
         <v>1.94</v>
@@ -11816,7 +12032,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B13">
         <v>2.76</v>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A9E75C-E2A4-417F-A385-CA0670035084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB41A6E4-E412-C04A-895D-09828957A55C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1240,12 +1240,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1302,13 +1302,13 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1360,32 +1360,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -1417,13 +1417,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -1497,12 +1497,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1543,14 +1543,14 @@
       <selection activeCell="B17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>201</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>217</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>208</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>232</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>218</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>190</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>191</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>193</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>116</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>117</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>118</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>128</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>129</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>175</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>131</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>132</v>
       </c>
@@ -2466,18 +2466,18 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>201</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>208</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>217</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>232</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>218</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>190</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>191</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>193</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>175</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>132</v>
       </c>
@@ -3320,27 +3320,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" activeCellId="1" sqref="A27 A33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>201</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>208</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>217</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>232</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>218</v>
       </c>
@@ -3836,12 +3836,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="17">
-        <v>4020</v>
+        <v>4348</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
@@ -3862,7 +3862,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>190</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>191</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>193</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -3992,12 +3992,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="17">
-        <v>1566</v>
+        <v>1600</v>
       </c>
       <c r="C26" s="17">
         <v>-2.6</v>
@@ -4030,12 +4030,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="17">
-        <v>3055</v>
+        <v>4443</v>
       </c>
       <c r="C27" s="17">
         <v>-2.75</v>
@@ -4068,7 +4068,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -4094,12 +4094,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B29" s="17">
-        <v>4020</v>
+        <v>4348</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="5" t="s">
@@ -4120,7 +4120,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>175</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -4172,12 +4172,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="6">
-        <v>2033</v>
+        <v>2052</v>
       </c>
       <c r="C32" s="6">
         <v>-2.96</v>
@@ -4210,12 +4210,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="6">
-        <v>4455</v>
+        <v>6598</v>
       </c>
       <c r="C33" s="6">
         <v>-4.12</v>
@@ -4248,7 +4248,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5"/>
@@ -4265,24 +4265,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>201</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>217</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>218</v>
       </c>
@@ -4535,10 +4535,10 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>115</v>
       </c>
@@ -4553,10 +4553,10 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>190</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>193</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>116</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>117</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>118</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>119</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
@@ -4684,10 +4684,10 @@
         <v>133</v>
       </c>
       <c r="H27">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>175</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>132</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>10000</v>
       </c>
       <c r="H31">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
   </sheetData>
@@ -4740,14 +4740,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -4990,14 +4990,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5029,15 +5029,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
@@ -9981,13 +9981,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -10088,13 +10088,13 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -10390,28 +10390,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>0.50697570000000003</v>
       </c>
       <c r="G10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
@@ -10884,7 +10884,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>244</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>0.37906770000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
@@ -10924,7 +10924,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>247</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>0.37906770000000001</v>
       </c>
       <c r="G13" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -11004,7 +11004,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>0.28218300000000002</v>
       </c>
       <c r="G14" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
@@ -11044,7 +11044,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>248</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>251</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>252</v>
       </c>
@@ -11259,13 +11259,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -11360,16 +11360,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2018</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2020</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2025</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>2030</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>2035</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2040</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>2045</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2050</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2055</v>
       </c>
@@ -11537,13 +11537,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -11580,9 +11580,9 @@
       <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2025</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>2030</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>2035</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>2040</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>2045</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>2050</v>
       </c>
@@ -11714,25 +11714,25 @@
       <selection activeCell="C13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>231</v>
       </c>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB41A6E4-E412-C04A-895D-09828957A55C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A4CB3-ADE4-B549-9FA0-7CE58784C3FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44960" yWindow="2660" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A4CB3-ADE4-B549-9FA0-7CE58784C3FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997561A9-D4F8-0F41-BA52-307AEB1D311A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44960" yWindow="2660" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="21140" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="253">
   <si>
     <t>connection</t>
   </si>
@@ -434,9 +434,6 @@
     <t>ED_SOLPV</t>
   </si>
   <si>
-    <t>ED_WIND</t>
-  </si>
-  <si>
     <t>Plant1</t>
   </si>
   <si>
@@ -795,6 +792,9 @@
   </si>
   <si>
     <t>NATGAS_TAX_OFF</t>
+  </si>
+  <si>
+    <t>EF_WIND</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1290,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
         <v>84</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -1313,10 +1313,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
         <v>87</v>
       </c>
       <c r="C7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1335,10 +1335,10 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1346,10 +1346,10 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>96</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1369,106 +1369,106 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1521,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:B17"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1573,13 +1573,13 @@
         <v>125</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1608,10 +1608,10 @@
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1619,7 +1619,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>102</v>
@@ -1645,7 +1645,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>102</v>
@@ -1671,7 +1671,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>102</v>
@@ -1697,7 +1697,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>102</v>
@@ -1723,7 +1723,7 @@
         <v>107</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>102</v>
@@ -1749,7 +1749,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>102</v>
@@ -1801,7 +1801,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>102</v>
@@ -1827,7 +1827,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>102</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>102</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>120</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>102</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>102</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>102</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>102</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>102</v>
@@ -2174,7 +2174,7 @@
         <v>116</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>102</v>
@@ -2200,7 +2200,7 @@
         <v>117</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>102</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>99</v>
@@ -2359,7 +2359,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>99</v>
@@ -2408,13 +2408,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>126</v>
@@ -2463,7 +2463,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2543,13 +2543,13 @@
         <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="8">
         <v>39.4</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2557,7 +2557,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2568,13 +2568,13 @@
         <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="8">
         <v>29.9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2582,7 +2582,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2593,13 +2593,13 @@
         <v>80</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="8">
         <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2607,7 +2607,7 @@
         <v>50</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2618,13 +2618,13 @@
         <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="8">
         <v>35.299999999999997</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2632,7 +2632,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2643,13 +2643,13 @@
         <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="8">
         <v>34.6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -2657,7 +2657,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2668,13 +2668,13 @@
         <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="8">
         <v>34.1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -2682,7 +2682,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2693,13 +2693,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="8">
         <v>90</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2707,7 +2707,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2718,13 +2718,13 @@
         <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="5">
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2732,7 +2732,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2743,13 +2743,13 @@
         <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="8">
         <v>54.1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -2757,7 +2757,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,13 +2768,13 @@
         <v>23.2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="5">
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2782,24 +2782,24 @@
         <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="5">
         <v>93.6</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="5">
         <v>32.6</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2807,24 +2807,24 @@
         <v>100</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="5">
         <v>61.9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="5">
         <v>35.299999999999997</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="8"/>
@@ -2832,24 +2832,24 @@
         <v>45</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="5">
         <v>14.8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="5">
         <v>80</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
@@ -2857,7 +2857,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,13 +2868,13 @@
         <v>48.5</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="5">
         <v>50</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -2882,24 +2882,24 @@
         <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="5">
         <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="24">
         <v>35.299999999999997</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
@@ -2907,7 +2907,7 @@
         <v>50</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2918,13 +2918,13 @@
         <v>16.7</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="16">
         <v>85</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -2932,24 +2932,24 @@
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="16">
         <v>14.8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="16">
         <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -2957,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2968,13 +2968,13 @@
         <v>61.9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="16">
         <v>35.299999999999997</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -2982,24 +2982,24 @@
         <v>45</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="16">
         <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="19">
         <v>39.4</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -3007,24 +3007,24 @@
         <v>40</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="16">
         <v>87</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="19">
         <v>51.7</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -3032,24 +3032,24 @@
         <v>55</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="16">
         <v>87</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="19">
         <v>51.7</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -3057,7 +3057,7 @@
         <v>45</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3068,13 +3068,13 @@
         <v>55</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="16">
         <v>54.1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3082,7 +3082,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3093,13 +3093,13 @@
         <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="16">
         <v>42.47</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -3107,7 +3107,7 @@
         <v>55</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3118,13 +3118,13 @@
         <v>23.2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="16">
         <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -3132,7 +3132,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3143,13 +3143,13 @@
         <v>48.5</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="16">
         <v>50</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -3157,7 +3157,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3168,13 +3168,13 @@
         <v>16.7</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="8">
         <v>85</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -3182,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3193,13 +3193,13 @@
         <v>61.9</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="5">
         <v>35.299999999999997</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
@@ -3207,24 +3207,24 @@
         <v>45</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="9">
         <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="8">
         <v>54.1</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
@@ -3232,7 +3232,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3243,13 +3243,13 @@
         <v>55</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="8">
         <v>54.1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
@@ -3257,7 +3257,7 @@
         <v>55</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3268,13 +3268,13 @@
         <v>23.2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="5">
         <v>20</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
@@ -3282,24 +3282,24 @@
         <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="B33" s="5">
         <v>46</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="5">
         <v>50</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="8"/>
@@ -3307,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3321,7 +3321,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3348,7 +3348,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>34</v>
@@ -3375,7 +3375,7 @@
         <v>79</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3423,21 +3423,21 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="5">
         <v>40</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" s="5">
         <v>1.1100000000000001</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3447,21 +3447,21 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="11">
         <v>19.599999999999998</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H4" s="8">
         <v>2.8380000000000001</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3471,21 +3471,21 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="11">
         <v>24.633333333333336</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="8">
         <v>0.99299999999999999</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3495,21 +3495,21 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="5">
         <v>30.57</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H6" s="8">
         <v>0.59699999999999998</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3519,21 +3519,21 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="5">
         <v>34.31</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="8">
         <v>0.72199999999999998</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3543,21 +3543,21 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="5">
         <v>45.56</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="8">
         <v>1.0289999999999999</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3567,21 +3567,21 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="11">
         <v>42</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3591,21 +3591,21 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="11">
         <v>425.4</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H10" s="8">
         <v>2.6309999999999998</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3615,21 +3615,21 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="9">
         <v>13</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H11" s="8">
         <v>0.55600000000000005</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="5">
         <v>19</v>
@@ -3648,7 +3648,7 @@
         <v>-2.67</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -3657,79 +3657,79 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="5">
         <v>119</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H13" s="5">
         <v>0.55600000000000005</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="6">
         <v>123</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H14" s="21">
         <v>1.39</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" s="21">
         <v>2.78</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3739,7 +3739,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" s="6">
         <v>108</v>
@@ -3748,7 +3748,7 @@
         <v>-2.65</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" s="21">
         <v>0</v>
@@ -3757,31 +3757,31 @@
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="6">
         <v>123</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H17" s="21">
         <v>1.39</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3793,47 +3793,47 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E18" s="17">
         <v>38.6</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H18" s="17">
         <v>0</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="17">
         <v>4300</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="17">
         <v>3</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H19" s="17">
         <v>2.78</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3845,99 +3845,99 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="17">
         <v>123</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H20" s="17">
         <v>1.39</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="17">
         <v>3603</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="17">
         <v>40</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="17">
         <v>1.1100000000000001</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="17">
         <v>1044</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="17">
         <v>13</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H22" s="17">
         <v>0.55600000000000005</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="17">
         <v>1044</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="17">
         <v>13</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="17">
         <v>0.55600000000000005</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -3949,21 +3949,21 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="22">
         <v>13</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="17">
         <v>0.55600000000000005</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3975,21 +3975,21 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="17">
         <v>11</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H25" s="17">
         <v>1.1100000000000001</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4003,7 +4003,7 @@
         <v>-2.6</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E26" s="17">
         <v>19</v>
@@ -4012,7 +4012,7 @@
         <v>-2.67</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26" s="17">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K26">
         <v>0.08</v>
       </c>
       <c r="L26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -4041,7 +4041,7 @@
         <v>-2.75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="17">
         <v>130</v>
@@ -4050,7 +4050,7 @@
         <v>-2.65</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H27" s="17">
         <v>0</v>
@@ -4059,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K27">
         <v>0.08</v>
       </c>
       <c r="L27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4077,21 +4077,21 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="6">
         <v>38.6</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H28" s="21">
         <v>0</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4103,47 +4103,47 @@
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="17">
         <v>123</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H29" s="17">
         <v>1.39</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="20">
         <v>1044</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E30" s="22">
         <v>13</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H30" s="17">
         <v>0.55600000000000005</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4155,21 +4155,21 @@
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E31" s="17">
         <v>11</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H31" s="17">
         <v>1.1100000000000001</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>-2.96</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="6">
         <v>18</v>
@@ -4192,7 +4192,7 @@
         <v>-3.37</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H32" s="6">
         <v>0</v>
@@ -4201,18 +4201,18 @@
         <v>0</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K32">
         <v>0.08</v>
       </c>
       <c r="L32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="B33" s="6">
         <v>6598</v>
@@ -4221,7 +4221,7 @@
         <v>-4.12</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E33" s="6">
         <v>108</v>
@@ -4230,7 +4230,7 @@
         <v>-2.67</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H33" s="6">
         <v>0</v>
@@ -4239,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K33">
         <v>0.08</v>
       </c>
       <c r="L33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4265,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4305,13 +4305,13 @@
         <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4325,7 +4325,7 @@
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
@@ -4337,10 +4337,10 @@
         <v>76</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>76</v>
@@ -4354,10 +4354,10 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4368,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4382,10 +4382,10 @@
         <v>0.93</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4396,10 +4396,10 @@
         <v>0.67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4410,10 +4410,10 @@
         <v>0.73</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4424,10 +4424,10 @@
         <v>0.92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4437,7 +4437,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="H9">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4447,7 +4447,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="H10">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="C11" s="5"/>
       <c r="H11">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4469,31 +4469,31 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="H12">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="5">
         <v>0.01</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="H14">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4507,7 +4507,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -4521,12 +4521,12 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -4546,7 +4546,7 @@
         <v>0.01</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -4558,56 +4558,56 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="19">
         <v>0.93</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="19">
         <v>0.93</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="16">
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4621,7 +4621,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4635,7 +4635,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4645,13 +4645,13 @@
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>5000</v>
       </c>
       <c r="H25">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>128</v>
       </c>
       <c r="H26">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H27">
         <v>2025</v>
@@ -4689,10 +4689,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H28">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4700,7 +4700,7 @@
         <v>130</v>
       </c>
       <c r="H29">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4712,18 +4712,18 @@
       </c>
       <c r="F30" s="2"/>
       <c r="H30">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D31">
         <v>10000</v>
       </c>
       <c r="H31">
-        <v>2030</v>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -4734,10 +4734,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4766,7 +4766,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -4786,7 +4786,7 @@
         <v>1985</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4822,7 +4822,7 @@
         <v>1980</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4836,7 +4836,7 @@
         <v>2010</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4850,7 +4850,7 @@
         <v>2010</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4864,7 +4864,7 @@
         <v>2010</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4889,7 +4889,7 @@
         <v>1995</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4917,7 +4917,7 @@
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4931,12 +4931,12 @@
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15">
         <v>3568</v>
@@ -4945,12 +4945,12 @@
         <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16">
         <v>1475</v>
@@ -4959,12 +4959,12 @@
         <v>2013</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17">
         <v>3241</v>
@@ -4973,7 +4973,21 @@
         <v>1970</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18">
+        <v>578</v>
+      </c>
+      <c r="C18">
+        <v>2015</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +5041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130:F140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5048,7 +5064,7 @@
         <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -5076,16 +5092,16 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5093,16 +5109,16 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5110,16 +5126,16 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5127,16 +5143,16 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5144,16 +5160,16 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5161,16 +5177,16 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5178,16 +5194,16 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5195,16 +5211,16 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5212,16 +5228,16 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11">
         <v>0.96259337132800005</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5229,7 +5245,7 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>48</v>
@@ -5238,7 +5254,7 @@
         <v>1.60166683138</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5246,7 +5262,7 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>49</v>
@@ -5255,7 +5271,7 @@
         <v>2.95581809344</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5263,7 +5279,7 @@
         <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>50</v>
@@ -5272,7 +5288,7 @@
         <v>3.7850790856600001</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5280,7 +5296,7 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>51</v>
@@ -5289,7 +5305,7 @@
         <v>3.7761824652699998</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5297,7 +5313,7 @@
         <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>52</v>
@@ -5306,7 +5322,7 @@
         <v>3.4941576425399998</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5314,7 +5330,7 @@
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>53</v>
@@ -5323,7 +5339,7 @@
         <v>2.8292392133100002</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5331,7 +5347,7 @@
         <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>54</v>
@@ -5340,7 +5356,7 @@
         <v>2.31085050602</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -5348,7 +5364,7 @@
         <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>55</v>
@@ -5357,7 +5373,7 @@
         <v>1.6195855478600001</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -5365,7 +5381,7 @@
         <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>56</v>
@@ -5374,7 +5390,7 @@
         <v>0.66482724319599995</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -5382,7 +5398,7 @@
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>57</v>
@@ -5391,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -5399,7 +5415,7 @@
         <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>58</v>
@@ -5408,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -5416,7 +5432,7 @@
         <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>59</v>
@@ -5425,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -5433,7 +5449,7 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>60</v>
@@ -5442,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -5450,7 +5466,7 @@
         <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>61</v>
@@ -5459,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -5467,7 +5483,7 @@
         <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>82</v>
@@ -5476,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -5484,16 +5500,16 @@
         <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -5501,16 +5517,16 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -5518,16 +5534,16 @@
         <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -5535,16 +5551,16 @@
         <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -5552,16 +5568,16 @@
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -5569,16 +5585,16 @@
         <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -5586,16 +5602,16 @@
         <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -5603,16 +5619,16 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34">
-        <v>6.8030477198100002E-3</v>
+        <v>8.5038096497625001E-3</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -5620,16 +5636,16 @@
         <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D35">
-        <v>0.62784163046800001</v>
+        <v>0.78480203808500004</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -5637,16 +5653,16 @@
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>1.5458351067</v>
+        <v>1.9322938833750001</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -5654,16 +5670,16 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>2.4637406089799998</v>
+        <v>3.0796757612249999</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -5671,16 +5687,16 @@
         <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>3.00512030807</v>
+        <v>3.7564003850875003</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -5688,16 +5704,16 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>3.5308931214800001</v>
+        <v>4.4136164018500006</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -5705,16 +5721,16 @@
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>3.69605507635</v>
+        <v>4.6200688454375003</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -5722,16 +5738,16 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>3.3774587455399998</v>
+        <v>4.2218234319250003</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -5739,16 +5755,16 @@
         <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>2.7769065497900001</v>
+        <v>3.4711331872375002</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -5756,16 +5772,16 @@
         <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>1.9586883649700002</v>
+        <v>2.4483604562125003</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5773,16 +5789,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>1.0106574399199999</v>
+        <v>1.2633217998999999</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -5790,7 +5806,7 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>57</v>
@@ -5799,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -5807,7 +5823,7 @@
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>58</v>
@@ -5816,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -5824,7 +5840,7 @@
         <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>59</v>
@@ -5833,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -5841,7 +5857,7 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>60</v>
@@ -5850,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -5858,7 +5874,7 @@
         <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>61</v>
@@ -5867,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -5875,7 +5891,7 @@
         <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>82</v>
@@ -5884,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -5892,16 +5908,16 @@
         <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5909,16 +5925,16 @@
         <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5926,16 +5942,16 @@
         <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -5943,16 +5959,16 @@
         <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5960,16 +5976,16 @@
         <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -5977,16 +5993,16 @@
         <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -5994,16 +6010,16 @@
         <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -6011,16 +6027,16 @@
         <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -6028,16 +6044,16 @@
         <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59">
         <v>0.96259337132800005</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -6045,7 +6061,7 @@
         <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>48</v>
@@ -6054,7 +6070,7 @@
         <v>1.60166683138</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -6062,7 +6078,7 @@
         <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>49</v>
@@ -6071,7 +6087,7 @@
         <v>2.95581809344</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -6079,7 +6095,7 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>50</v>
@@ -6088,7 +6104,7 @@
         <v>3.7850790856600001</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -6096,7 +6112,7 @@
         <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>51</v>
@@ -6105,7 +6121,7 @@
         <v>3.7761824652699998</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -6113,7 +6129,7 @@
         <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>52</v>
@@ -6122,7 +6138,7 @@
         <v>3.4941576425399998</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -6130,7 +6146,7 @@
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>53</v>
@@ -6139,7 +6155,7 @@
         <v>2.8292392133100002</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -6147,7 +6163,7 @@
         <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>54</v>
@@ -6156,7 +6172,7 @@
         <v>2.31085050602</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -6164,7 +6180,7 @@
         <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>55</v>
@@ -6173,7 +6189,7 @@
         <v>1.6195855478600001</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -6181,7 +6197,7 @@
         <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>56</v>
@@ -6190,7 +6206,7 @@
         <v>0.66482724319599995</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -6198,7 +6214,7 @@
         <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>57</v>
@@ -6207,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -6215,7 +6231,7 @@
         <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>58</v>
@@ -6224,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -6232,7 +6248,7 @@
         <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>59</v>
@@ -6241,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -6249,7 +6265,7 @@
         <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>60</v>
@@ -6258,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -6266,7 +6282,7 @@
         <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>61</v>
@@ -6275,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -6283,7 +6299,7 @@
         <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>82</v>
@@ -6292,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -6300,16 +6316,16 @@
         <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -6317,16 +6333,16 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -6334,16 +6350,16 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -6351,16 +6367,16 @@
         <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -6368,16 +6384,16 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -6385,16 +6401,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -6402,16 +6418,16 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -6419,16 +6435,16 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82">
-        <v>3.4015238599050001E-3</v>
+        <v>4.25190482488125E-3</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -6436,16 +6452,16 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D83">
-        <v>0.31392081523400001</v>
+        <v>0.39240101904250002</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -6453,16 +6469,16 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D84">
-        <v>0.77291755335000001</v>
+        <v>0.96614694168750004</v>
       </c>
       <c r="E84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -6470,16 +6486,16 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D85">
-        <v>1.2318703044899999</v>
+        <v>1.5398378806124999</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -6487,16 +6503,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D86">
-        <v>1.502560154035</v>
+        <v>1.8782001925437499</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -6504,16 +6520,16 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D87">
-        <v>1.7654465607400001</v>
+        <v>2.2068082009249999</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -6521,16 +6537,16 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D88">
-        <v>1.848027538175</v>
+        <v>2.3100344227187501</v>
       </c>
       <c r="E88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -6538,16 +6554,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D89">
-        <v>1.6887293727699999</v>
+        <v>2.1109117159624997</v>
       </c>
       <c r="E89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -6555,16 +6571,16 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D90">
-        <v>1.388453274895</v>
+        <v>1.7355665936187501</v>
       </c>
       <c r="E90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -6572,16 +6588,16 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D91">
-        <v>0.97934418248499999</v>
+        <v>1.2241802281062499</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -6589,16 +6605,16 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D92">
-        <v>0.50532871995999995</v>
+        <v>0.63166089994999997</v>
       </c>
       <c r="E92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -6606,7 +6622,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>57</v>
@@ -6615,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -6623,7 +6639,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>58</v>
@@ -6632,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -6640,7 +6656,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>59</v>
@@ -6649,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -6657,7 +6673,7 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>60</v>
@@ -6666,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -6674,7 +6690,7 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>61</v>
@@ -6683,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -6691,7 +6707,7 @@
         <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>82</v>
@@ -6700,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -6708,16 +6724,16 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -6725,16 +6741,16 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -6742,16 +6758,16 @@
         <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -6759,16 +6775,16 @@
         <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -6776,16 +6792,16 @@
         <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -6793,16 +6809,16 @@
         <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -6810,16 +6826,16 @@
         <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -6827,16 +6843,16 @@
         <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D106">
-        <v>8.5038096497625003E-4</v>
+        <v>1.133841286635E-3</v>
       </c>
       <c r="E106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -6844,16 +6860,16 @@
         <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D107">
-        <v>7.8480203808500001E-2</v>
+        <v>0.10464027174466667</v>
       </c>
       <c r="E107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -6861,16 +6877,16 @@
         <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D108">
-        <v>0.1932293883375</v>
+        <v>0.25763918445</v>
       </c>
       <c r="E108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -6878,16 +6894,16 @@
         <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D109">
-        <v>0.30796757612249998</v>
+        <v>0.41062343482999997</v>
       </c>
       <c r="E109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -6895,16 +6911,16 @@
         <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D110">
-        <v>0.37564003850875</v>
+        <v>0.50085338467833329</v>
       </c>
       <c r="E110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -6912,16 +6928,16 @@
         <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D111">
-        <v>0.44136164018500001</v>
+        <v>0.58848218691333332</v>
       </c>
       <c r="E111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -6929,16 +6945,16 @@
         <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D112">
-        <v>0.46200688454375</v>
+        <v>0.61600917939166666</v>
       </c>
       <c r="E112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -6946,16 +6962,16 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D113">
-        <v>0.42218234319249998</v>
+        <v>0.56290979092333326</v>
       </c>
       <c r="E113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -6963,16 +6979,16 @@
         <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D114">
-        <v>0.34711331872375001</v>
+        <v>0.46281775829833333</v>
       </c>
       <c r="E114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -6980,16 +6996,16 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D115">
-        <v>0.24483604562125</v>
+        <v>0.32644806082833333</v>
       </c>
       <c r="E115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -6997,16 +7013,16 @@
         <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D116">
-        <v>0.12633217998999999</v>
+        <v>0.16844290665333331</v>
       </c>
       <c r="E116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -7014,7 +7030,7 @@
         <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>57</v>
@@ -7023,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -7031,7 +7047,7 @@
         <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>58</v>
@@ -7040,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -7048,7 +7064,7 @@
         <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>59</v>
@@ -7057,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -7065,7 +7081,7 @@
         <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>60</v>
@@ -7074,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -7082,7 +7098,7 @@
         <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>61</v>
@@ -7091,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -7099,7 +7115,7 @@
         <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>82</v>
@@ -7108,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -7116,16 +7132,16 @@
         <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -7133,16 +7149,16 @@
         <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -7150,16 +7166,16 @@
         <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -7167,16 +7183,16 @@
         <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -7184,16 +7200,16 @@
         <v>92</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -7201,16 +7217,16 @@
         <v>92</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -7218,16 +7234,16 @@
         <v>92</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -7235,16 +7251,16 @@
         <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D130">
-        <v>5.1022857898575004E-3</v>
+        <v>4.25190482488125E-3</v>
       </c>
       <c r="E130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -7252,16 +7268,16 @@
         <v>92</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D131">
-        <v>0.47088122285099998</v>
+        <v>0.39240101904250002</v>
       </c>
       <c r="E131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -7269,16 +7285,16 @@
         <v>92</v>
       </c>
       <c r="B132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D132">
-        <v>1.159376330025</v>
+        <v>0.96614694168750004</v>
       </c>
       <c r="E132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -7286,16 +7302,16 @@
         <v>92</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D133">
-        <v>1.8478054567349997</v>
+        <v>1.5398378806124997</v>
       </c>
       <c r="E133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -7303,16 +7319,16 @@
         <v>92</v>
       </c>
       <c r="B134" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D134">
-        <v>2.2538402310525001</v>
+        <v>1.8782001925437501</v>
       </c>
       <c r="E134" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -7320,16 +7336,16 @@
         <v>92</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D135">
-        <v>2.6481698411100001</v>
+        <v>2.2068082009250003</v>
       </c>
       <c r="E135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -7337,16 +7353,16 @@
         <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D136">
-        <v>2.7720413072625001</v>
+        <v>2.3100344227187501</v>
       </c>
       <c r="E136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -7354,16 +7370,16 @@
         <v>92</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D137">
-        <v>2.5330940591549997</v>
+        <v>2.1109117159624997</v>
       </c>
       <c r="E137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -7371,16 +7387,16 @@
         <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D138">
-        <v>2.0826799123424999</v>
+        <v>1.7355665936187499</v>
       </c>
       <c r="E138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -7388,16 +7404,16 @@
         <v>92</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D139">
-        <v>1.4690162737275001</v>
+        <v>1.2241802281062502</v>
       </c>
       <c r="E139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -7405,16 +7421,16 @@
         <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D140">
-        <v>0.75799307993999987</v>
+        <v>0.63166089994999985</v>
       </c>
       <c r="E140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -7422,7 +7438,7 @@
         <v>92</v>
       </c>
       <c r="B141" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>57</v>
@@ -7431,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -7439,7 +7455,7 @@
         <v>92</v>
       </c>
       <c r="B142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>58</v>
@@ -7448,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -7456,7 +7472,7 @@
         <v>92</v>
       </c>
       <c r="B143" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>59</v>
@@ -7465,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -7473,7 +7489,7 @@
         <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>60</v>
@@ -7482,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -7490,7 +7506,7 @@
         <v>92</v>
       </c>
       <c r="B145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>61</v>
@@ -7499,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -7507,7 +7523,7 @@
         <v>92</v>
       </c>
       <c r="B146" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>82</v>
@@ -7516,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -7524,16 +7540,16 @@
         <v>93</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D147">
         <v>1.1554536082474227</v>
       </c>
       <c r="E147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -7541,16 +7557,16 @@
         <v>93</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D148">
         <v>1.1594819243986256</v>
       </c>
       <c r="E148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -7558,16 +7574,16 @@
         <v>93</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D149">
         <v>1.2116105841924398</v>
       </c>
       <c r="E149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -7575,16 +7591,16 @@
         <v>93</v>
       </c>
       <c r="B150" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D150">
         <v>1.2471928522336768</v>
       </c>
       <c r="E150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -7592,16 +7608,16 @@
         <v>93</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D151">
         <v>1.2250734020618557</v>
       </c>
       <c r="E151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -7609,16 +7625,16 @@
         <v>93</v>
       </c>
       <c r="B152" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D152">
         <v>1.2236000687285224</v>
       </c>
       <c r="E152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -7626,16 +7642,16 @@
         <v>93</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D153">
         <v>1.269471615120275</v>
       </c>
       <c r="E153" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -7643,16 +7659,16 @@
         <v>93</v>
       </c>
       <c r="B154" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D154">
         <v>1.2459049484536082</v>
       </c>
       <c r="E154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -7660,16 +7676,16 @@
         <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D155">
         <v>1.1986987628865979</v>
       </c>
       <c r="E155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -7677,7 +7693,7 @@
         <v>93</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>48</v>
@@ -7686,7 +7702,7 @@
         <v>1.1830810996563574</v>
       </c>
       <c r="E156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -7694,7 +7710,7 @@
         <v>93</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>49</v>
@@ -7703,7 +7719,7 @@
         <v>1.2029348453608246</v>
       </c>
       <c r="E157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -7711,7 +7727,7 @@
         <v>93</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>50</v>
@@ -7720,7 +7736,7 @@
         <v>1.1969397250859108</v>
       </c>
       <c r="E158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -7728,7 +7744,7 @@
         <v>93</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>51</v>
@@ -7737,7 +7753,7 @@
         <v>1.1610441237113402</v>
       </c>
       <c r="E159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -7745,7 +7761,7 @@
         <v>93</v>
       </c>
       <c r="B160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>52</v>
@@ -7754,7 +7770,7 @@
         <v>1.1242072852233675</v>
       </c>
       <c r="E160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -7762,7 +7778,7 @@
         <v>93</v>
       </c>
       <c r="B161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>53</v>
@@ -7771,7 +7787,7 @@
         <v>1.073711408934708</v>
       </c>
       <c r="E161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -7779,7 +7795,7 @@
         <v>93</v>
       </c>
       <c r="B162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>54</v>
@@ -7788,7 +7804,7 @@
         <v>1.0144912714776633</v>
       </c>
       <c r="E162" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -7796,7 +7812,7 @@
         <v>93</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>55</v>
@@ -7805,7 +7821,7 @@
         <v>0.96214570446735392</v>
       </c>
       <c r="E163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -7813,7 +7829,7 @@
         <v>93</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>56</v>
@@ -7822,7 +7838,7 @@
         <v>0.94084206185567021</v>
       </c>
       <c r="E164" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -7830,7 +7846,7 @@
         <v>93</v>
       </c>
       <c r="B165" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>57</v>
@@ -7839,7 +7855,7 @@
         <v>0.92393993127147767</v>
       </c>
       <c r="E165" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -7847,7 +7863,7 @@
         <v>93</v>
       </c>
       <c r="B166" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>58</v>
@@ -7856,7 +7872,7 @@
         <v>0.9992430927835052</v>
       </c>
       <c r="E166" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -7864,7 +7880,7 @@
         <v>93</v>
       </c>
       <c r="B167" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>59</v>
@@ -7873,7 +7889,7 @@
         <v>1.0121810996563574</v>
       </c>
       <c r="E167" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -7881,7 +7897,7 @@
         <v>93</v>
       </c>
       <c r="B168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>60</v>
@@ -7890,7 +7906,7 @@
         <v>1.0649843986254295</v>
       </c>
       <c r="E168" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -7898,7 +7914,7 @@
         <v>93</v>
       </c>
       <c r="B169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>61</v>
@@ -7907,7 +7923,7 @@
         <v>1.0855740206185567</v>
       </c>
       <c r="E169" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -7915,7 +7931,7 @@
         <v>93</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>82</v>
@@ -7924,7 +7940,7 @@
         <v>1.1591992439862542</v>
       </c>
       <c r="E170" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -7932,16 +7948,16 @@
         <v>93</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D171">
         <v>0.7082865292096221</v>
       </c>
       <c r="E171" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -7949,16 +7965,16 @@
         <v>93</v>
       </c>
       <c r="B172" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D172">
         <v>0.7055918900343644</v>
       </c>
       <c r="E172" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -7966,16 +7982,16 @@
         <v>93</v>
       </c>
       <c r="B173" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D173">
         <v>0.73409807560137474</v>
       </c>
       <c r="E173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -7983,16 +7999,16 @@
         <v>93</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D174">
         <v>0.7242515463917526</v>
       </c>
       <c r="E174" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -8000,16 +8016,16 @@
         <v>93</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D175">
         <v>0.69141910652920968</v>
       </c>
       <c r="E175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -8017,16 +8033,16 @@
         <v>93</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D176">
         <v>0.64054776632302413</v>
       </c>
       <c r="E176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -8034,16 +8050,16 @@
         <v>93</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D177">
         <v>0.59681731958762885</v>
       </c>
       <c r="E177" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -8051,16 +8067,16 @@
         <v>93</v>
       </c>
       <c r="B178" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D178">
         <v>0.58485711340206181</v>
       </c>
       <c r="E178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -8068,16 +8084,16 @@
         <v>93</v>
       </c>
       <c r="B179" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D179">
         <v>0.59055931271477669</v>
       </c>
       <c r="E179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -8085,7 +8101,7 @@
         <v>93</v>
       </c>
       <c r="B180" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>48</v>
@@ -8094,7 +8110,7 @@
         <v>0.56244536082474228</v>
       </c>
       <c r="E180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -8102,7 +8118,7 @@
         <v>93</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>49</v>
@@ -8111,7 +8127,7 @@
         <v>0.5557881786941582</v>
       </c>
       <c r="E181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -8119,7 +8135,7 @@
         <v>93</v>
       </c>
       <c r="B182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>50</v>
@@ -8128,7 +8144,7 @@
         <v>0.53917353951890024</v>
       </c>
       <c r="E182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -8136,7 +8152,7 @@
         <v>93</v>
       </c>
       <c r="B183" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>51</v>
@@ -8145,7 +8161,7 @@
         <v>0.50700082474226804</v>
       </c>
       <c r="E183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -8153,7 +8169,7 @@
         <v>93</v>
       </c>
       <c r="B184" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>52</v>
@@ -8162,7 +8178,7 @@
         <v>0.48673807560137461</v>
       </c>
       <c r="E184" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -8170,7 +8186,7 @@
         <v>93</v>
       </c>
       <c r="B185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>53</v>
@@ -8179,7 +8195,7 @@
         <v>0.46426089347079036</v>
       </c>
       <c r="E185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -8187,7 +8203,7 @@
         <v>93</v>
       </c>
       <c r="B186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>54</v>
@@ -8196,7 +8212,7 @@
         <v>0.46601869415807556</v>
       </c>
       <c r="E186" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -8204,7 +8220,7 @@
         <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>55</v>
@@ -8213,7 +8229,7 @@
         <v>0.48226378006872855</v>
       </c>
       <c r="E187" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -8221,7 +8237,7 @@
         <v>93</v>
       </c>
       <c r="B188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>56</v>
@@ -8230,7 +8246,7 @@
         <v>0.49528577319587624</v>
       </c>
       <c r="E188" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -8238,7 +8254,7 @@
         <v>93</v>
       </c>
       <c r="B189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>57</v>
@@ -8247,7 +8263,7 @@
         <v>0.55130680412371125</v>
       </c>
       <c r="E189" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -8255,7 +8271,7 @@
         <v>93</v>
       </c>
       <c r="B190" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>58</v>
@@ -8264,7 +8280,7 @@
         <v>0.59025525773195875</v>
       </c>
       <c r="E190" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -8272,7 +8288,7 @@
         <v>93</v>
       </c>
       <c r="B191" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>59</v>
@@ -8281,7 +8297,7 @@
         <v>0.59578240549828176</v>
       </c>
       <c r="E191" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -8289,7 +8305,7 @@
         <v>93</v>
       </c>
       <c r="B192" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>60</v>
@@ -8298,7 +8314,7 @@
         <v>0.65839030927835052</v>
       </c>
       <c r="E192" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -8306,7 +8322,7 @@
         <v>93</v>
       </c>
       <c r="B193" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>61</v>
@@ -8315,7 +8331,7 @@
         <v>0.69512666666666656</v>
       </c>
       <c r="E193" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -8323,7 +8339,7 @@
         <v>93</v>
       </c>
       <c r="B194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>82</v>
@@ -8332,7 +8348,7 @@
         <v>0.72474955326460488</v>
       </c>
       <c r="E194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -8340,16 +8356,16 @@
         <v>93</v>
       </c>
       <c r="B195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D195">
         <v>1.012730996563574</v>
       </c>
       <c r="E195" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -8357,16 +8373,16 @@
         <v>93</v>
       </c>
       <c r="B196" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D196">
         <v>0.99179491408934706</v>
       </c>
       <c r="E196" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -8374,16 +8390,16 @@
         <v>93</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D197">
         <v>0.93255910652920948</v>
       </c>
       <c r="E197" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -8391,16 +8407,16 @@
         <v>93</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D198">
         <v>0.91981553264604832</v>
       </c>
       <c r="E198" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -8408,16 +8424,16 @@
         <v>93</v>
       </c>
       <c r="B199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D199">
         <v>0.93877594501718209</v>
       </c>
       <c r="E199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -8425,16 +8441,16 @@
         <v>93</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D200">
         <v>0.9205189003436427</v>
       </c>
       <c r="E200" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -8442,16 +8458,16 @@
         <v>93</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D201">
         <v>0.90993498281786944</v>
       </c>
       <c r="E201" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -8459,16 +8475,16 @@
         <v>93</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D202">
         <v>0.87932969072164946</v>
       </c>
       <c r="E202" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -8476,16 +8492,16 @@
         <v>93</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D203">
         <v>0.90216109965635738</v>
       </c>
       <c r="E203" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -8493,7 +8509,7 @@
         <v>93</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C204" s="15" t="s">
         <v>48</v>
@@ -8502,7 +8518,7 @@
         <v>0.89415642611683843</v>
       </c>
       <c r="E204" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -8510,7 +8526,7 @@
         <v>93</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>49</v>
@@ -8519,7 +8535,7 @@
         <v>0.90243855670103079</v>
       </c>
       <c r="E205" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -8527,7 +8543,7 @@
         <v>93</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C206" s="15" t="s">
         <v>50</v>
@@ -8536,7 +8552,7 @@
         <v>0.94036343642611675</v>
       </c>
       <c r="E206" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -8544,7 +8560,7 @@
         <v>93</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>51</v>
@@ -8553,7 +8569,7 @@
         <v>0.94337168384879744</v>
       </c>
       <c r="E207" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -8561,7 +8577,7 @@
         <v>93</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>52</v>
@@ -8570,7 +8586,7 @@
         <v>0.97142872852233675</v>
       </c>
       <c r="E208" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -8578,7 +8594,7 @@
         <v>93</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" s="15" t="s">
         <v>53</v>
@@ -8587,7 +8603,7 @@
         <v>0.96377704467353953</v>
       </c>
       <c r="E209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -8595,7 +8611,7 @@
         <v>93</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C210" s="15" t="s">
         <v>54</v>
@@ -8604,7 +8620,7 @@
         <v>0.96066701030927837</v>
       </c>
       <c r="E210" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -8612,7 +8628,7 @@
         <v>93</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C211" s="15" t="s">
         <v>55</v>
@@ -8621,7 +8637,7 @@
         <v>0.90678261168384877</v>
       </c>
       <c r="E211" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -8629,7 +8645,7 @@
         <v>93</v>
       </c>
       <c r="B212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C212" s="15" t="s">
         <v>56</v>
@@ -8638,7 +8654,7 @@
         <v>0.91838247422680419</v>
       </c>
       <c r="E212" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -8646,7 +8662,7 @@
         <v>93</v>
       </c>
       <c r="B213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C213" s="15" t="s">
         <v>57</v>
@@ -8655,7 +8671,7 @@
         <v>0.93904302405498274</v>
       </c>
       <c r="E213" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -8663,7 +8679,7 @@
         <v>93</v>
       </c>
       <c r="B214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>58</v>
@@ -8672,7 +8688,7 @@
         <v>0.95965958762886616</v>
       </c>
       <c r="E214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -8680,7 +8696,7 @@
         <v>93</v>
       </c>
       <c r="B215" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>59</v>
@@ -8689,7 +8705,7 @@
         <v>0.96059388316151217</v>
       </c>
       <c r="E215" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -8697,7 +8713,7 @@
         <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C216" s="15" t="s">
         <v>60</v>
@@ -8706,7 +8722,7 @@
         <v>0.96798563573883156</v>
       </c>
       <c r="E216" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -8714,7 +8730,7 @@
         <v>93</v>
       </c>
       <c r="B217" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>61</v>
@@ -8723,7 +8739,7 @@
         <v>0.94874384879725093</v>
       </c>
       <c r="E217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -8731,7 +8747,7 @@
         <v>93</v>
       </c>
       <c r="B218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C218" s="15" t="s">
         <v>82</v>
@@ -8740,7 +8756,7 @@
         <v>0.99128584192439861</v>
       </c>
       <c r="E218" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -8748,16 +8764,16 @@
         <v>93</v>
       </c>
       <c r="B219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D219">
         <v>1.09651470790378</v>
       </c>
       <c r="E219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -8765,16 +8781,16 @@
         <v>93</v>
       </c>
       <c r="B220" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D220">
         <v>1.127360206185567</v>
       </c>
       <c r="E220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -8782,16 +8798,16 @@
         <v>93</v>
       </c>
       <c r="B221" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D221">
         <v>1.1543338144329898</v>
       </c>
       <c r="E221" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -8799,16 +8815,16 @@
         <v>93</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D222">
         <v>1.2045236426116839</v>
       </c>
       <c r="E222" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -8816,16 +8832,16 @@
         <v>93</v>
       </c>
       <c r="B223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D223">
         <v>1.2453232989690721</v>
       </c>
       <c r="E223" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -8833,16 +8849,16 @@
         <v>93</v>
       </c>
       <c r="B224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D224">
         <v>1.2950220618556703</v>
       </c>
       <c r="E224" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -8850,16 +8866,16 @@
         <v>93</v>
       </c>
       <c r="B225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D225">
         <v>1.3106542955326459</v>
       </c>
       <c r="E225" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -8867,16 +8883,16 @@
         <v>93</v>
       </c>
       <c r="B226" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D226">
         <v>1.2977606872852234</v>
       </c>
       <c r="E226" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -8884,16 +8900,16 @@
         <v>93</v>
       </c>
       <c r="B227" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D227">
         <v>1.3214600000000001</v>
       </c>
       <c r="E227" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -8901,7 +8917,7 @@
         <v>93</v>
       </c>
       <c r="B228" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C228" s="15" t="s">
         <v>48</v>
@@ -8910,7 +8926,7 @@
         <v>1.2708189003436425</v>
       </c>
       <c r="E228" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -8918,7 +8934,7 @@
         <v>93</v>
       </c>
       <c r="B229" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C229" s="15" t="s">
         <v>49</v>
@@ -8927,7 +8943,7 @@
         <v>1.2609050171821305</v>
       </c>
       <c r="E229" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -8935,7 +8951,7 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C230" s="15" t="s">
         <v>50</v>
@@ -8944,7 +8960,7 @@
         <v>1.2240962199312715</v>
       </c>
       <c r="E230" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -8952,7 +8968,7 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>51</v>
@@ -8961,7 +8977,7 @@
         <v>1.1857129896907217</v>
       </c>
       <c r="E231" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -8969,7 +8985,7 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>52</v>
@@ -8978,7 +8994,7 @@
         <v>1.0889511340206186</v>
       </c>
       <c r="E232" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -8986,7 +9002,7 @@
         <v>93</v>
       </c>
       <c r="B233" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>53</v>
@@ -8995,7 +9011,7 @@
         <v>1.0770185567010309</v>
       </c>
       <c r="E233" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -9003,7 +9019,7 @@
         <v>93</v>
       </c>
       <c r="B234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>54</v>
@@ -9012,7 +9028,7 @@
         <v>1.0882625429553265</v>
       </c>
       <c r="E234" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -9020,7 +9036,7 @@
         <v>93</v>
       </c>
       <c r="B235" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C235" s="15" t="s">
         <v>55</v>
@@ -9029,7 +9045,7 @@
         <v>1.0373694845360826</v>
       </c>
       <c r="E235" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -9037,7 +9053,7 @@
         <v>93</v>
       </c>
       <c r="B236" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C236" s="15" t="s">
         <v>56</v>
@@ -9046,7 +9062,7 @@
         <v>1.0282863917525773</v>
       </c>
       <c r="E236" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -9054,7 +9070,7 @@
         <v>93</v>
       </c>
       <c r="B237" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>57</v>
@@ -9063,7 +9079,7 @@
         <v>1.0052668728522336</v>
       </c>
       <c r="E237" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -9071,7 +9087,7 @@
         <v>93</v>
       </c>
       <c r="B238" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>58</v>
@@ -9080,7 +9096,7 @@
         <v>1.010078969072165</v>
       </c>
       <c r="E238" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -9088,7 +9104,7 @@
         <v>93</v>
       </c>
       <c r="B239" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>59</v>
@@ -9097,7 +9113,7 @@
         <v>1.0360531958762886</v>
       </c>
       <c r="E239" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -9105,7 +9121,7 @@
         <v>93</v>
       </c>
       <c r="B240" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C240" s="15" t="s">
         <v>60</v>
@@ -9114,7 +9130,7 @@
         <v>1.1252995876288658</v>
       </c>
       <c r="E240" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -9122,7 +9138,7 @@
         <v>93</v>
       </c>
       <c r="B241" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>61</v>
@@ -9131,7 +9147,7 @@
         <v>1.1131998625429553</v>
       </c>
       <c r="E241" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -9139,7 +9155,7 @@
         <v>93</v>
       </c>
       <c r="B242" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>82</v>
@@ -9148,7 +9164,7 @@
         <v>1.1386089347079038</v>
       </c>
       <c r="E242" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -9156,16 +9172,16 @@
         <v>93</v>
       </c>
       <c r="B243" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D243">
         <v>1.09651470790378</v>
       </c>
       <c r="E243" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -9173,16 +9189,16 @@
         <v>93</v>
       </c>
       <c r="B244" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D244">
         <v>1.127360206185567</v>
       </c>
       <c r="E244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -9190,16 +9206,16 @@
         <v>93</v>
       </c>
       <c r="B245" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D245">
         <v>1.1543338144329898</v>
       </c>
       <c r="E245" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -9207,16 +9223,16 @@
         <v>93</v>
       </c>
       <c r="B246" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D246">
         <v>1.2045236426116839</v>
       </c>
       <c r="E246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -9224,16 +9240,16 @@
         <v>93</v>
       </c>
       <c r="B247" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D247">
         <v>1.2453232989690721</v>
       </c>
       <c r="E247" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -9241,16 +9257,16 @@
         <v>93</v>
       </c>
       <c r="B248" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D248">
         <v>1.2950220618556703</v>
       </c>
       <c r="E248" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -9258,16 +9274,16 @@
         <v>93</v>
       </c>
       <c r="B249" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D249">
         <v>1.3106542955326459</v>
       </c>
       <c r="E249" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -9275,16 +9291,16 @@
         <v>93</v>
       </c>
       <c r="B250" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D250">
         <v>1.2977606872852234</v>
       </c>
       <c r="E250" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -9292,16 +9308,16 @@
         <v>93</v>
       </c>
       <c r="B251" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D251">
         <v>1.3214600000000001</v>
       </c>
       <c r="E251" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -9309,7 +9325,7 @@
         <v>93</v>
       </c>
       <c r="B252" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C252" s="15" t="s">
         <v>48</v>
@@ -9318,7 +9334,7 @@
         <v>1.2708189003436425</v>
       </c>
       <c r="E252" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -9326,7 +9342,7 @@
         <v>93</v>
       </c>
       <c r="B253" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C253" s="15" t="s">
         <v>49</v>
@@ -9335,7 +9351,7 @@
         <v>1.2609050171821305</v>
       </c>
       <c r="E253" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -9343,7 +9359,7 @@
         <v>93</v>
       </c>
       <c r="B254" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>50</v>
@@ -9352,7 +9368,7 @@
         <v>1.2240962199312715</v>
       </c>
       <c r="E254" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -9360,7 +9376,7 @@
         <v>93</v>
       </c>
       <c r="B255" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C255" s="15" t="s">
         <v>51</v>
@@ -9369,7 +9385,7 @@
         <v>1.1857129896907217</v>
       </c>
       <c r="E255" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -9377,7 +9393,7 @@
         <v>93</v>
       </c>
       <c r="B256" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C256" s="15" t="s">
         <v>52</v>
@@ -9386,7 +9402,7 @@
         <v>1.0889511340206186</v>
       </c>
       <c r="E256" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -9394,7 +9410,7 @@
         <v>93</v>
       </c>
       <c r="B257" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>53</v>
@@ -9403,7 +9419,7 @@
         <v>1.0770185567010309</v>
       </c>
       <c r="E257" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -9411,7 +9427,7 @@
         <v>93</v>
       </c>
       <c r="B258" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C258" s="15" t="s">
         <v>54</v>
@@ -9420,7 +9436,7 @@
         <v>1.0882625429553265</v>
       </c>
       <c r="E258" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -9428,7 +9444,7 @@
         <v>93</v>
       </c>
       <c r="B259" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C259" s="15" t="s">
         <v>55</v>
@@ -9437,7 +9453,7 @@
         <v>1.0373694845360826</v>
       </c>
       <c r="E259" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -9445,7 +9461,7 @@
         <v>93</v>
       </c>
       <c r="B260" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C260" s="15" t="s">
         <v>56</v>
@@ -9454,7 +9470,7 @@
         <v>1.0282863917525773</v>
       </c>
       <c r="E260" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -9462,7 +9478,7 @@
         <v>93</v>
       </c>
       <c r="B261" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C261" s="15" t="s">
         <v>57</v>
@@ -9471,7 +9487,7 @@
         <v>1.0052668728522336</v>
       </c>
       <c r="E261" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -9479,7 +9495,7 @@
         <v>93</v>
       </c>
       <c r="B262" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C262" s="15" t="s">
         <v>58</v>
@@ -9488,7 +9504,7 @@
         <v>1.010078969072165</v>
       </c>
       <c r="E262" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -9496,7 +9512,7 @@
         <v>93</v>
       </c>
       <c r="B263" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C263" s="15" t="s">
         <v>59</v>
@@ -9505,7 +9521,7 @@
         <v>1.0360531958762886</v>
       </c>
       <c r="E263" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -9513,7 +9529,7 @@
         <v>93</v>
       </c>
       <c r="B264" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C264" s="15" t="s">
         <v>60</v>
@@ -9522,7 +9538,7 @@
         <v>1.1252995876288658</v>
       </c>
       <c r="E264" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -9530,7 +9546,7 @@
         <v>93</v>
       </c>
       <c r="B265" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C265" s="15" t="s">
         <v>61</v>
@@ -9539,7 +9555,7 @@
         <v>1.1131998625429553</v>
       </c>
       <c r="E265" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -9547,7 +9563,7 @@
         <v>93</v>
       </c>
       <c r="B266" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>82</v>
@@ -9556,7 +9572,7 @@
         <v>1.1386089347079038</v>
       </c>
       <c r="E266" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -9564,16 +9580,16 @@
         <v>93</v>
       </c>
       <c r="B267" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D267">
         <v>0.7082865292096221</v>
       </c>
       <c r="E267" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -9581,16 +9597,16 @@
         <v>93</v>
       </c>
       <c r="B268" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D268">
         <v>0.7055918900343644</v>
       </c>
       <c r="E268" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -9598,16 +9614,16 @@
         <v>93</v>
       </c>
       <c r="B269" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D269">
         <v>0.73409807560137474</v>
       </c>
       <c r="E269" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -9615,16 +9631,16 @@
         <v>93</v>
       </c>
       <c r="B270" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D270">
         <v>0.7242515463917526</v>
       </c>
       <c r="E270" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -9632,16 +9648,16 @@
         <v>93</v>
       </c>
       <c r="B271" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D271">
         <v>0.69141910652920968</v>
       </c>
       <c r="E271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -9649,16 +9665,16 @@
         <v>93</v>
       </c>
       <c r="B272" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D272">
         <v>0.64054776632302413</v>
       </c>
       <c r="E272" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -9666,16 +9682,16 @@
         <v>93</v>
       </c>
       <c r="B273" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D273">
         <v>0.59681731958762885</v>
       </c>
       <c r="E273" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -9683,16 +9699,16 @@
         <v>93</v>
       </c>
       <c r="B274" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D274">
         <v>0.58485711340206181</v>
       </c>
       <c r="E274" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -9700,16 +9716,16 @@
         <v>93</v>
       </c>
       <c r="B275" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D275">
         <v>0.59055931271477669</v>
       </c>
       <c r="E275" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -9717,7 +9733,7 @@
         <v>93</v>
       </c>
       <c r="B276" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>48</v>
@@ -9726,7 +9742,7 @@
         <v>0.56244536082474228</v>
       </c>
       <c r="E276" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -9734,7 +9750,7 @@
         <v>93</v>
       </c>
       <c r="B277" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>49</v>
@@ -9743,7 +9759,7 @@
         <v>0.5557881786941582</v>
       </c>
       <c r="E277" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -9751,7 +9767,7 @@
         <v>93</v>
       </c>
       <c r="B278" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C278" s="15" t="s">
         <v>50</v>
@@ -9760,7 +9776,7 @@
         <v>0.53917353951890024</v>
       </c>
       <c r="E278" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -9768,7 +9784,7 @@
         <v>93</v>
       </c>
       <c r="B279" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C279" s="15" t="s">
         <v>51</v>
@@ -9777,7 +9793,7 @@
         <v>0.50700082474226804</v>
       </c>
       <c r="E279" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -9785,7 +9801,7 @@
         <v>93</v>
       </c>
       <c r="B280" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C280" s="15" t="s">
         <v>52</v>
@@ -9794,7 +9810,7 @@
         <v>0.48673807560137461</v>
       </c>
       <c r="E280" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -9802,7 +9818,7 @@
         <v>93</v>
       </c>
       <c r="B281" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C281" s="15" t="s">
         <v>53</v>
@@ -9811,7 +9827,7 @@
         <v>0.46426089347079036</v>
       </c>
       <c r="E281" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -9819,7 +9835,7 @@
         <v>93</v>
       </c>
       <c r="B282" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C282" s="15" t="s">
         <v>54</v>
@@ -9828,7 +9844,7 @@
         <v>0.46601869415807556</v>
       </c>
       <c r="E282" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -9836,7 +9852,7 @@
         <v>93</v>
       </c>
       <c r="B283" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>55</v>
@@ -9845,7 +9861,7 @@
         <v>0.48226378006872855</v>
       </c>
       <c r="E283" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -9853,7 +9869,7 @@
         <v>93</v>
       </c>
       <c r="B284" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C284" s="15" t="s">
         <v>56</v>
@@ -9862,7 +9878,7 @@
         <v>0.49528577319587624</v>
       </c>
       <c r="E284" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -9870,7 +9886,7 @@
         <v>93</v>
       </c>
       <c r="B285" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C285" s="15" t="s">
         <v>57</v>
@@ -9879,7 +9895,7 @@
         <v>0.55130680412371125</v>
       </c>
       <c r="E285" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -9887,7 +9903,7 @@
         <v>93</v>
       </c>
       <c r="B286" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C286" s="15" t="s">
         <v>58</v>
@@ -9896,7 +9912,7 @@
         <v>0.59025525773195875</v>
       </c>
       <c r="E286" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -9904,7 +9920,7 @@
         <v>93</v>
       </c>
       <c r="B287" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C287" s="15" t="s">
         <v>59</v>
@@ -9913,7 +9929,7 @@
         <v>0.59578240549828176</v>
       </c>
       <c r="E287" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -9921,7 +9937,7 @@
         <v>93</v>
       </c>
       <c r="B288" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C288" s="15" t="s">
         <v>60</v>
@@ -9930,7 +9946,7 @@
         <v>0.65839030927835052</v>
       </c>
       <c r="E288" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -9938,7 +9954,7 @@
         <v>93</v>
       </c>
       <c r="B289" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C289" s="15" t="s">
         <v>61</v>
@@ -9947,7 +9963,7 @@
         <v>0.69512666666666656</v>
       </c>
       <c r="E289" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -9955,7 +9971,7 @@
         <v>93</v>
       </c>
       <c r="B290" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C290" s="15" t="s">
         <v>82</v>
@@ -9964,7 +9980,7 @@
         <v>0.72474955326460488</v>
       </c>
       <c r="E290" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -9978,7 +9994,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9992,10 +10008,10 @@
         <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10006,12 +10022,12 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -10022,7 +10038,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4">
         <v>0.25600000000000001</v>
@@ -10033,7 +10049,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5">
         <v>6.4000000000000001E-2</v>
@@ -10044,7 +10060,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -10055,7 +10071,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7">
         <v>0.224</v>
@@ -10066,7 +10082,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8">
         <v>5.6000000000000001E-2</v>
@@ -10085,7 +10101,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10099,10 +10115,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10113,12 +10129,12 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>3.662E-2</v>
@@ -10129,7 +10145,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>3.5525000000000001E-2</v>
@@ -10140,7 +10156,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>3.5157000000000001E-2</v>
@@ -10151,7 +10167,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>3.5150000000000001E-2</v>
@@ -10162,7 +10178,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>3.5861999999999998E-2</v>
@@ -10173,7 +10189,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>3.7863000000000001E-2</v>
@@ -10184,7 +10200,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>4.0563000000000002E-2</v>
@@ -10195,7 +10211,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>4.2101E-2</v>
@@ -10206,7 +10222,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>4.2272999999999998E-2</v>
@@ -10391,7 +10407,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10440,7 +10456,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -10458,13 +10474,13 @@
         <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -10487,7 +10503,7 @@
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>71</v>
@@ -10496,7 +10512,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>71</v>
@@ -10514,10 +10530,10 @@
         <v>71</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>76</v>
@@ -10531,7 +10547,7 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>0.7</v>
@@ -10555,13 +10571,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N3" s="2">
         <v>30</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P3" s="2">
         <v>2018</v>
@@ -10572,10 +10588,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" t="s">
-        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
@@ -10600,13 +10616,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N4" s="2">
         <v>30</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P4" s="2">
         <v>2018</v>
@@ -10617,13 +10633,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -10647,13 +10663,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N5" s="2">
         <v>30</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P5" s="2">
         <v>2018</v>
@@ -10664,10 +10680,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
         <v>183</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
       </c>
       <c r="C6" t="s">
         <v>101</v>
@@ -10676,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -10685,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="2">
         <v>539.80354847862725</v>
@@ -10694,13 +10710,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N6" s="2">
         <v>30</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P6" s="2">
         <v>2018</v>
@@ -10717,7 +10733,7 @@
         <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10740,7 +10756,7 @@
         <v>30</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P7" s="2">
         <v>2018</v>
@@ -10751,19 +10767,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10772,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I8" s="2">
         <v>4531.3620000000001</v>
@@ -10781,13 +10797,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N8" s="2">
         <v>30</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P8" s="2">
         <v>2018</v>
@@ -10798,7 +10814,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -10810,7 +10826,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10819,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="2">
         <v>7746.9369999999999</v>
@@ -10828,13 +10844,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N9" s="2">
         <v>30</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P9" s="2">
         <v>2018</v>
@@ -10845,13 +10861,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10860,7 +10876,7 @@
         <v>0.50697570000000003</v>
       </c>
       <c r="G10" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
@@ -10875,7 +10891,7 @@
         <v>30</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P10" s="2">
         <v>2018</v>
@@ -10886,13 +10902,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10901,7 +10917,7 @@
         <v>0.37906770000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
@@ -10915,7 +10931,7 @@
         <v>30</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P11" s="2">
         <v>2018</v>
@@ -10926,13 +10942,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10955,7 +10971,7 @@
         <v>30</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P12" s="2">
         <v>2018</v>
@@ -10966,13 +10982,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10981,7 +10997,7 @@
         <v>0.37906770000000001</v>
       </c>
       <c r="G13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -10995,7 +11011,7 @@
         <v>30</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P13" s="2">
         <v>2018</v>
@@ -11006,13 +11022,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11021,7 +11037,7 @@
         <v>0.28218300000000002</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
@@ -11035,7 +11051,7 @@
         <v>30</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P14" s="2">
         <v>2018</v>
@@ -11046,13 +11062,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11076,7 +11092,7 @@
         <v>30</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P15" s="2">
         <v>2018</v>
@@ -11087,13 +11103,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -11116,7 +11132,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P16" s="2">
         <v>2018</v>
@@ -11127,13 +11143,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -11156,7 +11172,7 @@
         <v>30</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P17" s="2">
         <v>2018</v>
@@ -11167,13 +11183,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -11196,7 +11212,7 @@
         <v>30</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P18" s="2">
         <v>2018</v>
@@ -11207,13 +11223,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -11236,7 +11252,7 @@
         <v>30</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P19" s="2">
         <v>2018</v>
@@ -11284,7 +11300,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -11304,12 +11320,12 @@
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4">
         <v>50000</v>
@@ -11318,12 +11334,12 @@
         <v>2000</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>50000</v>
@@ -11332,12 +11348,12 @@
         <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>50000</v>
@@ -11346,7 +11362,7 @@
         <v>2000</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -11357,10 +11373,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11380,7 +11396,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -11402,7 +11418,7 @@
         <v>2018</v>
       </c>
       <c r="B3" s="15">
-        <v>242.7</v>
+        <v>343.8</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>84</v>
@@ -11413,113 +11429,99 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="B4" s="15">
-        <v>425.8</v>
+        <v>461.4</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="15">
-        <v>0</v>
+        <v>64.59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="B5" s="15">
-        <v>461.4</v>
+        <v>509.7</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="15">
-        <v>64.59</v>
+        <v>152.91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="B6" s="15">
-        <v>509.7</v>
+        <v>564.79999999999995</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="15">
-        <v>152.91</v>
+        <v>169.44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="B7" s="15">
-        <v>564.79999999999995</v>
+        <v>616.79999999999995</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="15">
-        <v>169.44</v>
+        <v>400.92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="B8" s="15">
-        <v>616.79999999999995</v>
+        <v>668.8</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="15">
-        <v>400.92</v>
+        <v>434.72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="B9" s="15">
-        <v>668.8</v>
+        <v>720.8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="15">
-        <v>434.72</v>
+        <v>720.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
-        <v>2050</v>
+        <v>2055</v>
       </c>
       <c r="B10" s="15">
-        <v>720.8</v>
+        <v>772.7</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="15">
-        <v>720.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>2055</v>
-      </c>
-      <c r="B11" s="15">
-        <v>772.7</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="15">
         <v>772.7</v>
       </c>
     </row>
@@ -11576,44 +11578,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
         <v>226</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>227</v>
       </c>
-      <c r="C2" t="s">
-        <v>228</v>
-      </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11621,13 +11623,13 @@
         <v>2025</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="25">
         <v>23800</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11635,13 +11637,13 @@
         <v>2030</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="25">
         <v>19600</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -11649,13 +11651,13 @@
         <v>2035</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="25">
         <v>14700</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -11663,13 +11665,13 @@
         <v>2040</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="25">
         <v>9800</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -11677,13 +11679,13 @@
         <v>2045</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="25">
         <v>4900</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11691,13 +11693,13 @@
         <v>2050</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -11711,7 +11713,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A13:C13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11749,7 +11751,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -11767,16 +11769,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="P1" s="26" t="s">
         <v>31</v>
@@ -11814,19 +11816,19 @@
         <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
         <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>76</v>
@@ -11856,7 +11858,7 @@
         <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -11867,7 +11869,7 @@
         <v>2.76</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>90.37</v>
@@ -11879,7 +11881,7 @@
         <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -11890,7 +11892,7 @@
         <v>11.3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>69.34</v>
@@ -11902,7 +11904,7 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -11916,7 +11918,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -11936,7 +11938,7 @@
         <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -11947,7 +11949,7 @@
         <v>11.3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>67.58</v>
@@ -11959,7 +11961,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -11970,7 +11972,7 @@
         <v>3.9140000000000001</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>63.3</v>
@@ -11985,7 +11987,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -11999,7 +12001,7 @@
         <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -12013,12 +12015,12 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12">
         <v>1.94</v>
@@ -12027,12 +12029,12 @@
         <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <v>2.76</v>
@@ -12047,7 +12049,7 @@
         <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997561A9-D4F8-0F41-BA52-307AEB1D311A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BC4C4F-2255-493A-A5ED-58DC1BAE064A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="21140" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -14,17 +14,19 @@
     <sheet name="Connections" sheetId="1" r:id="rId4"/>
     <sheet name="ConnectionsExisting" sheetId="2" r:id="rId5"/>
     <sheet name="Demand" sheetId="3" r:id="rId6"/>
-    <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
-    <sheet name="Emission" sheetId="20" r:id="rId8"/>
-    <sheet name="Fuels" sheetId="6" r:id="rId9"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId10"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId11"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId12"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
-    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId14"/>
-    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId15"/>
-    <sheet name="ReserveMargin" sheetId="13" r:id="rId16"/>
-    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId17"/>
+    <sheet name="DemandTOD" sheetId="21" r:id="rId7"/>
+    <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId8"/>
+    <sheet name="Emission" sheetId="20" r:id="rId9"/>
+    <sheet name="Fuels" sheetId="6" r:id="rId10"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId13"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
+    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
+    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
+    <sheet name="MinCapacity" sheetId="22" r:id="rId17"/>
+    <sheet name="ReserveMargin" sheetId="13" r:id="rId18"/>
+    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="258">
   <si>
     <t>connection</t>
   </si>
@@ -795,17 +797,33 @@
   </si>
   <si>
     <t>EF_WIND</t>
+  </si>
+  <si>
+    <t>[fraction of representativeDay demand]</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>VCEA</t>
+  </si>
+  <si>
+    <t>MinCapacity</t>
+  </si>
+  <si>
+    <t>Ref_MinCapacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,8 +872,21 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +911,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -894,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -924,6 +967,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1240,12 +1288,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1285,7 +1333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1293,7 +1341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1302,13 +1350,13 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1319,7 +1367,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1330,7 +1378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1341,7 +1389,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1352,7 +1400,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1360,32 +1408,32 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>133</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -1393,7 +1441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1401,7 +1449,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -1409,7 +1457,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -1417,13 +1465,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -1431,7 +1479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -1439,7 +1487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -1447,7 +1495,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -1455,7 +1503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -1463,7 +1511,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -1490,6 +1538,356 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>2.76</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>90.37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>11.3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>69.34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>39.51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>11.3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>67.58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>63.3</v>
+      </c>
+      <c r="H9">
+        <v>50.3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12">
+        <v>1.94</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13">
+        <v>2.76</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>90.37</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1497,12 +1895,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1535,22 +1933,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1582,7 +1980,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1614,7 +2012,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -1640,7 +2038,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -1666,7 +2064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -1692,7 +2090,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -1718,7 +2116,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -1744,7 +2142,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -1770,7 +2168,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -1796,7 +2194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -1822,7 +2220,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -1848,7 +2246,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -1874,7 +2272,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>200</v>
       </c>
@@ -1900,7 +2298,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
@@ -1926,7 +2324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>216</v>
       </c>
@@ -1955,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>207</v>
       </c>
@@ -1981,7 +2379,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>231</v>
       </c>
@@ -2007,7 +2405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -2036,7 +2434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -2065,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -2091,7 +2489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>189</v>
       </c>
@@ -2117,7 +2515,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>190</v>
       </c>
@@ -2143,7 +2541,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>192</v>
       </c>
@@ -2169,7 +2567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>116</v>
       </c>
@@ -2195,7 +2593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>117</v>
       </c>
@@ -2221,7 +2619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>118</v>
       </c>
@@ -2247,7 +2645,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
@@ -2273,7 +2671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>128</v>
       </c>
@@ -2302,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>129</v>
       </c>
@@ -2328,7 +2726,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>174</v>
       </c>
@@ -2354,7 +2752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -2380,7 +2778,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>131</v>
       </c>
@@ -2406,7 +2804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>252</v>
       </c>
@@ -2458,26 +2856,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2506,7 +2904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2535,7 +2933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -2560,7 +2958,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2585,7 +2983,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2610,7 +3008,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2635,7 +3033,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -2660,7 +3058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -2685,7 +3083,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -2710,7 +3108,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -2735,7 +3133,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -2760,7 +3158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -2785,7 +3183,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>200</v>
       </c>
@@ -2810,7 +3208,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>207</v>
       </c>
@@ -2835,7 +3233,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>216</v>
       </c>
@@ -2860,7 +3258,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -2885,7 +3283,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>231</v>
       </c>
@@ -2910,7 +3308,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -2935,7 +3333,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>217</v>
       </c>
@@ -2960,7 +3358,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -2985,7 +3383,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>189</v>
       </c>
@@ -3010,7 +3408,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>190</v>
       </c>
@@ -3035,7 +3433,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>192</v>
       </c>
@@ -3060,7 +3458,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -3085,7 +3483,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -3110,7 +3508,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
@@ -3135,7 +3533,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
@@ -3160,7 +3558,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -3185,7 +3583,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -3210,7 +3608,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>174</v>
       </c>
@@ -3235,7 +3633,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -3260,7 +3658,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
@@ -3285,7 +3683,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>252</v>
       </c>
@@ -3316,7 +3714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -3324,23 +3722,23 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3378,7 +3776,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3416,7 +3814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -3440,7 +3838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -3464,7 +3862,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -3488,7 +3886,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -3512,7 +3910,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3536,7 +3934,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3560,7 +3958,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3584,7 +3982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -3608,7 +4006,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -3632,7 +4030,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -3660,7 +4058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>200</v>
       </c>
@@ -3684,7 +4082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>207</v>
       </c>
@@ -3708,7 +4106,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>216</v>
       </c>
@@ -3732,7 +4130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -3760,7 +4158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>231</v>
       </c>
@@ -3784,7 +4182,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -3810,7 +4208,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>217</v>
       </c>
@@ -3836,7 +4234,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -3862,7 +4260,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>189</v>
       </c>
@@ -3888,7 +4286,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>190</v>
       </c>
@@ -3914,7 +4312,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>192</v>
       </c>
@@ -3940,7 +4338,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -3966,7 +4364,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -3992,7 +4390,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
@@ -4030,7 +4428,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
@@ -4068,7 +4466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -4094,7 +4492,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -4120,7 +4518,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>174</v>
       </c>
@@ -4146,7 +4544,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -4172,7 +4570,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
@@ -4210,7 +4608,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>252</v>
       </c>
@@ -4248,483 +4646,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="H9">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="H10">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="H11">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="H12">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="H14">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="19">
-        <v>0.93</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.93</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="16">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25">
-        <v>5000</v>
-      </c>
-      <c r="H25">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30">
-        <v>20000</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="H30">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31">
-        <v>10000</v>
-      </c>
-      <c r="H31">
-        <v>2025</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4733,6 +4660,419 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25">
+        <v>5200</v>
+      </c>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30">
+        <v>20000</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4740,14 +5080,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4761,7 +5101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4775,7 +5115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -4789,7 +5129,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -4800,7 +5140,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -4811,7 +5151,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -4825,7 +5165,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -4839,7 +5179,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -4853,7 +5193,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -4867,7 +5207,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -4878,7 +5218,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -4892,7 +5232,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -4906,7 +5246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -4920,7 +5260,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -4934,7 +5274,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -4948,7 +5288,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -4962,7 +5302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -4976,7 +5316,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -4996,7 +5336,251 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2EA99-FD3E-46B3-B04D-E80D1698DC88}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2600</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>2030</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2600</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>2035</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5200</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>2040</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5200</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>2045</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5200</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>2050</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5200</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>2035</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="30">
+        <v>16100</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>2040</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="30">
+        <v>16100</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
+        <v>2045</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="30">
+        <v>16100</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>2050</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="30">
+        <v>16100</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>2035</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2700</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>2040</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2700</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>2045</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2700</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>2050</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2700</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5004,14 +5588,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5019,7 +5603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5027,7 +5611,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5037,23 +5621,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130:F140"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5070,7 +5654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5087,7 +5671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5104,7 +5688,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5121,7 +5705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5138,7 +5722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5155,7 +5739,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5172,7 +5756,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5189,7 +5773,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5206,7 +5790,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5223,7 +5807,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5240,7 +5824,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5257,7 +5841,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5274,7 +5858,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5291,7 +5875,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5308,7 +5892,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5325,7 +5909,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5342,7 +5926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5359,7 +5943,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5376,7 +5960,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5393,7 +5977,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5410,7 +5994,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -5427,7 +6011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -5444,7 +6028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -5461,7 +6045,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -5478,7 +6062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -5495,7 +6079,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5512,7 +6096,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5529,7 +6113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5546,7 +6130,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -5563,7 +6147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -5580,7 +6164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -5597,7 +6181,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -5614,7 +6198,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -5631,7 +6215,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -5648,7 +6232,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5665,7 +6249,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -5682,7 +6266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -5699,7 +6283,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -5716,7 +6300,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -5733,7 +6317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -5750,7 +6334,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -5767,7 +6351,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -5784,7 +6368,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -5801,7 +6385,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -5818,7 +6402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -5835,7 +6419,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -5852,7 +6436,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -5869,7 +6453,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -5886,7 +6470,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -5903,7 +6487,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -5920,7 +6504,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -5937,7 +6521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -5954,7 +6538,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -5971,7 +6555,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -5988,7 +6572,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6005,7 +6589,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6022,7 +6606,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6039,7 +6623,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6056,7 +6640,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6073,7 +6657,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6090,7 +6674,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6107,7 +6691,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6124,7 +6708,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6141,7 +6725,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6158,7 +6742,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6175,7 +6759,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6192,7 +6776,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6209,7 +6793,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6226,7 +6810,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6243,7 +6827,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6260,7 +6844,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6277,7 +6861,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6294,7 +6878,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6311,7 +6895,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6328,7 +6912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6345,7 +6929,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6362,7 +6946,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6379,7 +6963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6396,7 +6980,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6413,7 +6997,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -6430,7 +7014,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -6447,7 +7031,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -6464,7 +7048,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6481,7 +7065,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -6498,7 +7082,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6515,7 +7099,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -6532,7 +7116,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -6549,7 +7133,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -6566,7 +7150,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -6583,7 +7167,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -6600,7 +7184,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -6617,7 +7201,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -6634,7 +7218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6651,7 +7235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -6668,7 +7252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -6685,7 +7269,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -6702,7 +7286,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -6719,7 +7303,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -6736,7 +7320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -6753,7 +7337,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -6770,7 +7354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -6787,7 +7371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -6804,7 +7388,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -6821,7 +7405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -6838,7 +7422,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -6855,7 +7439,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -6872,7 +7456,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -6889,7 +7473,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -6906,7 +7490,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -6923,7 +7507,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -6940,7 +7524,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -6957,7 +7541,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -6974,7 +7558,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -6991,7 +7575,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -7008,7 +7592,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -7025,7 +7609,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -7042,7 +7626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -7059,7 +7643,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7076,7 +7660,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7093,7 +7677,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7110,7 +7694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7127,7 +7711,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -7144,7 +7728,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -7161,7 +7745,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -7178,7 +7762,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7195,7 +7779,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -7212,7 +7796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -7229,7 +7813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -7246,7 +7830,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -7263,7 +7847,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -7280,7 +7864,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -7297,7 +7881,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -7314,7 +7898,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -7331,7 +7915,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7348,7 +7932,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7365,7 +7949,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7382,7 +7966,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7399,7 +7983,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7416,7 +8000,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -7433,7 +8017,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -7450,7 +8034,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -7467,7 +8051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -7484,7 +8068,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -7501,7 +8085,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -7518,7 +8102,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -7535,7 +8119,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -7552,7 +8136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -7569,7 +8153,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -7586,7 +8170,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -7603,7 +8187,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -7620,7 +8204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -7637,7 +8221,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -7654,7 +8238,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -7671,7 +8255,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -7688,7 +8272,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -7705,7 +8289,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -7722,7 +8306,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -7739,7 +8323,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -7756,7 +8340,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -7773,7 +8357,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -7790,7 +8374,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -7807,7 +8391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -7824,7 +8408,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -7841,7 +8425,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -7858,7 +8442,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -7875,7 +8459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -7892,7 +8476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -7909,7 +8493,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -7926,7 +8510,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -7943,7 +8527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -7960,7 +8544,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -7977,7 +8561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -7994,7 +8578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -8011,7 +8595,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8028,7 +8612,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8045,7 +8629,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8062,7 +8646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8079,7 +8663,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8096,7 +8680,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8113,7 +8697,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8130,7 +8714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8147,7 +8731,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8164,7 +8748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8181,7 +8765,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8198,7 +8782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8215,7 +8799,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8232,7 +8816,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8249,7 +8833,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8266,7 +8850,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8283,7 +8867,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8300,7 +8884,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8317,7 +8901,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8334,7 +8918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8351,7 +8935,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8368,7 +8952,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8385,7 +8969,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8402,7 +8986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -8419,7 +9003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -8436,7 +9020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -8453,7 +9037,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -8470,7 +9054,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -8487,7 +9071,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -8504,7 +9088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -8521,7 +9105,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -8538,7 +9122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -8555,7 +9139,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -8572,7 +9156,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -8589,7 +9173,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -8606,7 +9190,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -8623,7 +9207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -8640,7 +9224,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -8657,7 +9241,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -8674,7 +9258,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -8691,7 +9275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -8708,7 +9292,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -8725,7 +9309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -8742,7 +9326,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -8759,7 +9343,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -8776,7 +9360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -8793,7 +9377,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -8810,7 +9394,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -8827,7 +9411,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -8844,7 +9428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -8861,7 +9445,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -8878,7 +9462,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -8895,7 +9479,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -8912,7 +9496,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -8929,7 +9513,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -8946,7 +9530,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -8963,7 +9547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -8980,7 +9564,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -8997,7 +9581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -9014,7 +9598,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -9031,7 +9615,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -9048,7 +9632,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -9065,7 +9649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -9082,7 +9666,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -9099,7 +9683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -9116,7 +9700,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -9133,7 +9717,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -9150,7 +9734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -9167,7 +9751,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -9184,7 +9768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -9201,7 +9785,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -9218,7 +9802,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -9235,7 +9819,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -9252,7 +9836,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -9269,7 +9853,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -9286,7 +9870,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -9303,7 +9887,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -9320,7 +9904,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -9337,7 +9921,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9354,7 +9938,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9371,7 +9955,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9388,7 +9972,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9405,7 +9989,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -9422,7 +10006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -9439,7 +10023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -9456,7 +10040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -9473,7 +10057,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -9490,7 +10074,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -9507,7 +10091,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -9524,7 +10108,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -9541,7 +10125,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -9558,7 +10142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -9575,7 +10159,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -9592,7 +10176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
@@ -9609,7 +10193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
@@ -9626,7 +10210,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
@@ -9643,7 +10227,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
@@ -9660,7 +10244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
@@ -9677,7 +10261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -9694,7 +10278,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
@@ -9711,7 +10295,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -9728,7 +10312,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
@@ -9745,7 +10329,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
@@ -9762,7 +10346,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
@@ -9779,7 +10363,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
@@ -9796,7 +10380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
@@ -9813,7 +10397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -9830,7 +10414,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
@@ -9847,7 +10431,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
@@ -9864,7 +10448,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
@@ -9881,7 +10465,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
@@ -9898,7 +10482,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
@@ -9915,7 +10499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
@@ -9932,7 +10516,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
@@ -9949,7 +10533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -9966,7 +10550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
@@ -9994,97 +10578,97 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="32" t="s">
         <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>203</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>0.2</v>
       </c>
       <c r="C3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>204</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>0.25600000000000001</v>
       </c>
       <c r="C4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>228</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="C5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>205</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>0.2</v>
       </c>
       <c r="C6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>0.224</v>
       </c>
       <c r="C7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>215</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C8">
@@ -10098,302 +10682,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>165</v>
       </c>
       <c r="B3">
-        <v>3.662E-2</v>
-      </c>
-      <c r="C3">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
       <c r="B4">
-        <v>3.5525000000000001E-2</v>
-      </c>
-      <c r="C4">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
       <c r="B5">
-        <v>3.5157000000000001E-2</v>
-      </c>
-      <c r="C5">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
       <c r="B6">
-        <v>3.5150000000000001E-2</v>
-      </c>
-      <c r="C6">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>169</v>
       </c>
       <c r="B7">
-        <v>3.5861999999999998E-2</v>
-      </c>
-      <c r="C7">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>170</v>
       </c>
       <c r="B8">
-        <v>3.7863000000000001E-2</v>
-      </c>
-      <c r="C8">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>171</v>
       </c>
       <c r="B9">
-        <v>4.0563000000000002E-2</v>
-      </c>
-      <c r="C9">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>172</v>
       </c>
       <c r="B10">
-        <v>4.2101E-2</v>
-      </c>
-      <c r="C10">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>173</v>
       </c>
       <c r="B11">
-        <v>4.2272999999999998E-2</v>
-      </c>
-      <c r="C11">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12">
-        <v>4.2284000000000002E-2</v>
-      </c>
-      <c r="C12">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13">
-        <v>4.2467999999999999E-2</v>
-      </c>
-      <c r="C13">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14">
-        <v>4.2668999999999999E-2</v>
-      </c>
-      <c r="C14">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15">
-        <v>4.3032000000000001E-2</v>
-      </c>
-      <c r="C15">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16">
-        <v>4.3114E-2</v>
-      </c>
-      <c r="C16">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17">
-        <v>4.3240000000000001E-2</v>
-      </c>
-      <c r="C17">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
       <c r="B18">
-        <v>4.4275000000000002E-2</v>
-      </c>
-      <c r="C18">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19">
-        <v>4.5138999999999999E-2</v>
-      </c>
-      <c r="C19">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20">
-        <v>4.6200999999999999E-2</v>
-      </c>
-      <c r="C20">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="B21">
-        <v>4.7287999999999997E-2</v>
-      </c>
-      <c r="C21">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="B22">
-        <v>4.7033999999999999E-2</v>
-      </c>
-      <c r="C22">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
       <c r="B23">
-        <v>4.6360999999999999E-2</v>
-      </c>
-      <c r="C23">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
       <c r="B24">
-        <v>4.4635000000000001E-2</v>
-      </c>
-      <c r="C24">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
       <c r="B25">
-        <v>4.1834999999999997E-2</v>
-      </c>
-      <c r="C25">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B26">
-        <v>3.9312E-2</v>
-      </c>
-      <c r="C26" s="2">
-        <f>1-SUM(C3:C25)</f>
+      <c r="B26" s="2">
+        <f>1-SUM(B3:B25)</f>
         <v>4.1658999999999891E-2</v>
       </c>
     </row>
@@ -10410,24 +10915,24 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10483,7 +10988,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10539,7 +11044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10586,7 +11091,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -10631,7 +11136,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -10678,7 +11183,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -10725,7 +11230,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -10765,7 +11270,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -10812,7 +11317,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -10859,7 +11364,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -10900,7 +11405,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -10940,7 +11445,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>244</v>
       </c>
@@ -10980,7 +11485,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>246</v>
       </c>
@@ -11020,7 +11525,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -11060,7 +11565,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -11101,7 +11606,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -11141,7 +11646,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -11181,7 +11686,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -11221,7 +11726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -11275,13 +11780,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11295,7 +11800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -11309,7 +11814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11323,7 +11828,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -11337,7 +11842,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -11351,7 +11856,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -11375,17 +11880,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11399,7 +11904,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11413,7 +11918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2018</v>
       </c>
@@ -11427,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2025</v>
       </c>
@@ -11441,7 +11946,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2030</v>
       </c>
@@ -11455,7 +11960,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2035</v>
       </c>
@@ -11469,7 +11974,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2040</v>
       </c>
@@ -11483,7 +11988,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2045</v>
       </c>
@@ -11497,7 +12002,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>2050</v>
       </c>
@@ -11511,7 +12016,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2055</v>
       </c>
@@ -11532,6 +12037,1634 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28912B5-8590-412C-8145-960D60FAEF13}">
+  <dimension ref="A1:C149"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3">
+        <v>3.71919846570994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4">
+        <v>3.6299186561735336E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5">
+        <v>3.585565328571743E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6">
+        <v>3.584903996649251E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7">
+        <v>3.6714503009060241E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8">
+        <v>3.8644710446839932E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9">
+        <v>4.090999272534885E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10">
+        <v>4.208187289200449E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11">
+        <v>4.2068205365606327E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>4.1572647311685723E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>4.1779864647399856E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>4.2292176443356914E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>4.2667812975332314E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>4.2907215131274379E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>4.3359125278310512E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>4.4095849039966488E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>4.4986001807640584E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>4.5571501003020071E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>4.6068822608733989E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>4.6279567048034737E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>4.6637127174128691E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>4.4731168573507042E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>4.2083636443797805E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26">
+        <v>3.9352335603906267E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27">
+        <v>3.5708343609267057E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28">
+        <v>3.3815046660454817E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29">
+        <v>3.2284809322158728E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30">
+        <v>3.1555323242296276E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31">
+        <v>3.1296355683945107E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32">
+        <v>3.2007885183380179E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33">
+        <v>3.2826031879102838E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34">
+        <v>3.4834924314416357E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35">
+        <v>3.7579194832545064E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>3.9971348031355554E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>4.2642108798359668E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>4.4827761322255244E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>4.6964033249975522E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>4.7776568514314624E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>4.8205001300449225E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>5.0443681850919422E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>5.1229562816186625E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>5.146215664703508E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>5.0967228399005318E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>4.9399675042008581E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>4.7706145050450982E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>4.5594002277679999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>4.2075915371758733E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50">
+        <v>3.8826896600679041E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51">
+        <v>3.5708343609267057E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52">
+        <v>3.3815046660454817E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53">
+        <v>3.2284809322158728E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54">
+        <v>3.1555323242296276E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55">
+        <v>3.1296355683945107E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56">
+        <v>3.2007885183380179E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57">
+        <v>3.2826031879102838E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58">
+        <v>3.4834924314416357E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59">
+        <v>3.7579194832545064E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>3.9971348031355554E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61">
+        <v>4.2642108798359668E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>4.4827761322255244E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>4.6964033249975522E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64">
+        <v>4.7776568514314624E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65">
+        <v>4.8205001300449225E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66">
+        <v>5.0443681850919422E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67">
+        <v>5.1229562816186625E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68">
+        <v>5.146215664703508E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69">
+        <v>5.0967228399005318E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70">
+        <v>4.9399675042008581E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71">
+        <v>4.7706145050450982E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>4.5594002277679999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>4.2075915371758733E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74">
+        <v>3.8826896600679041E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75">
+        <v>3.5405734767332574E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76">
+        <v>3.4072566721671999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
+        <v>3.389369571940673E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78">
+        <v>3.3866672042805503E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79">
+        <v>3.4843813872926094E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80">
+        <v>3.7621676248633266E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81">
+        <v>4.1705254046152149E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82">
+        <v>4.3747900839406863E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83">
+        <v>4.3233593089488258E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84">
+        <v>4.369085085547094E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85">
+        <v>4.3598198249981013E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86">
+        <v>4.342919303441143E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87">
+        <v>4.3443777240831143E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88">
+        <v>4.375261925913089E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89">
+        <v>4.4077761272840896E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90">
+        <v>4.4618663752113097E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91">
+        <v>4.4892332096106484E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92">
+        <v>4.5406210898777451E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93">
+        <v>4.7489178733310197E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94">
+        <v>4.7440278747079401E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95">
+        <v>4.6340886951381825E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96">
+        <v>4.4351000669586652E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97">
+        <v>4.0931862158659862E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98">
+        <v>3.8146278732495195E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99">
+        <v>3.8174573194236283E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100">
+        <v>3.7914264955818393E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101">
+        <v>3.859254649671446E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102">
+        <v>3.9329067581681768E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103">
+        <v>4.0593605748532595E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104">
+        <v>4.3176738675626339E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105">
+        <v>4.6808826926876233E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106">
+        <v>4.7738729039395036E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107">
+        <v>4.6211952041505175E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108">
+        <v>4.3901997970303627E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109">
+        <v>4.1852673902956841E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>4.0126080568778331E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111">
+        <v>3.9051705775110419E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112">
+        <v>3.8019160488234005E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113">
+        <v>3.7317711835884185E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114">
+        <v>3.7940971487077584E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115">
+        <v>3.9449086089629701E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116">
+        <v>4.2362993885813174E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117">
+        <v>4.4625004906922915E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118">
+        <v>4.5016593443578758E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119">
+        <v>4.4759181094092583E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120">
+        <v>4.3864029648754417E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121">
+        <v>4.2250054217476116E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122">
+        <v>4.0922450025001181E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123">
+        <v>3.8174573194236283E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124">
+        <v>3.7914264955818393E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125" t="s">
+        <v>167</v>
+      </c>
+      <c r="C125">
+        <v>3.859254649671446E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126">
+        <v>3.9329067581681768E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127">
+        <v>4.0593605748532595E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128">
+        <v>4.3176738675626339E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129">
+        <v>4.6808826926876233E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>215</v>
+      </c>
+      <c r="B130" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130">
+        <v>4.7738729039395036E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131">
+        <v>4.6211952041505175E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132">
+        <v>4.3901997970303627E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>215</v>
+      </c>
+      <c r="B133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133">
+        <v>4.1852673902956841E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>215</v>
+      </c>
+      <c r="B134" t="s">
+        <v>50</v>
+      </c>
+      <c r="C134">
+        <v>4.0126080568778331E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>215</v>
+      </c>
+      <c r="B135" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135">
+        <v>3.9051705775110419E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>215</v>
+      </c>
+      <c r="B136" t="s">
+        <v>52</v>
+      </c>
+      <c r="C136">
+        <v>3.8019160488234005E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>215</v>
+      </c>
+      <c r="B137" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137">
+        <v>3.7317711835884185E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>215</v>
+      </c>
+      <c r="B138" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138">
+        <v>3.7940971487077584E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139">
+        <v>3.9449086089629701E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140">
+        <v>4.2362993885813174E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141">
+        <v>4.4625004906922915E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>215</v>
+      </c>
+      <c r="B142" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142">
+        <v>4.5016593443578758E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143">
+        <v>4.4759181094092583E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144">
+        <v>4.3864029648754417E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>215</v>
+      </c>
+      <c r="B145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145">
+        <v>4.2250054217476116E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>215</v>
+      </c>
+      <c r="B146" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146">
+        <v>4.0922450025001181E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -11539,13 +13672,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -11553,7 +13686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -11561,7 +13694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -11574,17 +13707,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -11601,7 +13734,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -11618,7 +13751,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>2025</v>
       </c>
@@ -11632,7 +13765,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>2030</v>
       </c>
@@ -11646,7 +13779,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>2035</v>
       </c>
@@ -11660,7 +13793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2040</v>
       </c>
@@ -11674,7 +13807,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>2045</v>
       </c>
@@ -11688,7 +13821,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>2050</v>
       </c>
@@ -11706,354 +13839,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4">
-        <v>2.76</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>90.37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5">
-        <v>11.3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>69.34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>39.51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8">
-        <v>11.3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>67.58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9">
-        <v>3.9140000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>63.3</v>
-      </c>
-      <c r="H9">
-        <v>50.3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12">
-        <v>1.94</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13">
-        <v>2.76</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>90.37</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BC4C4F-2255-493A-A5ED-58DC1BAE064A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE2BDD-0860-0C4B-ABEC-8C2E207C6C40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="21140" tabRatio="941" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1288,12 +1288,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1350,13 +1350,13 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1408,32 +1408,32 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>133</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -1465,13 +1465,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -1545,25 +1545,25 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -1895,12 +1895,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1937,18 +1937,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>200</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>216</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>207</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>231</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>189</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>190</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>192</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>116</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>117</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>118</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>128</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>129</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>174</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>131</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>252</v>
       </c>
@@ -2860,22 +2860,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>200</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>207</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>216</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>231</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>217</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>189</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>190</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>192</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -3508,12 +3508,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="16">
-        <v>23.2</v>
+        <v>29</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>197</v>
@@ -3533,7 +3533,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>174</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -3658,12 +3658,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="5">
-        <v>23.2</v>
+        <v>29</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>197</v>
@@ -3683,7 +3683,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>252</v>
       </c>
@@ -3722,23 +3722,23 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>200</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>207</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>216</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>231</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>217</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>189</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>190</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>192</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>174</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>252</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5"/>
@@ -4667,20 +4667,20 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="C9" s="5"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="C10" s="5"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="C11" s="5"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="C12" s="5"/>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>200</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>216</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="C14" s="5"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
@@ -4894,7 +4894,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>217</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>115</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>189</v>
       </c>
@@ -4938,7 +4938,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>190</v>
       </c>
@@ -4954,7 +4954,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>192</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>116</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>117</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>118</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>119</v>
       </c>
@@ -5017,13 +5017,13 @@
       </c>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
@@ -5035,19 +5035,19 @@
       </c>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="F30" s="2"/>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>252</v>
       </c>
@@ -5080,14 +5080,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -5340,18 +5340,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2EA99-FD3E-46B3-B04D-E80D1698DC88}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2025</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2030</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2035</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>2040</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>2045</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2050</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>2035</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>2040</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>2045</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>2050</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>2035</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>2040</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>2045</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>2050</v>
       </c>
@@ -5588,14 +5588,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5625,19 +5625,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5818,13 +5818,13 @@
         <v>173</v>
       </c>
       <c r="D11">
-        <v>0.96259337132800005</v>
+        <v>0.77007469706240006</v>
       </c>
       <c r="E11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5835,13 +5835,13 @@
         <v>48</v>
       </c>
       <c r="D12">
-        <v>1.60166683138</v>
+        <v>1.281333465104</v>
       </c>
       <c r="E12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5852,13 +5852,13 @@
         <v>49</v>
       </c>
       <c r="D13">
-        <v>2.95581809344</v>
+        <v>2.3646544747520002</v>
       </c>
       <c r="E13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5869,13 +5869,13 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>3.7850790856600001</v>
+        <v>3.0280632685280002</v>
       </c>
       <c r="E14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5886,13 +5886,13 @@
         <v>51</v>
       </c>
       <c r="D15">
-        <v>3.7761824652699998</v>
+        <v>3.0209459722159995</v>
       </c>
       <c r="E15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5903,13 +5903,13 @@
         <v>52</v>
       </c>
       <c r="D16">
-        <v>3.4941576425399998</v>
+        <v>2.795326114032</v>
       </c>
       <c r="E16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5920,13 +5920,13 @@
         <v>53</v>
       </c>
       <c r="D17">
-        <v>2.8292392133100002</v>
+        <v>2.2633913706480002</v>
       </c>
       <c r="E17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5937,13 +5937,13 @@
         <v>54</v>
       </c>
       <c r="D18">
-        <v>2.31085050602</v>
+        <v>1.8486804048160002</v>
       </c>
       <c r="E18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5954,13 +5954,13 @@
         <v>55</v>
       </c>
       <c r="D19">
-        <v>1.6195855478600001</v>
+        <v>1.2956684382880002</v>
       </c>
       <c r="E19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5971,13 +5971,13 @@
         <v>56</v>
       </c>
       <c r="D20">
-        <v>0.66482724319599995</v>
+        <v>0.53186179455679994</v>
       </c>
       <c r="E20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -6209,13 +6209,13 @@
         <v>172</v>
       </c>
       <c r="D34">
-        <v>8.5038096497625001E-3</v>
+        <v>6.8030477198099994E-3</v>
       </c>
       <c r="E34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -6226,13 +6226,13 @@
         <v>173</v>
       </c>
       <c r="D35">
-        <v>0.78480203808500004</v>
+        <v>0.62784163046800001</v>
       </c>
       <c r="E35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -6243,13 +6243,13 @@
         <v>48</v>
       </c>
       <c r="D36">
-        <v>1.9322938833750001</v>
+        <v>1.5458351067</v>
       </c>
       <c r="E36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -6260,13 +6260,13 @@
         <v>49</v>
       </c>
       <c r="D37">
-        <v>3.0796757612249999</v>
+        <v>2.4637406089799998</v>
       </c>
       <c r="E37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -6277,13 +6277,13 @@
         <v>50</v>
       </c>
       <c r="D38">
-        <v>3.7564003850875003</v>
+        <v>3.00512030807</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -6294,13 +6294,13 @@
         <v>51</v>
       </c>
       <c r="D39">
-        <v>4.4136164018500006</v>
+        <v>3.5308931214800006</v>
       </c>
       <c r="E39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -6311,13 +6311,13 @@
         <v>52</v>
       </c>
       <c r="D40">
-        <v>4.6200688454375003</v>
+        <v>3.69605507635</v>
       </c>
       <c r="E40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -6328,13 +6328,13 @@
         <v>53</v>
       </c>
       <c r="D41">
-        <v>4.2218234319250003</v>
+        <v>3.3774587455400007</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -6345,13 +6345,13 @@
         <v>54</v>
       </c>
       <c r="D42">
-        <v>3.4711331872375002</v>
+        <v>2.7769065497900001</v>
       </c>
       <c r="E42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -6362,13 +6362,13 @@
         <v>55</v>
       </c>
       <c r="D43">
-        <v>2.4483604562125003</v>
+        <v>1.9586883649700004</v>
       </c>
       <c r="E43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -6379,13 +6379,13 @@
         <v>56</v>
       </c>
       <c r="D44">
-        <v>1.2633217998999999</v>
+        <v>1.0106574399199999</v>
       </c>
       <c r="E44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6634,13 +6634,13 @@
         <v>173</v>
       </c>
       <c r="D59">
-        <v>0.96259337132800005</v>
+        <v>0.77007469706240006</v>
       </c>
       <c r="E59" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6651,13 +6651,13 @@
         <v>48</v>
       </c>
       <c r="D60">
-        <v>1.60166683138</v>
+        <v>1.281333465104</v>
       </c>
       <c r="E60" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6668,13 +6668,13 @@
         <v>49</v>
       </c>
       <c r="D61">
-        <v>2.95581809344</v>
+        <v>2.3646544747520002</v>
       </c>
       <c r="E61" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6685,13 +6685,13 @@
         <v>50</v>
       </c>
       <c r="D62">
-        <v>3.7850790856600001</v>
+        <v>3.0280632685280002</v>
       </c>
       <c r="E62" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6702,13 +6702,13 @@
         <v>51</v>
       </c>
       <c r="D63">
-        <v>3.7761824652699998</v>
+        <v>3.0209459722159995</v>
       </c>
       <c r="E63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6719,13 +6719,13 @@
         <v>52</v>
       </c>
       <c r="D64">
-        <v>3.4941576425399998</v>
+        <v>2.795326114032</v>
       </c>
       <c r="E64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6736,13 +6736,13 @@
         <v>53</v>
       </c>
       <c r="D65">
-        <v>2.8292392133100002</v>
+        <v>2.2633913706480002</v>
       </c>
       <c r="E65" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6753,13 +6753,13 @@
         <v>54</v>
       </c>
       <c r="D66">
-        <v>2.31085050602</v>
+        <v>1.8486804048160002</v>
       </c>
       <c r="E66" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6770,13 +6770,13 @@
         <v>55</v>
       </c>
       <c r="D67">
-        <v>1.6195855478600001</v>
+        <v>1.2956684382880002</v>
       </c>
       <c r="E67" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6787,13 +6787,13 @@
         <v>56</v>
       </c>
       <c r="D68">
-        <v>0.66482724319599995</v>
+        <v>0.53186179455679994</v>
       </c>
       <c r="E68" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -7025,13 +7025,13 @@
         <v>172</v>
       </c>
       <c r="D82">
-        <v>4.25190482488125E-3</v>
+        <v>3.4015238599049997E-3</v>
       </c>
       <c r="E82" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -7042,13 +7042,13 @@
         <v>173</v>
       </c>
       <c r="D83">
-        <v>0.39240101904250002</v>
+        <v>0.31392081523400001</v>
       </c>
       <c r="E83" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -7059,13 +7059,13 @@
         <v>48</v>
       </c>
       <c r="D84">
-        <v>0.96614694168750004</v>
+        <v>0.77291755335000001</v>
       </c>
       <c r="E84" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -7076,13 +7076,13 @@
         <v>49</v>
       </c>
       <c r="D85">
-        <v>1.5398378806124999</v>
+        <v>1.2318703044899999</v>
       </c>
       <c r="E85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -7093,13 +7093,13 @@
         <v>50</v>
       </c>
       <c r="D86">
-        <v>1.8782001925437499</v>
+        <v>1.502560154035</v>
       </c>
       <c r="E86" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -7110,13 +7110,13 @@
         <v>51</v>
       </c>
       <c r="D87">
-        <v>2.2068082009249999</v>
+        <v>1.7654465607399998</v>
       </c>
       <c r="E87" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -7127,13 +7127,13 @@
         <v>52</v>
       </c>
       <c r="D88">
-        <v>2.3100344227187501</v>
+        <v>1.848027538175</v>
       </c>
       <c r="E88" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -7144,13 +7144,13 @@
         <v>53</v>
       </c>
       <c r="D89">
-        <v>2.1109117159624997</v>
+        <v>1.6887293727699997</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -7161,13 +7161,13 @@
         <v>54</v>
       </c>
       <c r="D90">
-        <v>1.7355665936187501</v>
+        <v>1.388453274895</v>
       </c>
       <c r="E90" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -7178,13 +7178,13 @@
         <v>55</v>
       </c>
       <c r="D91">
-        <v>1.2241802281062499</v>
+        <v>0.97934418248499999</v>
       </c>
       <c r="E91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -7195,13 +7195,13 @@
         <v>56</v>
       </c>
       <c r="D92">
-        <v>0.63166089994999997</v>
+        <v>0.50532871995999995</v>
       </c>
       <c r="E92" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -7433,13 +7433,13 @@
         <v>172</v>
       </c>
       <c r="D106">
-        <v>1.133841286635E-3</v>
+        <v>9.0707302930800003E-4</v>
       </c>
       <c r="E106" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -7450,13 +7450,13 @@
         <v>173</v>
       </c>
       <c r="D107">
-        <v>0.10464027174466667</v>
+        <v>8.371221739573334E-2</v>
       </c>
       <c r="E107" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -7467,13 +7467,13 @@
         <v>48</v>
       </c>
       <c r="D108">
-        <v>0.25763918445</v>
+        <v>0.20611134755999999</v>
       </c>
       <c r="E108" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -7484,13 +7484,13 @@
         <v>49</v>
       </c>
       <c r="D109">
-        <v>0.41062343482999997</v>
+        <v>0.32849874786399996</v>
       </c>
       <c r="E109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -7501,13 +7501,13 @@
         <v>50</v>
       </c>
       <c r="D110">
-        <v>0.50085338467833329</v>
+        <v>0.40068270774266662</v>
       </c>
       <c r="E110" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -7518,13 +7518,13 @@
         <v>51</v>
       </c>
       <c r="D111">
-        <v>0.58848218691333332</v>
+        <v>0.47078574953066671</v>
       </c>
       <c r="E111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -7535,13 +7535,13 @@
         <v>52</v>
       </c>
       <c r="D112">
-        <v>0.61600917939166666</v>
+        <v>0.49280734351333333</v>
       </c>
       <c r="E112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -7552,13 +7552,13 @@
         <v>53</v>
       </c>
       <c r="D113">
-        <v>0.56290979092333326</v>
+        <v>0.45032783273866656</v>
       </c>
       <c r="E113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -7569,13 +7569,13 @@
         <v>54</v>
       </c>
       <c r="D114">
-        <v>0.46281775829833333</v>
+        <v>0.37025420663866665</v>
       </c>
       <c r="E114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -7586,13 +7586,13 @@
         <v>55</v>
       </c>
       <c r="D115">
-        <v>0.32644806082833333</v>
+        <v>0.26115844866266669</v>
       </c>
       <c r="E115" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -7603,13 +7603,13 @@
         <v>56</v>
       </c>
       <c r="D116">
-        <v>0.16844290665333331</v>
+        <v>0.13475432532266665</v>
       </c>
       <c r="E116" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -7841,13 +7841,13 @@
         <v>172</v>
       </c>
       <c r="D130">
-        <v>4.25190482488125E-3</v>
+        <v>3.4015238599049997E-3</v>
       </c>
       <c r="E130" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -7858,13 +7858,13 @@
         <v>173</v>
       </c>
       <c r="D131">
-        <v>0.39240101904250002</v>
+        <v>0.31392081523400001</v>
       </c>
       <c r="E131" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -7875,13 +7875,13 @@
         <v>48</v>
       </c>
       <c r="D132">
-        <v>0.96614694168750004</v>
+        <v>0.77291755335000001</v>
       </c>
       <c r="E132" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -7892,13 +7892,13 @@
         <v>49</v>
       </c>
       <c r="D133">
-        <v>1.5398378806124997</v>
+        <v>1.2318703044899997</v>
       </c>
       <c r="E133" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -7909,13 +7909,13 @@
         <v>50</v>
       </c>
       <c r="D134">
-        <v>1.8782001925437501</v>
+        <v>1.502560154035</v>
       </c>
       <c r="E134" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7926,13 +7926,13 @@
         <v>51</v>
       </c>
       <c r="D135">
-        <v>2.2068082009250003</v>
+        <v>1.7654465607400003</v>
       </c>
       <c r="E135" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7943,13 +7943,13 @@
         <v>52</v>
       </c>
       <c r="D136">
-        <v>2.3100344227187501</v>
+        <v>1.848027538175</v>
       </c>
       <c r="E136" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7960,13 +7960,13 @@
         <v>53</v>
       </c>
       <c r="D137">
-        <v>2.1109117159624997</v>
+        <v>1.6887293727699997</v>
       </c>
       <c r="E137" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7977,13 +7977,13 @@
         <v>54</v>
       </c>
       <c r="D138">
-        <v>1.7355665936187499</v>
+        <v>1.3884532748949998</v>
       </c>
       <c r="E138" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7994,13 +7994,13 @@
         <v>55</v>
       </c>
       <c r="D139">
-        <v>1.2241802281062502</v>
+        <v>0.97934418248500021</v>
       </c>
       <c r="E139" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -8011,13 +8011,13 @@
         <v>56</v>
       </c>
       <c r="D140">
-        <v>0.63166089994999985</v>
+        <v>0.50532871995999984</v>
       </c>
       <c r="E140" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
@@ -10581,13 +10581,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -10688,12 +10688,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -10911,28 +10911,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>244</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>246</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -11780,13 +11780,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -11884,13 +11884,13 @@
       <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2018</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2025</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2030</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>2035</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>2040</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2045</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>2050</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2055</v>
       </c>
@@ -12042,14 +12042,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>3.71919846570994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>203</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>3.6299186561735336E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>3.585565328571743E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>3.584903996649251E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>3.6714503009060241E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>3.8644710446839932E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>4.090999272534885E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>4.208187289200449E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>4.2068205365606327E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>4.1572647311685723E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>4.1779864647399856E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>4.2292176443356914E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>4.2667812975332314E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>4.2907215131274379E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>4.3359125278310512E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>4.4095849039966488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>4.4986001807640584E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>4.5571501003020071E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>4.6068822608733989E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>4.6279567048034737E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>4.6637127174128691E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>4.4731168573507042E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>4.2083636443797805E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>3.9352335603906267E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>204</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>204</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>228</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>228</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>228</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>228</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>228</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>228</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>228</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>228</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>228</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>228</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>228</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>228</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>228</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>228</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>228</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>228</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>205</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>3.5405734767332574E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>3.4072566721671999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>3.389369571940673E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>205</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>3.3866672042805503E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>205</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>3.4843813872926094E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>205</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>3.7621676248633266E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>4.1705254046152149E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>205</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>4.3747900839406863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>205</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>4.3233593089488258E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>4.369085085547094E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>4.3598198249981013E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>205</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>4.342919303441143E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>205</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>4.3443777240831143E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>205</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>4.375261925913089E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>205</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>4.4077761272840896E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>205</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>4.4618663752113097E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>4.4892332096106484E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>205</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>4.5406210898777451E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>205</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>4.7489178733310197E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>4.7440278747079401E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>4.6340886951381825E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>205</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>4.4351000669586652E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>4.0931862158659862E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>205</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>3.8146278732495195E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>206</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>206</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>206</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>206</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>206</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>206</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>206</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>215</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>215</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>215</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>215</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>215</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>215</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>215</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>215</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>215</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>215</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>215</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>215</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>215</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>215</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>215</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>215</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C149" s="29"/>
     </row>
   </sheetData>
@@ -13672,13 +13672,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -13715,9 +13715,9 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2025</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>2030</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>2035</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>2040</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>2045</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>2050</v>
       </c>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE2BDD-0860-0C4B-ABEC-8C2E207C6C40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4DF397-AC3A-8443-928D-6B204222B0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="21140" tabRatio="941" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="21140" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="259">
   <si>
     <t>connection</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>Ref_MinCapacity</t>
+  </si>
+  <si>
+    <t>EX_NG_GT</t>
   </si>
 </sst>
 </file>
@@ -1935,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2248,10 +2251,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>102</v>
@@ -2266,7 +2269,7 @@
         <v>126</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>126</v>
@@ -2274,10 +2277,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>102</v>
@@ -2292,7 +2295,7 @@
         <v>126</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>126</v>
@@ -2300,10 +2303,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>102</v>
@@ -2318,7 +2321,7 @@
         <v>126</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>126</v>
@@ -2326,10 +2329,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>102</v>
@@ -2338,27 +2341,24 @@
         <v>127</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>126</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>102</v>
@@ -2367,24 +2367,27 @@
         <v>127</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>126</v>
+      <c r="J16">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>102</v>
@@ -2407,10 +2410,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>102</v>
@@ -2419,97 +2422,97 @@
         <v>127</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J18">
+      <c r="E19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19">
         <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>127</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>126</v>
+      <c r="J20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>127</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>127</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>126</v>
@@ -2517,10 +2520,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>102</v>
@@ -2543,10 +2546,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>102</v>
@@ -2569,18 +2572,18 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F24" s="16" t="s">
@@ -2595,7 +2598,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>187</v>
@@ -2604,7 +2607,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>127</v>
@@ -2621,10 +2624,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>102</v>
@@ -2639,7 +2642,7 @@
         <v>127</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>126</v>
@@ -2647,10 +2650,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>102</v>
@@ -2672,72 +2675,72 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="A28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>127</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>126</v>
+      <c r="J29">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>127</v>
@@ -2746,7 +2749,7 @@
         <v>127</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>126</v>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>187</v>
@@ -2763,7 +2766,7 @@
         <v>99</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>127</v>
@@ -2780,10 +2783,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>99</v>
@@ -2798,7 +2801,7 @@
         <v>127</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>126</v>
@@ -2806,13 +2809,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>126</v>
@@ -2830,23 +2833,49 @@
         <v>126</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D24:E33 D20:E20 G20:H20 G24:H33 F20:F33 D3:H15 D19:H19">
+  <conditionalFormatting sqref="D25:E34 D21:E21 G21:H21 G25:H34 F21:F34 D20:H20 D3:H16">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E23 G21:H23">
+  <conditionalFormatting sqref="D22:E24 G22:H24">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H17">
+  <conditionalFormatting sqref="D17:H18">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:H18">
+  <conditionalFormatting sqref="D19:H19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2858,10 +2887,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2938,10 +2967,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="8">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D3" s="8">
         <v>39.4</v>
@@ -2966,7 +2995,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D4" s="8">
         <v>29.9</v>
@@ -2991,7 +3020,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D5" s="8">
         <v>40</v>
@@ -3016,7 +3045,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D6" s="8">
         <v>35.299999999999997</v>
@@ -3041,7 +3070,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D7" s="8">
         <v>34.6</v>
@@ -3066,7 +3095,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D8" s="8">
         <v>34.1</v>
@@ -3088,10 +3117,10 @@
         <v>109</v>
       </c>
       <c r="B9" s="8">
-        <v>21</v>
+        <v>23.3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D9" s="8">
         <v>90</v>
@@ -3116,7 +3145,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D10" s="5">
         <v>19</v>
@@ -3138,10 +3167,10 @@
         <v>111</v>
       </c>
       <c r="B11" s="8">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D11" s="8">
         <v>54.1</v>
@@ -3160,18 +3189,18 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="B12" s="5">
-        <v>23.2</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D12" s="5">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8" t="s">
+        <v>54.1</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>197</v>
       </c>
       <c r="F12" s="8"/>
@@ -3185,16 +3214,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="B13" s="5">
-        <v>93.6</v>
+        <v>23.2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D13" s="5">
-        <v>32.6</v>
+        <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>197</v>
@@ -3202,7 +3231,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>197</v>
@@ -3210,24 +3239,24 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B14" s="5">
-        <v>61.9</v>
+        <v>93.6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D14" s="5">
-        <v>35.299999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8">
-        <v>45</v>
+      <c r="H14" s="5">
+        <v>100</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>197</v>
@@ -3235,24 +3264,24 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B15" s="5">
-        <v>14.8</v>
+        <v>61.9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D15" s="5">
-        <v>80</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>197</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="5">
-        <v>100</v>
+      <c r="H15" s="8">
+        <v>45</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>197</v>
@@ -3260,24 +3289,24 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="B16" s="5">
-        <v>48.5</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D16" s="5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>197</v>
@@ -3285,24 +3314,24 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="B17" s="5">
-        <v>61</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>48.5</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="24">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="5"/>
+      <c r="D17" s="5">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>197</v>
@@ -3310,24 +3339,24 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="16">
-        <v>16.7</v>
+        <v>231</v>
+      </c>
+      <c r="B18" s="5">
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="16">
-        <v>85</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="D18" s="24">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5">
+        <v>50</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>197</v>
@@ -3335,16 +3364,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="B19" s="16">
-        <v>14.8</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D19" s="16">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>197</v>
@@ -3352,7 +3381,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>197</v>
@@ -3360,24 +3389,24 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="B20" s="16">
-        <v>61.9</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D20" s="16">
-        <v>35.299999999999997</v>
+        <v>80</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>197</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="17">
-        <v>45</v>
+      <c r="H20" s="16">
+        <v>100</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>197</v>
@@ -3385,24 +3414,24 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="B21" s="16">
-        <v>30</v>
+        <v>61.9</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="19">
-        <v>39.4</v>
+      <c r="D21" s="16">
+        <v>35.299999999999997</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>197</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="16">
-        <v>40</v>
+      <c r="H21" s="17">
+        <v>45</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>197</v>
@@ -3410,16 +3439,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="16">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D22" s="19">
-        <v>51.7</v>
+        <v>39.4</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>197</v>
@@ -3427,7 +3456,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>197</v>
@@ -3435,7 +3464,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23" s="16">
         <v>87</v>
@@ -3452,7 +3481,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>197</v>
@@ -3460,16 +3489,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="18">
-        <v>55</v>
+        <v>192</v>
+      </c>
+      <c r="B24" s="16">
+        <v>87</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="16">
-        <v>54.1</v>
+      <c r="D24" s="19">
+        <v>51.7</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>197</v>
@@ -3477,7 +3506,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>197</v>
@@ -3485,24 +3514,24 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="16">
-        <v>30</v>
+        <v>116</v>
+      </c>
+      <c r="B25" s="18">
+        <v>87</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D25" s="16">
-        <v>42.47</v>
+        <v>54.1</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>197</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="17">
-        <v>55</v>
+      <c r="H25" s="16">
+        <v>30</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>197</v>
@@ -3510,24 +3539,24 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D26" s="16">
-        <v>20</v>
+        <v>42.47</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>197</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="16">
-        <v>30</v>
+      <c r="H26" s="17">
+        <v>55</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>197</v>
@@ -3535,16 +3564,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="16">
-        <v>48.5</v>
+        <v>23.2</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D27" s="16">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>197</v>
@@ -3560,24 +3589,24 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="5">
-        <v>16.7</v>
+        <v>119</v>
+      </c>
+      <c r="B28" s="16">
+        <v>48.5</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="8">
-        <v>85</v>
+      <c r="D28" s="16">
+        <v>50</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8">
-        <v>15</v>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16">
+        <v>30</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>197</v>
@@ -3585,24 +3614,24 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="5">
-        <v>61.9</v>
+        <v>50</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="5">
-        <v>35.299999999999997</v>
+      <c r="D29" s="8">
+        <v>85</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>197</v>
@@ -3610,24 +3639,24 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="9">
-        <v>55</v>
+        <v>129</v>
+      </c>
+      <c r="B30" s="5">
+        <v>61.9</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="8">
-        <v>54.1</v>
+      <c r="D30" s="5">
+        <v>35.299999999999997</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>197</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="5">
-        <v>30</v>
+      <c r="H30" s="8">
+        <v>45</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>197</v>
@@ -3635,10 +3664,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="5">
-        <v>55</v>
+        <v>174</v>
+      </c>
+      <c r="B31" s="9">
+        <v>87</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>197</v>
@@ -3651,8 +3680,8 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8">
-        <v>55</v>
+      <c r="H31" s="5">
+        <v>30</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>197</v>
@@ -3660,16 +3689,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="5">
-        <v>20</v>
+      <c r="D32" s="8">
+        <v>54.1</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>197</v>
@@ -3677,7 +3706,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>197</v>
@@ -3685,16 +3714,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="B33" s="5">
-        <v>46</v>
+        <v>23.2</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D33" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>197</v>
@@ -3705,6 +3734,31 @@
         <v>30</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="5">
+        <v>46</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="5">
+        <v>50</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8">
+        <v>30</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3716,10 +3770,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4032,35 +4086,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="5">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-2.67</v>
-      </c>
+      <c r="E12" s="9">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
+      <c r="H12" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4068,218 +4118,220 @@
         <v>197</v>
       </c>
       <c r="E13" s="5">
-        <v>119</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-2.67</v>
+      </c>
       <c r="G13" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="5">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I13" s="5"/>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
       <c r="J13" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="6">
-        <v>123</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5">
+        <v>119</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="21">
-        <v>1.39</v>
-      </c>
-      <c r="I14" s="21"/>
+      <c r="H14" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E15" s="6">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="10" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H15" s="21">
-        <v>2.78</v>
+        <v>1.39</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="10" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E16" s="6">
-        <v>108</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-2.65</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="10" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0</v>
-      </c>
+        <v>2.78</v>
+      </c>
+      <c r="I16" s="21"/>
       <c r="J16" s="10" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E17" s="6">
-        <v>123</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-2.65</v>
+      </c>
       <c r="G17" s="10" t="s">
         <v>197</v>
       </c>
       <c r="H17" s="21">
-        <v>1.39</v>
-      </c>
-      <c r="I17" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
       <c r="J17" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1544</v>
-      </c>
-      <c r="C18" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="17">
-        <v>38.6</v>
-      </c>
-      <c r="F18" s="17"/>
+      <c r="E18" s="6">
+        <v>123</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17"/>
+      <c r="H18" s="21">
+        <v>1.39</v>
+      </c>
+      <c r="I18" s="21"/>
       <c r="J18" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="B19" s="17">
-        <v>4300</v>
+        <v>1544</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="5" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E19" s="17">
-        <v>3</v>
+        <v>38.6</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="10" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H19" s="17">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="10" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="B20" s="17">
-        <v>4348</v>
+        <v>4300</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E20" s="17">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="10" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="H20" s="17">
-        <v>1.39</v>
+        <v>2.78</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="10" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="B21" s="17">
-        <v>3603</v>
+        <v>4348</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E21" s="17">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="10" t="s">
         <v>197</v>
       </c>
       <c r="H21" s="17">
-        <v>1.1100000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="10" t="s">
@@ -4288,24 +4340,24 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="17">
-        <v>1044</v>
+        <v>3603</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E22" s="17">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="10" t="s">
         <v>197</v>
       </c>
       <c r="H22" s="17">
-        <v>0.55600000000000005</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="10" t="s">
@@ -4314,7 +4366,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23" s="17">
         <v>1044</v>
@@ -4340,19 +4392,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="20">
+        <v>192</v>
+      </c>
+      <c r="B24" s="17">
         <v>1044</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="17">
         <v>13</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="10" t="s">
         <v>197</v>
       </c>
@@ -4366,24 +4418,24 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="17">
-        <v>943</v>
-      </c>
-      <c r="C25" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="B25" s="20">
+        <v>1044</v>
+      </c>
+      <c r="C25" s="20"/>
       <c r="D25" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E25" s="17">
-        <v>11</v>
-      </c>
-      <c r="F25" s="17"/>
+      <c r="E25" s="22">
+        <v>13</v>
+      </c>
+      <c r="F25" s="22"/>
       <c r="G25" s="10" t="s">
         <v>197</v>
       </c>
       <c r="H25" s="17">
-        <v>1.1100000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="10" t="s">
@@ -4392,60 +4444,48 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="17">
-        <v>1600</v>
-      </c>
-      <c r="C26" s="17">
-        <v>-2.6</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E26" s="17">
-        <v>19</v>
-      </c>
-      <c r="F26" s="5">
-        <v>-2.67</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="10" t="s">
         <v>197</v>
       </c>
       <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I26" s="17"/>
       <c r="J26" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="K26">
-        <v>0.08</v>
-      </c>
-      <c r="L26" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="17">
-        <v>4443</v>
+        <v>1600</v>
       </c>
       <c r="C27" s="17">
-        <v>-2.75</v>
+        <v>-2.6</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E27" s="17">
-        <v>130</v>
-      </c>
-      <c r="F27" s="17">
-        <v>-2.65</v>
+        <v>19</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-2.67</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>197</v>
@@ -4468,76 +4508,88 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1544</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B28" s="17">
+        <v>4443</v>
+      </c>
+      <c r="C28" s="17">
+        <v>-2.75</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="6">
-        <v>38.6</v>
-      </c>
-      <c r="F28" s="6"/>
+      <c r="E28" s="17">
+        <v>130</v>
+      </c>
+      <c r="F28" s="17">
+        <v>-2.65</v>
+      </c>
       <c r="G28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="21"/>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
       <c r="J28" s="10" t="s">
         <v>197</v>
+      </c>
+      <c r="K28">
+        <v>0.08</v>
+      </c>
+      <c r="L28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="17">
-        <v>4348</v>
-      </c>
-      <c r="C29" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1544</v>
+      </c>
+      <c r="C29" s="6"/>
       <c r="D29" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="17">
-        <v>123</v>
-      </c>
-      <c r="F29" s="17"/>
+      <c r="E29" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H29" s="17">
-        <v>1.39</v>
-      </c>
-      <c r="I29" s="17"/>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21"/>
       <c r="J29" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="20">
-        <v>1044</v>
-      </c>
-      <c r="C30" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="B30" s="17">
+        <v>4348</v>
+      </c>
+      <c r="C30" s="17"/>
       <c r="D30" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="22">
-        <v>13</v>
-      </c>
-      <c r="F30" s="22"/>
+      <c r="E30" s="17">
+        <v>123</v>
+      </c>
+      <c r="F30" s="17"/>
       <c r="G30" s="10" t="s">
         <v>197</v>
       </c>
       <c r="H30" s="17">
-        <v>0.55600000000000005</v>
+        <v>1.39</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="10" t="s">
@@ -4546,24 +4598,24 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="17">
-        <v>943</v>
-      </c>
-      <c r="C31" s="17"/>
+        <v>174</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1044</v>
+      </c>
+      <c r="C31" s="20"/>
       <c r="D31" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="17">
-        <v>11</v>
-      </c>
-      <c r="F31" s="17"/>
+      <c r="E31" s="22">
+        <v>13</v>
+      </c>
+      <c r="F31" s="22"/>
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
       <c r="H31" s="17">
-        <v>1.1100000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="10" t="s">
@@ -4572,60 +4624,48 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="6">
-        <v>2052</v>
-      </c>
-      <c r="C32" s="6">
-        <v>-2.96</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B32" s="17">
+        <v>943</v>
+      </c>
+      <c r="C32" s="17"/>
       <c r="D32" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="6">
-        <v>18</v>
-      </c>
-      <c r="F32" s="6">
-        <v>-3.37</v>
-      </c>
+      <c r="E32" s="17">
+        <v>11</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
+      <c r="H32" s="17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I32" s="17"/>
       <c r="J32" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="K32">
-        <v>0.08</v>
-      </c>
-      <c r="L32" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="B33" s="6">
-        <v>6598</v>
+        <v>2052</v>
       </c>
       <c r="C33" s="6">
-        <v>-4.12</v>
+        <v>-2.96</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E33" s="6">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F33" s="6">
-        <v>-2.67</v>
+        <v>-3.37</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>197</v>
@@ -4647,11 +4687,49 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="A34" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="6">
+        <v>6598</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-4.12</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="6">
+        <v>108</v>
+      </c>
+      <c r="F34" s="6">
+        <v>-2.67</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34">
+        <v>0.08</v>
+      </c>
+      <c r="L34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4661,10 +4739,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4754,7 +4832,9 @@
       <c r="C3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -4766,7 +4846,9 @@
       <c r="C4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4778,7 +4860,9 @@
       <c r="C5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -4790,7 +4874,9 @@
       <c r="C6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -4802,7 +4888,9 @@
       <c r="C7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -4814,7 +4902,9 @@
       <c r="C8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -4822,7 +4912,9 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -4830,7 +4922,9 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="H10" s="33"/>
+      <c r="H10" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -4840,51 +4934,59 @@
         <v>1</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="H11" s="33"/>
+      <c r="H11" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="H12" s="33"/>
+      <c r="H12" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="H13" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="H14" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="H15" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4892,11 +4994,13 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -4904,46 +5008,44 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="33"/>
+      <c r="H17" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>132</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="19">
-        <v>0.93</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>132</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="33"/>
+      <c r="H19" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="B20" s="19">
-        <v>0.93</v>
+        <v>0.01</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>132</v>
@@ -4952,119 +5054,179 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="16">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+        <v>190</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+        <v>192</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="33"/>
+      <c r="H23" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="19">
-        <v>20000</v>
-      </c>
+      <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="33"/>
+      <c r="H24" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>5200</v>
       </c>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" s="33"/>
+      <c r="H27" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="H28" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="33"/>
+        <v>129</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30">
-        <v>20000</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="H30" s="33"/>
+        <v>174</v>
+      </c>
+      <c r="H30" s="33">
+        <v>2020</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32">
+        <v>20000</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="H32" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>10000</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H33" s="33">
+        <v>2020</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5074,10 +5236,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5223,7 +5385,7 @@
         <v>111</v>
       </c>
       <c r="B11">
-        <v>8596</v>
+        <v>5769</v>
       </c>
       <c r="C11">
         <v>1995</v>
@@ -5248,85 +5410,99 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="B13">
-        <v>392.5</v>
+        <v>4245</v>
       </c>
       <c r="C13">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>392.5</v>
       </c>
       <c r="C14">
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="B15">
-        <v>3568</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16">
-        <v>1475</v>
+        <v>3568</v>
       </c>
       <c r="C16">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B17">
-        <v>3241</v>
+        <v>1475</v>
       </c>
       <c r="C17">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18">
+        <v>3241</v>
+      </c>
+      <c r="C18">
+        <v>1970</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>231</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>578</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2015</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5585,7 +5761,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5613,7 +5789,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -5625,8 +5801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5784,7 +5960,7 @@
         <v>171</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.5151613927753579E-2</v>
       </c>
       <c r="E9" t="s">
         <v>145</v>
@@ -5801,7 +5977,7 @@
         <v>172</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.51710729986794368</v>
       </c>
       <c r="E10" t="s">
         <v>145</v>
@@ -5818,7 +5994,7 @@
         <v>173</v>
       </c>
       <c r="D11">
-        <v>0.77007469706240006</v>
+        <v>1.4080047807699383</v>
       </c>
       <c r="E11" t="s">
         <v>145</v>
@@ -5835,7 +6011,7 @@
         <v>48</v>
       </c>
       <c r="D12">
-        <v>1.281333465104</v>
+        <v>2.3170650920214642</v>
       </c>
       <c r="E12" t="s">
         <v>145</v>
@@ -5852,7 +6028,7 @@
         <v>49</v>
       </c>
       <c r="D13">
-        <v>2.3646544747520002</v>
+        <v>2.9657135215552537</v>
       </c>
       <c r="E13" t="s">
         <v>145</v>
@@ -5869,7 +6045,7 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>3.0280632685280002</v>
+        <v>3.3662870467880248</v>
       </c>
       <c r="E14" t="s">
         <v>145</v>
@@ -5886,7 +6062,7 @@
         <v>51</v>
       </c>
       <c r="D15">
-        <v>3.0209459722159995</v>
+        <v>3.5088012971599545</v>
       </c>
       <c r="E15" t="s">
         <v>145</v>
@@ -5903,7 +6079,7 @@
         <v>52</v>
       </c>
       <c r="D16">
-        <v>2.795326114032</v>
+        <v>3.4843814252043517</v>
       </c>
       <c r="E16" t="s">
         <v>145</v>
@@ -5920,7 +6096,7 @@
         <v>53</v>
       </c>
       <c r="D17">
-        <v>2.2633913706480002</v>
+        <v>3.3241196529762793</v>
       </c>
       <c r="E17" t="s">
         <v>145</v>
@@ -5937,7 +6113,7 @@
         <v>54</v>
       </c>
       <c r="D18">
-        <v>1.8486804048160002</v>
+        <v>2.9143805058255179</v>
       </c>
       <c r="E18" t="s">
         <v>145</v>
@@ -5954,7 +6130,7 @@
         <v>55</v>
       </c>
       <c r="D19">
-        <v>1.2956684382880002</v>
+        <v>2.2592273038797788</v>
       </c>
       <c r="E19" t="s">
         <v>145</v>
@@ -5971,7 +6147,7 @@
         <v>56</v>
       </c>
       <c r="D20">
-        <v>0.53186179455679994</v>
+        <v>1.4246780502482324</v>
       </c>
       <c r="E20" t="s">
         <v>145</v>
@@ -5988,7 +6164,7 @@
         <v>57</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.52272896711966943</v>
       </c>
       <c r="E21" t="s">
         <v>145</v>
@@ -6005,7 +6181,7 @@
         <v>58</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5.9752854253380804E-2</v>
       </c>
       <c r="E22" t="s">
         <v>145</v>
@@ -6192,7 +6368,7 @@
         <v>171</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.17960986159169545</v>
       </c>
       <c r="E33" t="s">
         <v>145</v>
@@ -6209,7 +6385,7 @@
         <v>172</v>
       </c>
       <c r="D34">
-        <v>6.8030477198099994E-3</v>
+        <v>0.96234111880046114</v>
       </c>
       <c r="E34" t="s">
         <v>145</v>
@@ -6226,7 +6402,7 @@
         <v>173</v>
       </c>
       <c r="D35">
-        <v>0.62784163046800001</v>
+        <v>2.0715934256055348</v>
       </c>
       <c r="E35" t="s">
         <v>145</v>
@@ -6243,7 +6419,7 @@
         <v>48</v>
       </c>
       <c r="D36">
-        <v>1.5458351067</v>
+        <v>3.0472691272587453</v>
       </c>
       <c r="E36" t="s">
         <v>145</v>
@@ -6260,7 +6436,7 @@
         <v>49</v>
       </c>
       <c r="D37">
-        <v>2.4637406089799998</v>
+        <v>3.7972426951172618</v>
       </c>
       <c r="E37" t="s">
         <v>145</v>
@@ -6277,7 +6453,7 @@
         <v>50</v>
       </c>
       <c r="D38">
-        <v>3.00512030807</v>
+        <v>4.2245385428681281</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
@@ -6294,7 +6470,7 @@
         <v>51</v>
       </c>
       <c r="D39">
-        <v>3.5308931214800006</v>
+        <v>4.3589632833525549</v>
       </c>
       <c r="E39" t="s">
         <v>145</v>
@@ -6311,7 +6487,7 @@
         <v>52</v>
       </c>
       <c r="D40">
-        <v>3.69605507635</v>
+        <v>4.2665792003075742</v>
       </c>
       <c r="E40" t="s">
         <v>145</v>
@@ -6328,7 +6504,7 @@
         <v>53</v>
       </c>
       <c r="D41">
-        <v>3.3774587455400007</v>
+        <v>4.1128616878123783</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
@@ -6345,7 +6521,7 @@
         <v>54</v>
       </c>
       <c r="D42">
-        <v>2.7769065497900001</v>
+        <v>3.7373002691272581</v>
       </c>
       <c r="E42" t="s">
         <v>145</v>
@@ -6362,7 +6538,7 @@
         <v>55</v>
       </c>
       <c r="D43">
-        <v>1.9586883649700004</v>
+        <v>3.016870049980775</v>
       </c>
       <c r="E43" t="s">
         <v>145</v>
@@ -6379,7 +6555,7 @@
         <v>56</v>
       </c>
       <c r="D44">
-        <v>1.0106574399199999</v>
+        <v>2.1133196847366391</v>
       </c>
       <c r="E44" t="s">
         <v>145</v>
@@ -6396,7 +6572,7 @@
         <v>57</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1.0572132833525567</v>
       </c>
       <c r="E45" t="s">
         <v>145</v>
@@ -6413,7 +6589,7 @@
         <v>58</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.24639331026528258</v>
       </c>
       <c r="E46" t="s">
         <v>145</v>
@@ -6430,7 +6606,7 @@
         <v>59</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>4.8337178008458275E-3</v>
       </c>
       <c r="E47" t="s">
         <v>145</v>
@@ -6583,7 +6759,7 @@
         <v>170</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1.1826555003928239E-3</v>
       </c>
       <c r="E56" t="s">
         <v>145</v>
@@ -6600,7 +6776,7 @@
         <v>171</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.1545210872072614</v>
       </c>
       <c r="E57" t="s">
         <v>145</v>
@@ -6617,7 +6793,7 @@
         <v>172</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.88859744579843858</v>
       </c>
       <c r="E58" t="s">
         <v>145</v>
@@ -6634,7 +6810,7 @@
         <v>173</v>
       </c>
       <c r="D59">
-        <v>0.77007469706240006</v>
+        <v>1.8354981361683627</v>
       </c>
       <c r="E59" t="s">
         <v>145</v>
@@ -6651,7 +6827,7 @@
         <v>48</v>
       </c>
       <c r="D60">
-        <v>1.281333465104</v>
+        <v>2.5212421643849341</v>
       </c>
       <c r="E60" t="s">
         <v>145</v>
@@ -6668,7 +6844,7 @@
         <v>49</v>
       </c>
       <c r="D61">
-        <v>2.3646544747520002</v>
+        <v>2.8966652458084687</v>
       </c>
       <c r="E61" t="s">
         <v>145</v>
@@ -6685,7 +6861,7 @@
         <v>50</v>
       </c>
       <c r="D62">
-        <v>3.0280632685280002</v>
+        <v>3.0148905103388319</v>
       </c>
       <c r="E62" t="s">
         <v>145</v>
@@ -6702,7 +6878,7 @@
         <v>51</v>
       </c>
       <c r="D63">
-        <v>3.0209459722159995</v>
+        <v>2.9434981528843425</v>
       </c>
       <c r="E63" t="s">
         <v>145</v>
@@ -6719,7 +6895,7 @@
         <v>52</v>
       </c>
       <c r="D64">
-        <v>2.795326114032</v>
+        <v>2.6605802116242914</v>
       </c>
       <c r="E64" t="s">
         <v>145</v>
@@ -6736,7 +6912,7 @@
         <v>53</v>
       </c>
       <c r="D65">
-        <v>2.2633913706480002</v>
+        <v>2.1344238837905145</v>
       </c>
       <c r="E65" t="s">
         <v>145</v>
@@ -6753,7 +6929,7 @@
         <v>54</v>
       </c>
       <c r="D66">
-        <v>1.8486804048160002</v>
+        <v>1.4184653059859922</v>
       </c>
       <c r="E66" t="s">
         <v>145</v>
@@ -6770,7 +6946,7 @@
         <v>55</v>
       </c>
       <c r="D67">
-        <v>1.2956684382880002</v>
+        <v>0.57336241913645269</v>
       </c>
       <c r="E67" t="s">
         <v>145</v>
@@ -6787,7 +6963,7 @@
         <v>56</v>
       </c>
       <c r="D68">
-        <v>0.53186179455679994</v>
+        <v>8.9903298062618056E-2</v>
       </c>
       <c r="E68" t="s">
         <v>145</v>
@@ -6804,7 +6980,7 @@
         <v>57</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2.9137622653494467E-3</v>
       </c>
       <c r="E69" t="s">
         <v>145</v>
@@ -7025,7 +7201,7 @@
         <v>172</v>
       </c>
       <c r="D82">
-        <v>3.4015238599049997E-3</v>
+        <v>0.15447689350249896</v>
       </c>
       <c r="E82" t="s">
         <v>145</v>
@@ -7042,7 +7218,7 @@
         <v>173</v>
       </c>
       <c r="D83">
-        <v>0.31392081523400001</v>
+        <v>0.98771159810329334</v>
       </c>
       <c r="E83" t="s">
         <v>145</v>
@@ -7059,7 +7235,7 @@
         <v>48</v>
       </c>
       <c r="D84">
-        <v>0.77291755335000001</v>
+        <v>1.9578785595283872</v>
       </c>
       <c r="E84" t="s">
         <v>145</v>
@@ -7076,7 +7252,7 @@
         <v>49</v>
       </c>
       <c r="D85">
-        <v>1.2318703044899999</v>
+        <v>2.5197013456362933</v>
       </c>
       <c r="E85" t="s">
         <v>145</v>
@@ -7093,7 +7269,7 @@
         <v>50</v>
       </c>
       <c r="D86">
-        <v>1.502560154035</v>
+        <v>2.742158349352811</v>
       </c>
       <c r="E86" t="s">
         <v>145</v>
@@ -7110,7 +7286,7 @@
         <v>51</v>
       </c>
       <c r="D87">
-        <v>1.7654465607399998</v>
+        <v>2.71040799692426</v>
       </c>
       <c r="E87" t="s">
         <v>145</v>
@@ -7127,7 +7303,7 @@
         <v>52</v>
       </c>
       <c r="D88">
-        <v>1.848027538175</v>
+        <v>2.5016416250160196</v>
       </c>
       <c r="E88" t="s">
         <v>145</v>
@@ -7144,7 +7320,7 @@
         <v>53</v>
       </c>
       <c r="D89">
-        <v>1.6887293727699997</v>
+        <v>1.9596483403819043</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
@@ -7161,7 +7337,7 @@
         <v>54</v>
       </c>
       <c r="D90">
-        <v>1.388453274895</v>
+        <v>1.1472564910931693</v>
       </c>
       <c r="E90" t="s">
         <v>145</v>
@@ -7178,7 +7354,7 @@
         <v>55</v>
       </c>
       <c r="D91">
-        <v>0.97934418248499999</v>
+        <v>0.31937275406894788</v>
       </c>
       <c r="E91" t="s">
         <v>145</v>
@@ -7195,7 +7371,7 @@
         <v>56</v>
       </c>
       <c r="D92">
-        <v>0.50532871995999995</v>
+        <v>1.0062283737024223E-2</v>
       </c>
       <c r="E92" t="s">
         <v>145</v>
@@ -7433,7 +7609,7 @@
         <v>172</v>
       </c>
       <c r="D106">
-        <v>9.0707302930800003E-4</v>
+        <v>2.5746148917083163E-2</v>
       </c>
       <c r="E106" t="s">
         <v>145</v>
@@ -7450,7 +7626,7 @@
         <v>173</v>
       </c>
       <c r="D107">
-        <v>8.371221739573334E-2</v>
+        <v>0.16461859968388226</v>
       </c>
       <c r="E107" t="s">
         <v>145</v>
@@ -7467,7 +7643,7 @@
         <v>48</v>
       </c>
       <c r="D108">
-        <v>0.20611134755999999</v>
+        <v>0.32631309325473123</v>
       </c>
       <c r="E108" t="s">
         <v>145</v>
@@ -7484,7 +7660,7 @@
         <v>49</v>
       </c>
       <c r="D109">
-        <v>0.32849874786399996</v>
+        <v>0.41995022427271556</v>
       </c>
       <c r="E109" t="s">
         <v>145</v>
@@ -7501,7 +7677,7 @@
         <v>50</v>
       </c>
       <c r="D110">
-        <v>0.40068270774266662</v>
+        <v>0.45702639155880187</v>
       </c>
       <c r="E110" t="s">
         <v>145</v>
@@ -7518,7 +7694,7 @@
         <v>51</v>
       </c>
       <c r="D111">
-        <v>0.47078574953066671</v>
+        <v>0.4517346661540434</v>
       </c>
       <c r="E111" t="s">
         <v>145</v>
@@ -7535,7 +7711,7 @@
         <v>52</v>
       </c>
       <c r="D112">
-        <v>0.49280734351333333</v>
+        <v>0.41694027083600327</v>
       </c>
       <c r="E112" t="s">
         <v>145</v>
@@ -7552,7 +7728,7 @@
         <v>53</v>
       </c>
       <c r="D113">
-        <v>0.45032783273866656</v>
+        <v>0.3266080567303174</v>
       </c>
       <c r="E113" t="s">
         <v>145</v>
@@ -7569,7 +7745,7 @@
         <v>54</v>
       </c>
       <c r="D114">
-        <v>0.37025420663866665</v>
+        <v>0.19120941518219492</v>
       </c>
       <c r="E114" t="s">
         <v>145</v>
@@ -7586,7 +7762,7 @@
         <v>55</v>
       </c>
       <c r="D115">
-        <v>0.26115844866266669</v>
+        <v>5.3228792344824652E-2</v>
       </c>
       <c r="E115" t="s">
         <v>145</v>
@@ -7603,7 +7779,7 @@
         <v>56</v>
       </c>
       <c r="D116">
-        <v>0.13475432532266665</v>
+        <v>1.6770472895040374E-3</v>
       </c>
       <c r="E116" t="s">
         <v>145</v>
@@ -7824,7 +8000,7 @@
         <v>171</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>6.2472995336241899E-2</v>
       </c>
       <c r="E129" t="s">
         <v>145</v>
@@ -7841,7 +8017,7 @@
         <v>172</v>
       </c>
       <c r="D130">
-        <v>3.4015238599049997E-3</v>
+        <v>0.33472734566972567</v>
       </c>
       <c r="E130" t="s">
         <v>145</v>
@@ -7858,7 +8034,7 @@
         <v>173</v>
       </c>
       <c r="D131">
-        <v>0.31392081523400001</v>
+        <v>0.72055423499322968</v>
       </c>
       <c r="E131" t="s">
         <v>145</v>
@@ -7875,7 +8051,7 @@
         <v>48</v>
       </c>
       <c r="D132">
-        <v>0.77291755335000001</v>
+        <v>1.0599196964378246</v>
       </c>
       <c r="E132" t="s">
         <v>145</v>
@@ -7892,7 +8068,7 @@
         <v>49</v>
       </c>
       <c r="D133">
-        <v>1.2318703044899997</v>
+        <v>1.320780067866874</v>
       </c>
       <c r="E133" t="s">
         <v>145</v>
@@ -7909,7 +8085,7 @@
         <v>50</v>
       </c>
       <c r="D134">
-        <v>1.502560154035</v>
+        <v>1.4694047105628272</v>
       </c>
       <c r="E134" t="s">
         <v>145</v>
@@ -7926,7 +8102,7 @@
         <v>51</v>
       </c>
       <c r="D135">
-        <v>1.7654465607400003</v>
+        <v>1.5161611420356715</v>
       </c>
       <c r="E135" t="s">
         <v>145</v>
@@ -7943,7 +8119,7 @@
         <v>52</v>
       </c>
       <c r="D136">
-        <v>1.848027538175</v>
+        <v>1.4840275479330696</v>
       </c>
       <c r="E136" t="s">
         <v>145</v>
@@ -7960,7 +8136,7 @@
         <v>53</v>
       </c>
       <c r="D137">
-        <v>1.6887293727699997</v>
+        <v>1.4305605870651752</v>
       </c>
       <c r="E137" t="s">
         <v>145</v>
@@ -7977,7 +8153,7 @@
         <v>54</v>
       </c>
       <c r="D138">
-        <v>1.3884532748949998</v>
+        <v>1.2999305283920899</v>
       </c>
       <c r="E138" t="s">
         <v>145</v>
@@ -7994,7 +8170,7 @@
         <v>55</v>
       </c>
       <c r="D139">
-        <v>0.97934418248500021</v>
+        <v>1.0493461043411392</v>
       </c>
       <c r="E139" t="s">
         <v>145</v>
@@ -8011,7 +8187,7 @@
         <v>56</v>
       </c>
       <c r="D140">
-        <v>0.50532871995999984</v>
+        <v>0.73506771643013546</v>
       </c>
       <c r="E140" t="s">
         <v>145</v>
@@ -8028,7 +8204,7 @@
         <v>57</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.36772635942697635</v>
       </c>
       <c r="E141" t="s">
         <v>145</v>
@@ -8045,7 +8221,7 @@
         <v>58</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>8.5702020961837433E-2</v>
       </c>
       <c r="E142" t="s">
         <v>145</v>
@@ -8062,7 +8238,7 @@
         <v>59</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1.6812931481202881E-3</v>
       </c>
       <c r="E143" t="s">
         <v>145</v>
@@ -10911,7 +11087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11880,8 +12056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11923,7 +12099,7 @@
         <v>2018</v>
       </c>
       <c r="B3" s="15">
-        <v>343.8</v>
+        <v>316.3</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>84</v>
@@ -12040,7 +12216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28912B5-8590-412C-8145-960D60FAEF13}">
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7974FC21-73F1-BD47-BB76-2BEFCE52E2B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5072C6-5100-B94E-B8C0-014BAABF2B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="941" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20500" tabRatio="941" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1694,9 +1694,6 @@
       </c>
       <c r="C7">
         <v>1</v>
-      </c>
-      <c r="E7">
-        <v>63.3</v>
       </c>
       <c r="H7">
         <v>50.3</v>
@@ -3847,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9981,7 +9978,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5072C6-5100-B94E-B8C0-014BAABF2B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7CF60A-BB55-9642-B537-01C3D6FEBA7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20500" tabRatio="941" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="941" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="241">
   <si>
     <t>connection</t>
   </si>
@@ -754,10 +754,13 @@
     <t>Ref_MinCapacity</t>
   </si>
   <si>
-    <t>EX_NG_GT_ST</t>
-  </si>
-  <si>
     <t>EX_OIL</t>
+  </si>
+  <si>
+    <t>EX_NG_CT</t>
+  </si>
+  <si>
+    <t>Dominion GT + ST</t>
   </si>
 </sst>
 </file>
@@ -876,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -914,6 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1476,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1608,8 +1612,8 @@
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" s="25">
+        <v>2.86</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1740,8 +1744,11 @@
       <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10">
-        <v>1.94</v>
+      <c r="B10" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>50</v>
@@ -1807,7 +1814,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1916,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>174</v>
@@ -1987,7 +1994,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>175</v>
@@ -2491,7 +2498,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2582,7 +2589,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>183</v>
@@ -2590,7 +2597,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="32">
         <v>85</v>
@@ -2607,7 +2614,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="6">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>183</v>
@@ -2657,7 +2664,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>183</v>
@@ -2665,7 +2672,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" s="33">
         <v>30</v>
@@ -2682,7 +2689,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>183</v>
@@ -3124,7 +3131,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3174,10 +3181,10 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3212,10 +3219,10 @@
       <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3245,7 +3252,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3317,7 +3324,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3845,7 +3852,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3939,7 +3946,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="5">
         <v>0.67</v>
@@ -3971,7 +3978,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4057,7 +4064,9 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="37">
+        <v>300</v>
+      </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -4073,7 +4082,7 @@
         <v>0.01</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="18">
+      <c r="D15" s="25">
         <v>8000</v>
       </c>
       <c r="E15" s="18"/>
@@ -4087,7 +4096,9 @@
       <c r="A16" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="18">
+        <v>0.01</v>
+      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -4147,8 +4158,8 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="18">
-        <v>20000</v>
+      <c r="D20" s="25">
+        <v>40000</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -4161,7 +4172,7 @@
       <c r="A21" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="25">
         <v>5200</v>
       </c>
       <c r="H21" s="31">
@@ -4203,8 +4214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4250,7 +4261,7 @@
         <v>3780</v>
       </c>
       <c r="C3">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="D3" t="s">
         <v>199</v>
@@ -4258,13 +4269,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4">
         <v>2343</v>
       </c>
       <c r="C4">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="D4" t="s">
         <v>200</v>
@@ -4278,7 +4289,7 @@
         <v>866</v>
       </c>
       <c r="C5">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="D5" t="s">
         <v>195</v>
@@ -4292,7 +4303,7 @@
         <v>4695</v>
       </c>
       <c r="C6">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D6" t="s">
         <v>198</v>
@@ -4314,16 +4325,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B8">
         <v>5317</v>
       </c>
       <c r="C8">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4376,7 +4387,7 @@
         <v>892</v>
       </c>
       <c r="C12">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="D12" t="s">
         <v>194</v>
@@ -4390,7 +4401,7 @@
         <v>3241</v>
       </c>
       <c r="C13">
-        <v>1970</v>
+        <v>1985</v>
       </c>
       <c r="D13" t="s">
         <v>204</v>
@@ -9978,7 +9989,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10829,7 +10840,7 @@
         <v>2018</v>
       </c>
       <c r="B3" s="15">
-        <v>302.8</v>
+        <v>310.5</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>84</v>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7CF60A-BB55-9642-B537-01C3D6FEBA7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E126B-A1C4-490F-92A4-17EB364F0608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="941" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="241">
   <si>
     <t>connection</t>
   </si>
@@ -904,7 +904,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -918,6 +917,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1227,12 +1227,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1289,13 +1289,13 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1347,32 +1347,32 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1404,13 +1404,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -1478,31 +1478,33 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1548,14 +1550,20 @@
       <c r="O1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1601,18 +1609,24 @@
       <c r="O2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>2.86</v>
       </c>
       <c r="C3">
@@ -1629,7 +1643,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1652,7 +1666,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1666,7 +1680,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1689,7 +1703,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1712,7 +1726,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1726,7 +1740,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1740,11 +1754,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>0.6</v>
       </c>
       <c r="C10">
@@ -1771,12 +1785,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1790,7 +1804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1817,14 +1831,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1870,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1888,7 +1902,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -1914,7 +1928,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
@@ -1940,7 +1954,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -1966,7 +1980,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -1992,7 +2006,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>239</v>
       </c>
@@ -2018,7 +2032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -2044,7 +2058,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -2070,7 +2084,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -2096,7 +2110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -2125,7 +2139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>193</v>
       </c>
@@ -2151,7 +2165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>203</v>
       </c>
@@ -2180,7 +2194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>108</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>109</v>
       </c>
@@ -2235,7 +2249,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>176</v>
       </c>
@@ -2261,7 +2275,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>178</v>
       </c>
@@ -2287,7 +2301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>110</v>
       </c>
@@ -2313,7 +2327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>111</v>
       </c>
@@ -2339,7 +2353,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>112</v>
       </c>
@@ -2365,7 +2379,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>113</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -2420,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -2446,7 +2460,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>232</v>
       </c>
@@ -2501,18 +2515,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2541,7 +2555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2570,11 +2584,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>29.1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2595,11 +2609,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2620,11 +2634,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>23.3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2645,11 +2659,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>87</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2670,11 +2684,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2695,11 +2709,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>23.2</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2720,11 +2734,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>93.6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2745,11 +2759,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>61.9</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2770,11 +2784,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>50</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2795,11 +2809,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>48.5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -2820,11 +2834,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -2845,11 +2859,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -2870,11 +2884,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>61.9</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -2895,11 +2909,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -2920,11 +2934,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>87</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -2945,11 +2959,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>87</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2970,11 +2984,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2995,11 +3009,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <v>23.2</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3020,11 +3034,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>48.5</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3045,11 +3059,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -3070,11 +3084,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>23.2</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3095,11 +3109,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -3134,23 +3148,23 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3188,7 +3202,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3226,7 +3240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>103</v>
       </c>
@@ -3235,7 +3249,7 @@
       <c r="D3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>40</v>
       </c>
       <c r="F3" s="5"/>
@@ -3250,7 +3264,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
@@ -3259,7 +3273,7 @@
       <c r="D4" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>30.57</v>
       </c>
       <c r="F4" s="5"/>
@@ -3274,7 +3288,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>104</v>
       </c>
@@ -3283,7 +3297,7 @@
       <c r="D5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>42</v>
       </c>
       <c r="F5" s="11"/>
@@ -3298,7 +3312,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>105</v>
       </c>
@@ -3307,7 +3321,7 @@
       <c r="D6" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>13</v>
       </c>
       <c r="F6" s="9"/>
@@ -3322,7 +3336,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>239</v>
       </c>
@@ -3331,7 +3345,7 @@
       <c r="D7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>13</v>
       </c>
       <c r="F7" s="9"/>
@@ -3346,7 +3360,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>106</v>
       </c>
@@ -3355,7 +3369,7 @@
       <c r="D8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>19</v>
       </c>
       <c r="F8" s="5">
@@ -3374,7 +3388,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>186</v>
       </c>
@@ -3383,7 +3397,7 @@
       <c r="D9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>119</v>
       </c>
       <c r="F9" s="5"/>
@@ -3398,7 +3412,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>193</v>
       </c>
@@ -3407,7 +3421,7 @@
       <c r="D10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>123</v>
       </c>
       <c r="F10" s="6"/>
@@ -3422,7 +3436,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>202</v>
       </c>
@@ -3431,7 +3445,7 @@
       <c r="D11" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>3</v>
       </c>
       <c r="F11" s="6"/>
@@ -3446,7 +3460,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
@@ -3455,7 +3469,7 @@
       <c r="D12" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>108</v>
       </c>
       <c r="F12" s="6">
@@ -3474,18 +3488,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>1544</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>38.6</v>
       </c>
       <c r="F13" s="17"/>
@@ -3500,18 +3514,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>4300</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>3</v>
       </c>
       <c r="F14" s="17"/>
@@ -3526,18 +3540,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>4348</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>123</v>
       </c>
       <c r="F15" s="17"/>
@@ -3552,18 +3566,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>3603</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>40</v>
       </c>
       <c r="F16" s="17"/>
@@ -3578,18 +3592,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>1044</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>13</v>
       </c>
       <c r="F17" s="17"/>
@@ -3604,18 +3618,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>1044</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>13</v>
       </c>
       <c r="F18" s="21"/>
@@ -3630,18 +3644,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>943</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="34">
         <v>11</v>
       </c>
       <c r="F19" s="17"/>
@@ -3656,11 +3670,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <v>1600</v>
       </c>
       <c r="C20" s="17">
@@ -3669,7 +3683,7 @@
       <c r="D20" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="34">
         <v>19</v>
       </c>
       <c r="F20" s="5">
@@ -3694,11 +3708,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>4443</v>
       </c>
       <c r="C21" s="17">
@@ -3707,7 +3721,7 @@
       <c r="D21" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="34">
         <v>130</v>
       </c>
       <c r="F21" s="17">
@@ -3732,18 +3746,18 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>1544</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <v>38.6</v>
       </c>
       <c r="F22" s="6"/>
@@ -3758,11 +3772,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>2052</v>
       </c>
       <c r="C23" s="6">
@@ -3771,7 +3785,7 @@
       <c r="D23" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <v>18</v>
       </c>
       <c r="F23" s="6">
@@ -3796,11 +3810,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>6598</v>
       </c>
       <c r="C24" s="6">
@@ -3809,7 +3823,7 @@
       <c r="D24" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>108</v>
       </c>
       <c r="F24" s="6">
@@ -3834,7 +3848,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -3852,23 +3866,23 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3900,7 +3914,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3932,7 +3946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -3940,11 +3954,11 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
@@ -3952,51 +3966,51 @@
         <v>0.67</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -4004,11 +4018,11 @@
         <v>0.01</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="H9" s="31">
+      <c r="H9" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>193</v>
       </c>
@@ -4016,21 +4030,21 @@
         <v>0.01</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
@@ -4040,11 +4054,11 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="31">
+      <c r="H12" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>108</v>
       </c>
@@ -4054,27 +4068,27 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>203</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>300</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>109</v>
       </c>
@@ -4082,17 +4096,17 @@
         <v>0.01</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>8000</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>176</v>
       </c>
@@ -4104,11 +4118,11 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>178</v>
       </c>
@@ -4120,11 +4134,11 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="31">
+      <c r="H17" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>110</v>
       </c>
@@ -4134,11 +4148,11 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="31">
+      <c r="H18" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>111</v>
       </c>
@@ -4148,59 +4162,59 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="31">
+      <c r="H19" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>40000</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="31">
+      <c r="H20" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>5200</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="H23" s="31">
+      <c r="H23" s="30">
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <v>2020</v>
       </c>
     </row>
@@ -4214,18 +4228,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4239,7 +4253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4253,7 +4267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -4267,7 +4281,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -4281,7 +4295,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4295,7 +4309,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -4309,7 +4323,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4323,7 +4337,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -4337,7 +4351,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -4351,7 +4365,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -4365,7 +4379,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -4379,7 +4393,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -4393,7 +4407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -4421,14 +4435,14 @@
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4442,7 +4456,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4456,7 +4470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2025</v>
       </c>
@@ -4470,7 +4484,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2030</v>
       </c>
@@ -4484,7 +4498,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2035</v>
       </c>
@@ -4498,7 +4512,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2040</v>
       </c>
@@ -4512,7 +4526,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2045</v>
       </c>
@@ -4526,7 +4540,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2050</v>
       </c>
@@ -4540,63 +4554,63 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>2035</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>16100</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
         <v>2040</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>16100</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <v>2045</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>16100</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <v>2050</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>16100</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>2035</v>
       </c>
@@ -4610,7 +4624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2040</v>
       </c>
@@ -4624,7 +4638,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>2045</v>
       </c>
@@ -4638,7 +4652,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>2050</v>
       </c>
@@ -4665,14 +4679,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4680,7 +4694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -4688,7 +4702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.15</v>
       </c>
@@ -4706,15 +4720,15 @@
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4731,7 +4745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4748,7 +4762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -4765,7 +4779,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -4782,7 +4796,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -4799,7 +4813,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -4816,7 +4830,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -4833,7 +4847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -4850,7 +4864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -4867,7 +4881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -4884,7 +4898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -4901,7 +4915,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -4918,7 +4932,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -4935,7 +4949,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -4952,7 +4966,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -4969,7 +4983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -4986,7 +5000,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5003,7 +5017,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5020,7 +5034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5037,7 +5051,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5054,7 +5068,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5071,7 +5085,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -5088,7 +5102,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -5105,7 +5119,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -5122,7 +5136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -5139,7 +5153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -5156,7 +5170,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5173,7 +5187,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5190,7 +5204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5207,7 +5221,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -5224,7 +5238,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -5241,7 +5255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -5258,7 +5272,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -5275,7 +5289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -5292,7 +5306,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -5309,7 +5323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5326,7 +5340,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -5343,7 +5357,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -5360,7 +5374,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -5377,7 +5391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -5394,7 +5408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -5411,7 +5425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -5428,7 +5442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -5445,7 +5459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -5462,7 +5476,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -5479,7 +5493,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -5496,7 +5510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -5513,7 +5527,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -5530,7 +5544,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -5547,7 +5561,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -5564,7 +5578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -5581,7 +5595,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -5598,7 +5612,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -5615,7 +5629,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -5632,7 +5646,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -5649,7 +5663,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -5666,7 +5680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -5683,7 +5697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -5700,7 +5714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -5717,7 +5731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -5734,7 +5748,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -5751,7 +5765,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -5768,7 +5782,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -5785,7 +5799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -5802,7 +5816,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -5819,7 +5833,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -5836,7 +5850,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -5853,7 +5867,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -5870,7 +5884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -5887,7 +5901,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -5904,7 +5918,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -5921,7 +5935,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -5938,7 +5952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -5955,7 +5969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -5972,7 +5986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -5989,7 +6003,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6006,7 +6020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6023,7 +6037,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6040,7 +6054,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6057,7 +6071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6074,7 +6088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -6091,7 +6105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -6108,7 +6122,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -6125,7 +6139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6142,7 +6156,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -6159,7 +6173,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6176,7 +6190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -6193,7 +6207,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -6210,7 +6224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -6227,7 +6241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -6244,7 +6258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -6261,7 +6275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -6278,7 +6292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -6295,7 +6309,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6312,7 +6326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -6329,7 +6343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -6346,7 +6360,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -6363,7 +6377,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -6380,7 +6394,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -6397,7 +6411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -6414,7 +6428,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -6431,7 +6445,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -6448,7 +6462,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -6465,7 +6479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -6482,7 +6496,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -6499,7 +6513,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -6516,7 +6530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -6533,7 +6547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -6550,7 +6564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -6567,7 +6581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -6584,7 +6598,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -6601,7 +6615,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -6618,7 +6632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -6635,7 +6649,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -6652,7 +6666,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -6669,7 +6683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -6686,7 +6700,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -6703,7 +6717,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -6720,7 +6734,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -6737,7 +6751,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -6754,7 +6768,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -6771,7 +6785,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -6788,7 +6802,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -6805,7 +6819,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -6822,7 +6836,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -6839,7 +6853,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -6856,7 +6870,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -6873,7 +6887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -6890,7 +6904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -6907,7 +6921,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -6924,7 +6938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -6941,7 +6955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -6958,7 +6972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -6975,7 +6989,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -6992,7 +7006,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7009,7 +7023,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7026,7 +7040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7043,7 +7057,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7060,7 +7074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7077,7 +7091,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -7094,7 +7108,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -7111,7 +7125,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -7128,7 +7142,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -7145,7 +7159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -7162,7 +7176,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -7179,7 +7193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -7196,7 +7210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -7213,7 +7227,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -7230,7 +7244,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -7247,7 +7261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -7264,7 +7278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -7281,7 +7295,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -7298,7 +7312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -7315,7 +7329,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -7332,7 +7346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -7349,7 +7363,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -7366,7 +7380,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -7383,7 +7397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -7400,7 +7414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -7417,7 +7431,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -7434,7 +7448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -7451,7 +7465,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -7468,7 +7482,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -7485,7 +7499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -7502,7 +7516,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -7519,7 +7533,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -7536,7 +7550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -7553,7 +7567,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -7570,7 +7584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -7587,7 +7601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -7604,7 +7618,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -7621,7 +7635,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -7638,7 +7652,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -7655,7 +7669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -7672,7 +7686,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -7689,7 +7703,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -7706,7 +7720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -7723,7 +7737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -7740,7 +7754,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -7757,7 +7771,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -7774,7 +7788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -7791,7 +7805,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -7808,7 +7822,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -7825,7 +7839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -7842,7 +7856,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -7859,7 +7873,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -7876,7 +7890,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -7893,7 +7907,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -7910,7 +7924,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -7927,7 +7941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -7944,7 +7958,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -7961,7 +7975,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -7978,7 +7992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -7995,7 +8009,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8012,7 +8026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8029,7 +8043,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8046,7 +8060,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8063,7 +8077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -8080,7 +8094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -8097,7 +8111,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -8114,7 +8128,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -8131,7 +8145,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -8148,7 +8162,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -8165,7 +8179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -8182,7 +8196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -8199,7 +8213,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -8216,7 +8230,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -8233,7 +8247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -8250,7 +8264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -8267,7 +8281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -8284,7 +8298,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -8301,7 +8315,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -8318,7 +8332,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -8335,7 +8349,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -8352,7 +8366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -8369,7 +8383,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -8386,7 +8400,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -8403,7 +8417,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -8420,7 +8434,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -8437,7 +8451,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -8454,7 +8468,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -8471,7 +8485,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -8488,7 +8502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -8505,7 +8519,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -8522,7 +8536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -8539,7 +8553,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -8556,7 +8570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -8573,7 +8587,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -8590,7 +8604,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -8607,7 +8621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -8624,7 +8638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -8641,7 +8655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -8658,7 +8672,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -8675,7 +8689,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -8692,7 +8706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -8709,7 +8723,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -8726,7 +8740,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -8743,7 +8757,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -8760,7 +8774,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -8777,7 +8791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -8794,7 +8808,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -8811,7 +8825,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -8828,7 +8842,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -8845,7 +8859,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -8862,7 +8876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -8879,7 +8893,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -8896,7 +8910,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -8913,7 +8927,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -8930,7 +8944,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -8947,7 +8961,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -8964,7 +8978,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -8981,7 +8995,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -8998,7 +9012,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9015,7 +9029,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9032,7 +9046,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9049,7 +9063,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9066,7 +9080,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -9083,7 +9097,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -9100,7 +9114,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -9117,7 +9131,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -9134,7 +9148,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -9151,7 +9165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -9168,7 +9182,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -9185,7 +9199,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -9202,7 +9216,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -9219,7 +9233,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -9236,7 +9250,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -9253,7 +9267,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
@@ -9270,7 +9284,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
@@ -9287,7 +9301,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
@@ -9304,7 +9318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
@@ -9321,7 +9335,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
@@ -9338,7 +9352,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -9355,7 +9369,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
@@ -9372,7 +9386,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -9389,7 +9403,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
@@ -9406,7 +9420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
@@ -9423,7 +9437,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
@@ -9440,7 +9454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
@@ -9457,7 +9471,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
@@ -9474,7 +9488,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -9491,7 +9505,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
@@ -9508,7 +9522,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
@@ -9525,7 +9539,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
@@ -9542,7 +9556,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
@@ -9559,7 +9573,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
@@ -9576,7 +9590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
@@ -9593,7 +9607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
@@ -9610,7 +9624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -9627,7 +9641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
@@ -9658,24 +9672,24 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -9686,7 +9700,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -9697,7 +9711,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -9708,7 +9722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -9719,7 +9733,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -9730,7 +9744,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -9741,7 +9755,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -9765,12 +9779,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -9778,7 +9792,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -9786,7 +9800,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -9794,7 +9808,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -9802,7 +9816,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -9810,7 +9824,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -9818,7 +9832,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -9826,7 +9840,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -9834,7 +9848,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -9842,7 +9856,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -9850,7 +9864,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -9858,7 +9872,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -9866,7 +9880,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -9874,7 +9888,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -9882,7 +9896,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -9890,7 +9904,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -9898,7 +9912,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -9906,7 +9920,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -9914,7 +9928,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -9922,7 +9936,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -9930,7 +9944,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -9938,7 +9952,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -9946,7 +9960,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -9954,7 +9968,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -9962,7 +9976,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -9970,7 +9984,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -9988,28 +10002,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10043,10 +10057,10 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -10065,7 +10079,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10099,10 +10113,10 @@
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -10121,7 +10135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10168,7 +10182,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -10213,7 +10227,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -10260,7 +10274,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -10307,7 +10321,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -10347,7 +10361,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -10394,7 +10408,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -10441,7 +10455,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -10454,7 +10468,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>0.50697570000000003</v>
       </c>
       <c r="G10" s="2">
@@ -10482,7 +10496,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -10495,7 +10509,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>0.37906770000000001</v>
       </c>
       <c r="G11" s="2">
@@ -10522,7 +10536,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -10535,7 +10549,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>0.28218300000000002</v>
       </c>
       <c r="G12" s="2">
@@ -10562,7 +10576,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -10575,7 +10589,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -10603,7 +10617,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>230</v>
       </c>
@@ -10616,7 +10630,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -10643,7 +10657,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -10656,7 +10670,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <v>0</v>
       </c>
       <c r="G15" s="2">
@@ -10697,13 +10711,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10717,7 +10731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -10731,7 +10745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10745,7 +10759,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -10759,7 +10773,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -10773,7 +10787,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -10801,13 +10815,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -10821,7 +10835,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -10835,7 +10849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2018</v>
       </c>
@@ -10849,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2025</v>
       </c>
@@ -10863,7 +10877,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2030</v>
       </c>
@@ -10877,7 +10891,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2035</v>
       </c>
@@ -10891,7 +10905,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2040</v>
       </c>
@@ -10905,7 +10919,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2045</v>
       </c>
@@ -10919,7 +10933,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>2050</v>
       </c>
@@ -10933,7 +10947,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2055</v>
       </c>
@@ -10961,14 +10975,14 @@
       <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10979,7 +10993,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10990,7 +11004,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -11001,7 +11015,7 @@
         <v>3.71919846570994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -11012,7 +11026,7 @@
         <v>3.6299186561735336E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -11023,7 +11037,7 @@
         <v>3.585565328571743E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -11034,7 +11048,7 @@
         <v>3.584903996649251E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -11045,7 +11059,7 @@
         <v>3.6714503009060241E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -11056,7 +11070,7 @@
         <v>3.8644710446839932E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -11067,7 +11081,7 @@
         <v>4.090999272534885E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -11078,7 +11092,7 @@
         <v>4.208187289200449E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -11089,7 +11103,7 @@
         <v>4.2068205365606327E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -11100,7 +11114,7 @@
         <v>4.1572647311685723E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -11111,7 +11125,7 @@
         <v>4.1779864647399856E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -11122,7 +11136,7 @@
         <v>4.2292176443356914E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -11133,7 +11147,7 @@
         <v>4.2667812975332314E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -11144,7 +11158,7 @@
         <v>4.2907215131274379E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -11155,7 +11169,7 @@
         <v>4.3359125278310512E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -11166,7 +11180,7 @@
         <v>4.4095849039966488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -11177,7 +11191,7 @@
         <v>4.4986001807640584E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -11188,7 +11202,7 @@
         <v>4.5571501003020071E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -11199,7 +11213,7 @@
         <v>4.6068822608733989E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -11210,7 +11224,7 @@
         <v>4.6279567048034737E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -11221,7 +11235,7 @@
         <v>4.6637127174128691E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -11232,7 +11246,7 @@
         <v>4.4731168573507042E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -11243,7 +11257,7 @@
         <v>4.2083636443797805E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -11254,7 +11268,7 @@
         <v>3.9352335603906267E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -11265,7 +11279,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -11276,7 +11290,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -11287,7 +11301,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -11298,7 +11312,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -11309,7 +11323,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -11320,7 +11334,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -11331,7 +11345,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>190</v>
       </c>
@@ -11342,7 +11356,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -11353,7 +11367,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -11364,7 +11378,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -11375,7 +11389,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -11386,7 +11400,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -11397,7 +11411,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -11408,7 +11422,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>190</v>
       </c>
@@ -11419,7 +11433,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -11430,7 +11444,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>190</v>
       </c>
@@ -11441,7 +11455,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -11452,7 +11466,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -11463,7 +11477,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>190</v>
       </c>
@@ -11474,7 +11488,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -11485,7 +11499,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -11496,7 +11510,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>190</v>
       </c>
@@ -11507,7 +11521,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -11518,7 +11532,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>214</v>
       </c>
@@ -11529,7 +11543,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -11540,7 +11554,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -11551,7 +11565,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -11562,7 +11576,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -11573,7 +11587,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -11584,7 +11598,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -11595,7 +11609,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -11606,7 +11620,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -11617,7 +11631,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -11628,7 +11642,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>214</v>
       </c>
@@ -11639,7 +11653,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>214</v>
       </c>
@@ -11650,7 +11664,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -11661,7 +11675,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -11672,7 +11686,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>214</v>
       </c>
@@ -11683,7 +11697,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -11694,7 +11708,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -11705,7 +11719,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>214</v>
       </c>
@@ -11716,7 +11730,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -11727,7 +11741,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -11738,7 +11752,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -11749,7 +11763,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -11760,7 +11774,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -11771,7 +11785,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -11782,7 +11796,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -11793,7 +11807,7 @@
         <v>3.5405734767332574E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -11804,7 +11818,7 @@
         <v>3.4072566721671999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -11815,7 +11829,7 @@
         <v>3.389369571940673E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>191</v>
       </c>
@@ -11826,7 +11840,7 @@
         <v>3.3866672042805503E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -11837,7 +11851,7 @@
         <v>3.4843813872926094E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -11848,7 +11862,7 @@
         <v>3.7621676248633266E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -11859,7 +11873,7 @@
         <v>4.1705254046152149E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>191</v>
       </c>
@@ -11870,7 +11884,7 @@
         <v>4.3747900839406863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -11881,7 +11895,7 @@
         <v>4.3233593089488258E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -11892,7 +11906,7 @@
         <v>4.369085085547094E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -11903,7 +11917,7 @@
         <v>4.3598198249981013E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>191</v>
       </c>
@@ -11914,7 +11928,7 @@
         <v>4.342919303441143E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>191</v>
       </c>
@@ -11925,7 +11939,7 @@
         <v>4.3443777240831143E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -11936,7 +11950,7 @@
         <v>4.375261925913089E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>191</v>
       </c>
@@ -11947,7 +11961,7 @@
         <v>4.4077761272840896E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -11958,7 +11972,7 @@
         <v>4.4618663752113097E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -11969,7 +11983,7 @@
         <v>4.4892332096106484E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -11980,7 +11994,7 @@
         <v>4.5406210898777451E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -11991,7 +12005,7 @@
         <v>4.7489178733310197E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -12002,7 +12016,7 @@
         <v>4.7440278747079401E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -12013,7 +12027,7 @@
         <v>4.6340886951381825E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -12024,7 +12038,7 @@
         <v>4.4351000669586652E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -12035,7 +12049,7 @@
         <v>4.0931862158659862E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -12046,7 +12060,7 @@
         <v>3.8146278732495195E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -12057,7 +12071,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -12068,7 +12082,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>192</v>
       </c>
@@ -12079,7 +12093,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>192</v>
       </c>
@@ -12090,7 +12104,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -12101,7 +12115,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -12112,7 +12126,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -12123,7 +12137,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>192</v>
       </c>
@@ -12134,7 +12148,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -12145,7 +12159,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -12156,7 +12170,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -12167,7 +12181,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -12178,7 +12192,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -12189,7 +12203,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -12200,7 +12214,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -12211,7 +12225,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -12222,7 +12236,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>192</v>
       </c>
@@ -12233,7 +12247,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -12244,7 +12258,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -12255,7 +12269,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -12266,7 +12280,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -12277,7 +12291,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -12288,7 +12302,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -12299,7 +12313,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>192</v>
       </c>
@@ -12310,7 +12324,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>201</v>
       </c>
@@ -12321,7 +12335,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>201</v>
       </c>
@@ -12332,7 +12346,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>201</v>
       </c>
@@ -12343,7 +12357,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>201</v>
       </c>
@@ -12354,7 +12368,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>201</v>
       </c>
@@ -12365,7 +12379,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -12376,7 +12390,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>201</v>
       </c>
@@ -12387,7 +12401,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>201</v>
       </c>
@@ -12398,7 +12412,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>201</v>
       </c>
@@ -12409,7 +12423,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>201</v>
       </c>
@@ -12420,7 +12434,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>201</v>
       </c>
@@ -12431,7 +12445,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>201</v>
       </c>
@@ -12442,7 +12456,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>201</v>
       </c>
@@ -12453,7 +12467,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>201</v>
       </c>
@@ -12464,7 +12478,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -12475,7 +12489,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>201</v>
       </c>
@@ -12486,7 +12500,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>201</v>
       </c>
@@ -12497,7 +12511,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>201</v>
       </c>
@@ -12508,7 +12522,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -12519,7 +12533,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>201</v>
       </c>
@@ -12530,7 +12544,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -12541,7 +12555,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>201</v>
       </c>
@@ -12552,7 +12566,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>201</v>
       </c>
@@ -12563,7 +12577,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>201</v>
       </c>
@@ -12574,8 +12588,8 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="27"/>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -12591,13 +12605,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -12605,7 +12619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -12613,7 +12627,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -12634,9 +12648,9 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
@@ -12653,7 +12667,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -12670,7 +12684,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>2025</v>
       </c>
@@ -12684,7 +12698,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>2030</v>
       </c>
@@ -12698,7 +12712,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>2035</v>
       </c>
@@ -12712,7 +12726,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2040</v>
       </c>
@@ -12726,7 +12740,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>2045</v>
       </c>
@@ -12740,7 +12754,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>2050</v>
       </c>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E126B-A1C4-490F-92A4-17EB364F0608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78ECEA1-0182-4C51-8E18-F78BFE3EBA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="247">
   <si>
     <t>connection</t>
   </si>
@@ -761,6 +761,24 @@
   </si>
   <si>
     <t>Dominion GT + ST</t>
+  </si>
+  <si>
+    <t>ELC_OFFSHORE</t>
+  </si>
+  <si>
+    <t>OFFSHORE_TRANS</t>
+  </si>
+  <si>
+    <t>NREL/TP-6A20-65298, Medium and Large buildings</t>
+  </si>
+  <si>
+    <t>NREL ATB, 2018</t>
+  </si>
+  <si>
+    <t>NREL ATB, 2025</t>
+  </si>
+  <si>
+    <t>1% of VA land area</t>
   </si>
 </sst>
 </file>
@@ -849,12 +867,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -862,6 +874,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -889,9 +907,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -899,25 +915,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1284,16 +1314,16 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1302,7 +1332,7 @@
       <c r="C6" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1313,7 +1343,7 @@
       <c r="C7" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1324,7 +1354,7 @@
       <c r="C8" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1335,7 +1365,7 @@
       <c r="C9" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1343,7 +1373,7 @@
       <c r="A10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1351,8 +1381,8 @@
       <c r="A11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1384,7 +1414,7 @@
       <c r="A16" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1392,7 +1422,7 @@
       <c r="A17" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1400,7 +1430,7 @@
       <c r="A18" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1408,13 +1438,13 @@
       <c r="A19" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1422,7 +1452,7 @@
       <c r="A21" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1430,7 +1460,7 @@
       <c r="A22" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1438,7 +1468,7 @@
       <c r="A23" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1480,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S2"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,10 +1586,10 @@
       <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1615,10 +1645,10 @@
       <c r="Q2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="31" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1626,12 +1656,13 @@
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="2">
         <v>2.86</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" s="25"/>
       <c r="H3" s="2">
         <v>0</v>
       </c>
@@ -1642,17 +1673,21 @@
       <c r="K3" t="s">
         <v>154</v>
       </c>
+      <c r="P3" s="31">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.76</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4" s="25"/>
       <c r="H4">
         <v>90.37</v>
       </c>
@@ -1670,7 +1705,7 @@
       <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="J5">
@@ -1684,12 +1719,13 @@
       <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>11.3</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6" s="25"/>
       <c r="H6">
         <v>67.58</v>
       </c>
@@ -1707,12 +1743,13 @@
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3.9140000000000001</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7" s="25"/>
       <c r="H7">
         <v>50.3</v>
       </c>
@@ -1725,12 +1762,18 @@
       <c r="K7" t="s">
         <v>154</v>
       </c>
+      <c r="P7" s="31">
+        <v>300.68</v>
+      </c>
+      <c r="R7" s="31">
+        <v>19890</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="J8">
@@ -1744,7 +1787,7 @@
       <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="J9">
@@ -1758,12 +1801,13 @@
       <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="2">
         <v>0.6</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10" s="25"/>
       <c r="J10">
         <v>50</v>
       </c>
@@ -1827,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,6 +1880,7 @@
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1927,6 +1972,9 @@
       <c r="H3" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1953,6 +2001,9 @@
       <c r="H4" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I4" s="25">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1979,6 +2030,9 @@
       <c r="H5" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -2005,6 +2059,9 @@
       <c r="H6" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -2031,6 +2088,9 @@
       <c r="H7" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I7" s="25">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -2057,6 +2117,9 @@
       <c r="H8" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I8">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -2083,6 +2146,9 @@
       <c r="H9" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I9">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -2109,6 +2175,9 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I10">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -2135,6 +2204,9 @@
       <c r="H11" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="I11" s="25">
+        <v>0.75</v>
+      </c>
       <c r="J11">
         <v>12</v>
       </c>
@@ -2155,7 +2227,7 @@
       <c r="E12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>118</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2164,15 +2236,18 @@
       <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2190,73 +2265,82 @@
       <c r="H13" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="I13" s="25">
+        <v>0.75</v>
+      </c>
       <c r="J13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="14" t="s">
         <v>119</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I15" s="25">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2265,24 +2349,27 @@
       <c r="E16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2291,118 +2378,133 @@
       <c r="E17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I19">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="I20">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="14" t="s">
         <v>118</v>
+      </c>
+      <c r="I21">
+        <v>0.36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2421,7 +2523,7 @@
       <c r="E22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -2429,6 +2531,9 @@
       </c>
       <c r="H22" s="5" t="s">
         <v>119</v>
+      </c>
+      <c r="I22">
+        <v>0.75</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -2450,7 +2555,7 @@
       <c r="E23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -2458,6 +2563,9 @@
       </c>
       <c r="H23" s="5" t="s">
         <v>118</v>
+      </c>
+      <c r="I23">
+        <v>0.23</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2467,8 +2575,8 @@
       <c r="B24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>102</v>
+      <c r="C24" s="33" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>118</v>
@@ -2476,7 +2584,7 @@
       <c r="E24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -2484,6 +2592,9 @@
       </c>
       <c r="H24" s="5" t="s">
         <v>118</v>
+      </c>
+      <c r="I24">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -2512,7 +2623,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2585,10 +2696,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="26">
         <v>29.1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2613,7 +2724,7 @@
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="26">
         <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2635,10 +2746,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="26">
         <v>23.3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2660,10 +2771,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>87</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2685,10 +2796,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="27">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2710,10 +2821,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="27">
         <v>23.2</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2735,10 +2846,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="27">
         <v>93.6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2760,10 +2871,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="27">
         <v>61.9</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2785,10 +2896,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="27">
         <v>50</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2797,7 +2908,7 @@
       <c r="D11" s="5">
         <v>80</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="35" t="s">
         <v>183</v>
       </c>
       <c r="F11" s="5"/>
@@ -2805,15 +2916,15 @@
       <c r="H11" s="5">
         <v>100</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="27">
         <v>48.5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -2835,24 +2946,24 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="28">
         <v>50</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="14">
         <v>85</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
         <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -2860,49 +2971,49 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="28">
         <v>50</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="14">
+        <v>80</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="16">
-        <v>80</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>100</v>
+      </c>
+      <c r="I14" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <v>100</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="28">
         <v>61.9</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>35.299999999999997</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
         <v>45</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -2910,24 +3021,24 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="28">
         <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>39.4</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
         <v>40</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -2935,24 +3046,24 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="28">
         <v>87</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>51.7</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
         <v>45</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -2960,24 +3071,24 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="28">
         <v>87</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>54.1</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
         <v>30</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -2985,24 +3096,24 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="28">
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>42.47</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15">
         <v>55</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -3010,24 +3121,24 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="28">
         <v>23.2</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>20</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
         <v>30</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -3035,24 +3146,24 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="28">
         <v>48.5</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>50</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
         <v>30</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -3060,14 +3171,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="27">
         <v>50</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>183</v>
+      <c r="C22" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="D22" s="8">
         <v>85</v>
@@ -3085,10 +3196,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="27">
         <v>23.2</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3110,10 +3221,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="27">
         <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -3145,7 +3256,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3155,7 +3266,7 @@
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -3241,27 +3352,29 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="32">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
-        <v>183</v>
+      <c r="D3" s="33"/>
+      <c r="E3" s="48">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1.22</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3270,113 +3383,119 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="39">
+        <v>30.57</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="32">
-        <v>30.57</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="35">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="8">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="10" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="39">
+        <v>42</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="32">
-        <v>42</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="32">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10" t="s">
-        <v>183</v>
+      <c r="D6" s="33"/>
+      <c r="E6" s="48">
+        <v>12.9</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>239</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="48">
+        <v>11.4</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="32">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="5">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="32">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="33"/>
+      <c r="E8" s="48">
+        <v>18.8</v>
+      </c>
+      <c r="F8" s="35">
         <v>-2.67</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>183</v>
+      <c r="G8" s="44" t="s">
+        <v>244</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -3384,322 +3503,362 @@
       <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>183</v>
+      <c r="J8" s="44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="D9" s="33"/>
+      <c r="E9" s="27">
         <v>119</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="10" t="s">
-        <v>183</v>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0.64</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="35">
+      <c r="D10" s="33"/>
+      <c r="E10" s="30">
         <v>123</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="20">
-        <v>1.39</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="10" t="s">
-        <v>183</v>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1.31</v>
+      </c>
+      <c r="I10" s="40">
+        <v>0</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>202</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="37">
+        <v>3</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
+      <c r="G11" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="35">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="38">
+        <v>2.78</v>
+      </c>
+      <c r="I11" s="40">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="20">
-        <v>2.78</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="10" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="46">
+        <v>129.6</v>
+      </c>
+      <c r="F12" s="38">
+        <v>-2.65</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="35">
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="6">
-        <v>-2.65</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="34">
-        <v>1544</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="34">
-        <v>38.6</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="10" t="s">
-        <v>183</v>
+      <c r="B13" s="46">
+        <v>1004</v>
+      </c>
+      <c r="C13" s="40">
+        <v>-1.97</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="46">
+        <v>25.1</v>
+      </c>
+      <c r="F13" s="40">
+        <v>-1.97</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="37">
         <v>4300</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="37">
         <v>3</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="38">
         <v>2.78</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="10" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="34">
-        <v>4348</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="B15" s="46">
+        <v>4247</v>
+      </c>
+      <c r="C15" s="40">
+        <v>-0.53</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="29">
         <v>123</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="17">
-        <v>1.39</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="10" t="s">
-        <v>183</v>
+      <c r="F15" s="40">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="40">
+        <v>1.31</v>
+      </c>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="34">
-        <v>3603</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="34">
-        <v>40</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="10" t="s">
-        <v>183</v>
+      <c r="B16" s="46">
+        <v>4099</v>
+      </c>
+      <c r="C16" s="40">
+        <v>-0.35</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="29">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F16" s="40">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1.22</v>
+      </c>
+      <c r="I16" s="40">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="34">
-        <v>1044</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="34">
+      <c r="B17" s="46">
+        <v>1008</v>
+      </c>
+      <c r="C17" s="40">
+        <v>-0.4</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="46">
         <v>13</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="10" t="s">
-        <v>183</v>
+      <c r="F17" s="40">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="34">
-        <v>1044</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="34">
-        <v>13</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="10" t="s">
-        <v>183</v>
+      <c r="B18" s="46">
+        <v>1008</v>
+      </c>
+      <c r="C18" s="47">
+        <v>-0.4</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="46">
+        <v>12.9</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="34">
-        <v>943</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="34">
-        <v>11</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="10" t="s">
-        <v>183</v>
+      <c r="B19" s="46">
+        <v>925</v>
+      </c>
+      <c r="C19" s="40">
+        <v>-0.41</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="46">
+        <v>11.4</v>
+      </c>
+      <c r="F19" s="40">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="34">
-        <v>1600</v>
-      </c>
-      <c r="C20" s="17">
-        <v>-2.6</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="34">
-        <v>19</v>
-      </c>
-      <c r="F20" s="5">
-        <v>-2.67</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>183</v>
+      <c r="B20" s="46">
+        <v>1095</v>
+      </c>
+      <c r="C20" s="40">
+        <v>-1.86</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="46">
+        <v>12.8</v>
+      </c>
+      <c r="F20" s="33">
+        <v>-1.86</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="K20">
         <v>0.08</v>
@@ -3709,35 +3868,35 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="34">
-        <v>4443</v>
-      </c>
-      <c r="C21" s="17">
-        <v>-2.75</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="34">
-        <v>130</v>
-      </c>
-      <c r="F21" s="17">
-        <v>-2.65</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>183</v>
+      <c r="B21" s="46">
+        <v>3245</v>
+      </c>
+      <c r="C21" s="40">
+        <v>-1.7</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="46">
+        <v>88.6</v>
+      </c>
+      <c r="F21" s="40">
+        <v>-1.88</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="K21">
         <v>0.08</v>
@@ -3747,52 +3906,58 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="35">
-        <v>1544</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="35">
-        <v>38.6</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="10" t="s">
-        <v>183</v>
+      <c r="B22" s="46">
+        <v>1004</v>
+      </c>
+      <c r="C22" s="40">
+        <v>-1.97</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="46">
+        <v>25.1</v>
+      </c>
+      <c r="F22" s="40">
+        <v>-1.97</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
+        <v>0</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="35">
-        <v>2052</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2.96</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="35">
-        <v>18</v>
-      </c>
-      <c r="F23" s="6">
-        <v>-3.37</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>183</v>
+      <c r="B23" s="46">
+        <v>1390</v>
+      </c>
+      <c r="C23" s="40">
+        <v>-2.23</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="46">
+        <v>10</v>
+      </c>
+      <c r="F23" s="40">
+        <v>-2.23</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -3800,8 +3965,8 @@
       <c r="I23" s="6">
         <v>0</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>183</v>
+      <c r="J23" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="K23">
         <v>0.08</v>
@@ -3811,26 +3976,26 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="35">
-        <v>6598</v>
-      </c>
-      <c r="C24" s="6">
-        <v>-4.12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="35">
-        <v>108</v>
-      </c>
-      <c r="F24" s="6">
-        <v>-2.67</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>183</v>
+      <c r="B24" s="46">
+        <v>4289</v>
+      </c>
+      <c r="C24" s="40">
+        <v>-2.14</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="46">
+        <v>78.7</v>
+      </c>
+      <c r="F24" s="40">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="H24" s="6">
         <v>0</v>
@@ -3838,8 +4003,8 @@
       <c r="I24" s="6">
         <v>0</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>183</v>
+      <c r="J24" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="K24">
         <v>0.08</v>
@@ -3856,6 +4021,7 @@
       <c r="L25" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3866,7 +4032,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3954,8 +4120,8 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="H3" s="30">
-        <v>2020</v>
+      <c r="H3" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3966,8 +4132,8 @@
         <v>0.67</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="H4" s="30">
-        <v>2020</v>
+      <c r="H4" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3976,8 +4142,8 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="H5" s="30">
-        <v>2020</v>
+      <c r="H5" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3986,8 +4152,8 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="H6" s="30">
-        <v>2020</v>
+      <c r="H6" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3996,8 +4162,8 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="H7" s="30">
-        <v>2020</v>
+      <c r="H7" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4006,8 +4172,8 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="H8" s="30">
-        <v>2020</v>
+      <c r="H8" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4018,8 +4184,8 @@
         <v>0.01</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="H9" s="30">
-        <v>2020</v>
+      <c r="H9" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4030,8 +4196,8 @@
         <v>0.01</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="H10" s="30">
-        <v>2020</v>
+      <c r="H10" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4040,182 +4206,193 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="H11" s="30">
-        <v>2020</v>
+      <c r="H11" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="30">
-        <v>2020</v>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="30">
-        <v>2020</v>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="36">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="45">
         <v>300</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="30">
-        <v>2020</v>
+      <c r="E14" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>0.01</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="24">
-        <v>8000</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="30">
-        <v>2020</v>
+      <c r="C15" s="16"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <v>0.01</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="30">
-        <v>2020</v>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>0.67</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="30">
-        <v>2020</v>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="30">
-        <v>2020</v>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="30">
-        <v>2020</v>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="24">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16">
         <v>40000</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="30">
-        <v>2020</v>
+      <c r="E20" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="2">
         <v>5200</v>
       </c>
-      <c r="H21" s="30">
-        <v>2020</v>
+      <c r="E21" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="30">
-        <v>2020</v>
+      <c r="H22" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="D23" s="36">
+        <v>10200</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>243</v>
+      </c>
       <c r="F23" s="2"/>
-      <c r="H23" s="30">
-        <v>2020</v>
+      <c r="H23" s="31">
+        <v>2025</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="30">
-        <v>2020</v>
+      <c r="H24" s="31">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -4471,198 +4648,198 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>2025</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>2600</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>2030</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>2600</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>2035</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>5200</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>2040</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>5200</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>2045</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>5200</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>2050</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>5200</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="22">
         <v>2035</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="22">
         <v>16100</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="22">
         <v>2040</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="22">
         <v>16100</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="22">
         <v>2045</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="22">
         <v>16100</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="22">
         <v>2050</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="22">
         <v>16100</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>2035</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>2700</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>2040</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>2700</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>2045</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>2700</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>2050</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>2700</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4769,7 +4946,7 @@
       <c r="B3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D3">
@@ -4786,7 +4963,7 @@
       <c r="B4" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D4">
@@ -4803,7 +4980,7 @@
       <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D5">
@@ -4820,7 +4997,7 @@
       <c r="B6" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D6">
@@ -4837,7 +5014,7 @@
       <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D7">
@@ -4854,7 +5031,7 @@
       <c r="B8" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D8">
@@ -4871,7 +5048,7 @@
       <c r="B9" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D9">
@@ -4888,7 +5065,7 @@
       <c r="B10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D10">
@@ -4905,7 +5082,7 @@
       <c r="B11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D11">
@@ -4922,7 +5099,7 @@
       <c r="B12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D12">
@@ -4939,7 +5116,7 @@
       <c r="B13" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D13">
@@ -4956,7 +5133,7 @@
       <c r="B14" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D14">
@@ -4973,7 +5150,7 @@
       <c r="B15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D15">
@@ -4990,7 +5167,7 @@
       <c r="B16" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D16">
@@ -5007,7 +5184,7 @@
       <c r="B17" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D17">
@@ -5024,7 +5201,7 @@
       <c r="B18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D18">
@@ -5041,7 +5218,7 @@
       <c r="B19" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D19">
@@ -5058,7 +5235,7 @@
       <c r="B20" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D20">
@@ -5075,7 +5252,7 @@
       <c r="B21" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D21">
@@ -5092,7 +5269,7 @@
       <c r="B22" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D22">
@@ -5109,7 +5286,7 @@
       <c r="B23" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D23">
@@ -5126,7 +5303,7 @@
       <c r="B24" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D24">
@@ -5143,7 +5320,7 @@
       <c r="B25" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D25">
@@ -5160,7 +5337,7 @@
       <c r="B26" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D26">
@@ -5177,7 +5354,7 @@
       <c r="B27" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D27">
@@ -5194,7 +5371,7 @@
       <c r="B28" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D28">
@@ -5211,7 +5388,7 @@
       <c r="B29" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D29">
@@ -5228,7 +5405,7 @@
       <c r="B30" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D30">
@@ -5245,7 +5422,7 @@
       <c r="B31" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D31">
@@ -5262,7 +5439,7 @@
       <c r="B32" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D32">
@@ -5279,7 +5456,7 @@
       <c r="B33" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D33">
@@ -5296,7 +5473,7 @@
       <c r="B34" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D34">
@@ -5313,7 +5490,7 @@
       <c r="B35" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D35">
@@ -5330,7 +5507,7 @@
       <c r="B36" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D36">
@@ -5347,7 +5524,7 @@
       <c r="B37" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D37">
@@ -5364,7 +5541,7 @@
       <c r="B38" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D38">
@@ -5381,7 +5558,7 @@
       <c r="B39" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D39">
@@ -5398,7 +5575,7 @@
       <c r="B40" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D40">
@@ -5415,7 +5592,7 @@
       <c r="B41" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D41">
@@ -5432,7 +5609,7 @@
       <c r="B42" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D42">
@@ -5449,7 +5626,7 @@
       <c r="B43" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D43">
@@ -5466,7 +5643,7 @@
       <c r="B44" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D44">
@@ -5483,7 +5660,7 @@
       <c r="B45" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D45">
@@ -5500,7 +5677,7 @@
       <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D46">
@@ -5517,7 +5694,7 @@
       <c r="B47" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D47">
@@ -5534,7 +5711,7 @@
       <c r="B48" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D48">
@@ -5551,7 +5728,7 @@
       <c r="B49" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D49">
@@ -5568,7 +5745,7 @@
       <c r="B50" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D50">
@@ -5585,7 +5762,7 @@
       <c r="B51" t="s">
         <v>191</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D51">
@@ -5602,7 +5779,7 @@
       <c r="B52" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D52">
@@ -5619,7 +5796,7 @@
       <c r="B53" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D53">
@@ -5636,7 +5813,7 @@
       <c r="B54" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D54">
@@ -5653,7 +5830,7 @@
       <c r="B55" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D55">
@@ -5670,7 +5847,7 @@
       <c r="B56" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D56">
@@ -5687,7 +5864,7 @@
       <c r="B57" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D57">
@@ -5704,7 +5881,7 @@
       <c r="B58" t="s">
         <v>191</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D58">
@@ -5721,7 +5898,7 @@
       <c r="B59" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D59">
@@ -5738,7 +5915,7 @@
       <c r="B60" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D60">
@@ -5755,7 +5932,7 @@
       <c r="B61" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D61">
@@ -5772,7 +5949,7 @@
       <c r="B62" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D62">
@@ -5789,7 +5966,7 @@
       <c r="B63" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D63">
@@ -5806,7 +5983,7 @@
       <c r="B64" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D64">
@@ -5823,7 +6000,7 @@
       <c r="B65" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D65">
@@ -5840,7 +6017,7 @@
       <c r="B66" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D66">
@@ -5857,7 +6034,7 @@
       <c r="B67" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D67">
@@ -5874,7 +6051,7 @@
       <c r="B68" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D68">
@@ -5891,7 +6068,7 @@
       <c r="B69" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D69">
@@ -5908,7 +6085,7 @@
       <c r="B70" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D70">
@@ -5925,7 +6102,7 @@
       <c r="B71" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D71">
@@ -5942,7 +6119,7 @@
       <c r="B72" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D72">
@@ -5959,7 +6136,7 @@
       <c r="B73" t="s">
         <v>191</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D73">
@@ -5976,7 +6153,7 @@
       <c r="B74" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D74">
@@ -5993,7 +6170,7 @@
       <c r="B75" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D75">
@@ -6010,7 +6187,7 @@
       <c r="B76" t="s">
         <v>192</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D76">
@@ -6027,7 +6204,7 @@
       <c r="B77" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D77">
@@ -6044,7 +6221,7 @@
       <c r="B78" t="s">
         <v>192</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D78">
@@ -6061,7 +6238,7 @@
       <c r="B79" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D79">
@@ -6078,7 +6255,7 @@
       <c r="B80" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D80">
@@ -6095,7 +6272,7 @@
       <c r="B81" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D81">
@@ -6112,7 +6289,7 @@
       <c r="B82" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D82">
@@ -6129,7 +6306,7 @@
       <c r="B83" t="s">
         <v>192</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D83">
@@ -6146,7 +6323,7 @@
       <c r="B84" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D84">
@@ -6163,7 +6340,7 @@
       <c r="B85" t="s">
         <v>192</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D85">
@@ -6180,7 +6357,7 @@
       <c r="B86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D86">
@@ -6197,7 +6374,7 @@
       <c r="B87" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D87">
@@ -6214,7 +6391,7 @@
       <c r="B88" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D88">
@@ -6231,7 +6408,7 @@
       <c r="B89" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D89">
@@ -6248,7 +6425,7 @@
       <c r="B90" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D90">
@@ -6265,7 +6442,7 @@
       <c r="B91" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D91">
@@ -6282,7 +6459,7 @@
       <c r="B92" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D92">
@@ -6299,7 +6476,7 @@
       <c r="B93" t="s">
         <v>192</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D93">
@@ -6316,7 +6493,7 @@
       <c r="B94" t="s">
         <v>192</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D94">
@@ -6333,7 +6510,7 @@
       <c r="B95" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D95">
@@ -6350,7 +6527,7 @@
       <c r="B96" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D96">
@@ -6367,7 +6544,7 @@
       <c r="B97" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D97">
@@ -6384,7 +6561,7 @@
       <c r="B98" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D98">
@@ -6401,7 +6578,7 @@
       <c r="B99" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D99">
@@ -6418,7 +6595,7 @@
       <c r="B100" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D100">
@@ -6435,7 +6612,7 @@
       <c r="B101" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D101">
@@ -6452,7 +6629,7 @@
       <c r="B102" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D102">
@@ -6469,7 +6646,7 @@
       <c r="B103" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D103">
@@ -6486,7 +6663,7 @@
       <c r="B104" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D104">
@@ -6503,7 +6680,7 @@
       <c r="B105" t="s">
         <v>201</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D105">
@@ -6520,7 +6697,7 @@
       <c r="B106" t="s">
         <v>201</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D106">
@@ -6537,7 +6714,7 @@
       <c r="B107" t="s">
         <v>201</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D107">
@@ -6554,7 +6731,7 @@
       <c r="B108" t="s">
         <v>201</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D108">
@@ -6571,7 +6748,7 @@
       <c r="B109" t="s">
         <v>201</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D109">
@@ -6588,7 +6765,7 @@
       <c r="B110" t="s">
         <v>201</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D110">
@@ -6605,7 +6782,7 @@
       <c r="B111" t="s">
         <v>201</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D111">
@@ -6622,7 +6799,7 @@
       <c r="B112" t="s">
         <v>201</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D112">
@@ -6639,7 +6816,7 @@
       <c r="B113" t="s">
         <v>201</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D113">
@@ -6656,7 +6833,7 @@
       <c r="B114" t="s">
         <v>201</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D114">
@@ -6673,7 +6850,7 @@
       <c r="B115" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D115">
@@ -6690,7 +6867,7 @@
       <c r="B116" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D116">
@@ -6707,7 +6884,7 @@
       <c r="B117" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D117">
@@ -6724,7 +6901,7 @@
       <c r="B118" t="s">
         <v>201</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D118">
@@ -6741,7 +6918,7 @@
       <c r="B119" t="s">
         <v>201</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D119">
@@ -6758,7 +6935,7 @@
       <c r="B120" t="s">
         <v>201</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D120">
@@ -6775,7 +6952,7 @@
       <c r="B121" t="s">
         <v>201</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D121">
@@ -6792,7 +6969,7 @@
       <c r="B122" t="s">
         <v>201</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D122">
@@ -6809,7 +6986,7 @@
       <c r="B123" t="s">
         <v>214</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D123">
@@ -6826,7 +7003,7 @@
       <c r="B124" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D124">
@@ -6843,7 +7020,7 @@
       <c r="B125" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D125">
@@ -6860,7 +7037,7 @@
       <c r="B126" t="s">
         <v>214</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D126">
@@ -6877,7 +7054,7 @@
       <c r="B127" t="s">
         <v>214</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D127">
@@ -6894,7 +7071,7 @@
       <c r="B128" t="s">
         <v>214</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D128">
@@ -6911,7 +7088,7 @@
       <c r="B129" t="s">
         <v>214</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D129">
@@ -6928,7 +7105,7 @@
       <c r="B130" t="s">
         <v>214</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D130">
@@ -6945,7 +7122,7 @@
       <c r="B131" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D131">
@@ -6962,7 +7139,7 @@
       <c r="B132" t="s">
         <v>214</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D132">
@@ -6979,7 +7156,7 @@
       <c r="B133" t="s">
         <v>214</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D133">
@@ -6996,7 +7173,7 @@
       <c r="B134" t="s">
         <v>214</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D134">
@@ -7013,7 +7190,7 @@
       <c r="B135" t="s">
         <v>214</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D135">
@@ -7030,7 +7207,7 @@
       <c r="B136" t="s">
         <v>214</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D136">
@@ -7047,7 +7224,7 @@
       <c r="B137" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D137">
@@ -7064,7 +7241,7 @@
       <c r="B138" t="s">
         <v>214</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D138">
@@ -7081,7 +7258,7 @@
       <c r="B139" t="s">
         <v>214</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D139">
@@ -7098,7 +7275,7 @@
       <c r="B140" t="s">
         <v>214</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D140">
@@ -7115,7 +7292,7 @@
       <c r="B141" t="s">
         <v>214</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D141">
@@ -7132,7 +7309,7 @@
       <c r="B142" t="s">
         <v>214</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D142">
@@ -7149,7 +7326,7 @@
       <c r="B143" t="s">
         <v>214</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D143">
@@ -7166,7 +7343,7 @@
       <c r="B144" t="s">
         <v>214</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D144">
@@ -7183,7 +7360,7 @@
       <c r="B145" t="s">
         <v>214</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D145">
@@ -7200,7 +7377,7 @@
       <c r="B146" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D146">
@@ -7217,7 +7394,7 @@
       <c r="B147" t="s">
         <v>189</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D147">
@@ -7234,7 +7411,7 @@
       <c r="B148" t="s">
         <v>189</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D148">
@@ -7251,7 +7428,7 @@
       <c r="B149" t="s">
         <v>189</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D149">
@@ -7268,7 +7445,7 @@
       <c r="B150" t="s">
         <v>189</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D150">
@@ -7285,7 +7462,7 @@
       <c r="B151" t="s">
         <v>189</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D151">
@@ -7302,7 +7479,7 @@
       <c r="B152" t="s">
         <v>189</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D152">
@@ -7319,7 +7496,7 @@
       <c r="B153" t="s">
         <v>189</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D153">
@@ -7336,7 +7513,7 @@
       <c r="B154" t="s">
         <v>189</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D154">
@@ -7353,7 +7530,7 @@
       <c r="B155" t="s">
         <v>189</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D155">
@@ -7370,7 +7547,7 @@
       <c r="B156" t="s">
         <v>189</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C156" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D156">
@@ -7387,7 +7564,7 @@
       <c r="B157" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D157">
@@ -7404,7 +7581,7 @@
       <c r="B158" t="s">
         <v>189</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D158">
@@ -7421,7 +7598,7 @@
       <c r="B159" t="s">
         <v>189</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D159">
@@ -7438,7 +7615,7 @@
       <c r="B160" t="s">
         <v>189</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C160" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D160">
@@ -7455,7 +7632,7 @@
       <c r="B161" t="s">
         <v>189</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C161" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D161">
@@ -7472,7 +7649,7 @@
       <c r="B162" t="s">
         <v>189</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C162" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D162">
@@ -7489,7 +7666,7 @@
       <c r="B163" t="s">
         <v>189</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D163">
@@ -7506,7 +7683,7 @@
       <c r="B164" t="s">
         <v>189</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D164">
@@ -7523,7 +7700,7 @@
       <c r="B165" t="s">
         <v>189</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C165" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D165">
@@ -7540,7 +7717,7 @@
       <c r="B166" t="s">
         <v>189</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="C166" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D166">
@@ -7557,7 +7734,7 @@
       <c r="B167" t="s">
         <v>189</v>
       </c>
-      <c r="C167" s="15" t="s">
+      <c r="C167" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D167">
@@ -7574,7 +7751,7 @@
       <c r="B168" t="s">
         <v>189</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D168">
@@ -7591,7 +7768,7 @@
       <c r="B169" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D169">
@@ -7608,7 +7785,7 @@
       <c r="B170" t="s">
         <v>189</v>
       </c>
-      <c r="C170" s="15" t="s">
+      <c r="C170" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D170">
@@ -7625,7 +7802,7 @@
       <c r="B171" t="s">
         <v>190</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C171" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D171">
@@ -7642,7 +7819,7 @@
       <c r="B172" t="s">
         <v>190</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="C172" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D172">
@@ -7659,7 +7836,7 @@
       <c r="B173" t="s">
         <v>190</v>
       </c>
-      <c r="C173" s="15" t="s">
+      <c r="C173" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D173">
@@ -7676,7 +7853,7 @@
       <c r="B174" t="s">
         <v>190</v>
       </c>
-      <c r="C174" s="15" t="s">
+      <c r="C174" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D174">
@@ -7693,7 +7870,7 @@
       <c r="B175" t="s">
         <v>190</v>
       </c>
-      <c r="C175" s="15" t="s">
+      <c r="C175" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D175">
@@ -7710,7 +7887,7 @@
       <c r="B176" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="C176" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D176">
@@ -7727,7 +7904,7 @@
       <c r="B177" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="15" t="s">
+      <c r="C177" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D177">
@@ -7744,7 +7921,7 @@
       <c r="B178" t="s">
         <v>190</v>
       </c>
-      <c r="C178" s="15" t="s">
+      <c r="C178" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D178">
@@ -7761,7 +7938,7 @@
       <c r="B179" t="s">
         <v>190</v>
       </c>
-      <c r="C179" s="15" t="s">
+      <c r="C179" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D179">
@@ -7778,7 +7955,7 @@
       <c r="B180" t="s">
         <v>190</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C180" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D180">
@@ -7795,7 +7972,7 @@
       <c r="B181" t="s">
         <v>190</v>
       </c>
-      <c r="C181" s="15" t="s">
+      <c r="C181" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D181">
@@ -7812,7 +7989,7 @@
       <c r="B182" t="s">
         <v>190</v>
       </c>
-      <c r="C182" s="15" t="s">
+      <c r="C182" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D182">
@@ -7829,7 +8006,7 @@
       <c r="B183" t="s">
         <v>190</v>
       </c>
-      <c r="C183" s="15" t="s">
+      <c r="C183" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D183">
@@ -7846,7 +8023,7 @@
       <c r="B184" t="s">
         <v>190</v>
       </c>
-      <c r="C184" s="15" t="s">
+      <c r="C184" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D184">
@@ -7863,7 +8040,7 @@
       <c r="B185" t="s">
         <v>190</v>
       </c>
-      <c r="C185" s="15" t="s">
+      <c r="C185" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D185">
@@ -7880,7 +8057,7 @@
       <c r="B186" t="s">
         <v>190</v>
       </c>
-      <c r="C186" s="15" t="s">
+      <c r="C186" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D186">
@@ -7897,7 +8074,7 @@
       <c r="B187" t="s">
         <v>190</v>
       </c>
-      <c r="C187" s="15" t="s">
+      <c r="C187" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D187">
@@ -7914,7 +8091,7 @@
       <c r="B188" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="15" t="s">
+      <c r="C188" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D188">
@@ -7931,7 +8108,7 @@
       <c r="B189" t="s">
         <v>190</v>
       </c>
-      <c r="C189" s="15" t="s">
+      <c r="C189" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D189">
@@ -7948,7 +8125,7 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
-      <c r="C190" s="15" t="s">
+      <c r="C190" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D190">
@@ -7965,7 +8142,7 @@
       <c r="B191" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="15" t="s">
+      <c r="C191" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D191">
@@ -7982,7 +8159,7 @@
       <c r="B192" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="15" t="s">
+      <c r="C192" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D192">
@@ -7999,7 +8176,7 @@
       <c r="B193" t="s">
         <v>190</v>
       </c>
-      <c r="C193" s="15" t="s">
+      <c r="C193" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D193">
@@ -8016,7 +8193,7 @@
       <c r="B194" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="15" t="s">
+      <c r="C194" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D194">
@@ -8033,7 +8210,7 @@
       <c r="B195" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="C195" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D195">
@@ -8050,7 +8227,7 @@
       <c r="B196" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="15" t="s">
+      <c r="C196" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D196">
@@ -8067,7 +8244,7 @@
       <c r="B197" t="s">
         <v>191</v>
       </c>
-      <c r="C197" s="15" t="s">
+      <c r="C197" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D197">
@@ -8084,7 +8261,7 @@
       <c r="B198" t="s">
         <v>191</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D198">
@@ -8101,7 +8278,7 @@
       <c r="B199" t="s">
         <v>191</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="C199" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D199">
@@ -8118,7 +8295,7 @@
       <c r="B200" t="s">
         <v>191</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="C200" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D200">
@@ -8135,7 +8312,7 @@
       <c r="B201" t="s">
         <v>191</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="C201" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D201">
@@ -8152,7 +8329,7 @@
       <c r="B202" t="s">
         <v>191</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C202" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D202">
@@ -8169,7 +8346,7 @@
       <c r="B203" t="s">
         <v>191</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="C203" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D203">
@@ -8186,7 +8363,7 @@
       <c r="B204" t="s">
         <v>191</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="C204" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D204">
@@ -8203,7 +8380,7 @@
       <c r="B205" t="s">
         <v>191</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="C205" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D205">
@@ -8220,7 +8397,7 @@
       <c r="B206" t="s">
         <v>191</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D206">
@@ -8237,7 +8414,7 @@
       <c r="B207" t="s">
         <v>191</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="C207" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D207">
@@ -8254,7 +8431,7 @@
       <c r="B208" t="s">
         <v>191</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D208">
@@ -8271,7 +8448,7 @@
       <c r="B209" t="s">
         <v>191</v>
       </c>
-      <c r="C209" s="15" t="s">
+      <c r="C209" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D209">
@@ -8288,7 +8465,7 @@
       <c r="B210" t="s">
         <v>191</v>
       </c>
-      <c r="C210" s="15" t="s">
+      <c r="C210" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D210">
@@ -8305,7 +8482,7 @@
       <c r="B211" t="s">
         <v>191</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="C211" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D211">
@@ -8322,7 +8499,7 @@
       <c r="B212" t="s">
         <v>191</v>
       </c>
-      <c r="C212" s="15" t="s">
+      <c r="C212" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D212">
@@ -8339,7 +8516,7 @@
       <c r="B213" t="s">
         <v>191</v>
       </c>
-      <c r="C213" s="15" t="s">
+      <c r="C213" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D213">
@@ -8356,7 +8533,7 @@
       <c r="B214" t="s">
         <v>191</v>
       </c>
-      <c r="C214" s="15" t="s">
+      <c r="C214" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D214">
@@ -8373,7 +8550,7 @@
       <c r="B215" t="s">
         <v>191</v>
       </c>
-      <c r="C215" s="15" t="s">
+      <c r="C215" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D215">
@@ -8390,7 +8567,7 @@
       <c r="B216" t="s">
         <v>191</v>
       </c>
-      <c r="C216" s="15" t="s">
+      <c r="C216" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D216">
@@ -8407,7 +8584,7 @@
       <c r="B217" t="s">
         <v>191</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="C217" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D217">
@@ -8424,7 +8601,7 @@
       <c r="B218" t="s">
         <v>191</v>
       </c>
-      <c r="C218" s="15" t="s">
+      <c r="C218" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D218">
@@ -8441,7 +8618,7 @@
       <c r="B219" t="s">
         <v>192</v>
       </c>
-      <c r="C219" s="15" t="s">
+      <c r="C219" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D219">
@@ -8458,7 +8635,7 @@
       <c r="B220" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D220">
@@ -8475,7 +8652,7 @@
       <c r="B221" t="s">
         <v>192</v>
       </c>
-      <c r="C221" s="15" t="s">
+      <c r="C221" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D221">
@@ -8492,7 +8669,7 @@
       <c r="B222" t="s">
         <v>192</v>
       </c>
-      <c r="C222" s="15" t="s">
+      <c r="C222" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D222">
@@ -8509,7 +8686,7 @@
       <c r="B223" t="s">
         <v>192</v>
       </c>
-      <c r="C223" s="15" t="s">
+      <c r="C223" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D223">
@@ -8526,7 +8703,7 @@
       <c r="B224" t="s">
         <v>192</v>
       </c>
-      <c r="C224" s="15" t="s">
+      <c r="C224" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D224">
@@ -8543,7 +8720,7 @@
       <c r="B225" t="s">
         <v>192</v>
       </c>
-      <c r="C225" s="15" t="s">
+      <c r="C225" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D225">
@@ -8560,7 +8737,7 @@
       <c r="B226" t="s">
         <v>192</v>
       </c>
-      <c r="C226" s="15" t="s">
+      <c r="C226" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D226">
@@ -8577,7 +8754,7 @@
       <c r="B227" t="s">
         <v>192</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="C227" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D227">
@@ -8594,7 +8771,7 @@
       <c r="B228" t="s">
         <v>192</v>
       </c>
-      <c r="C228" s="15" t="s">
+      <c r="C228" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D228">
@@ -8611,7 +8788,7 @@
       <c r="B229" t="s">
         <v>192</v>
       </c>
-      <c r="C229" s="15" t="s">
+      <c r="C229" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D229">
@@ -8628,7 +8805,7 @@
       <c r="B230" t="s">
         <v>192</v>
       </c>
-      <c r="C230" s="15" t="s">
+      <c r="C230" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D230">
@@ -8645,7 +8822,7 @@
       <c r="B231" t="s">
         <v>192</v>
       </c>
-      <c r="C231" s="15" t="s">
+      <c r="C231" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D231">
@@ -8662,7 +8839,7 @@
       <c r="B232" t="s">
         <v>192</v>
       </c>
-      <c r="C232" s="15" t="s">
+      <c r="C232" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D232">
@@ -8679,7 +8856,7 @@
       <c r="B233" t="s">
         <v>192</v>
       </c>
-      <c r="C233" s="15" t="s">
+      <c r="C233" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D233">
@@ -8696,7 +8873,7 @@
       <c r="B234" t="s">
         <v>192</v>
       </c>
-      <c r="C234" s="15" t="s">
+      <c r="C234" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D234">
@@ -8713,7 +8890,7 @@
       <c r="B235" t="s">
         <v>192</v>
       </c>
-      <c r="C235" s="15" t="s">
+      <c r="C235" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D235">
@@ -8730,7 +8907,7 @@
       <c r="B236" t="s">
         <v>192</v>
       </c>
-      <c r="C236" s="15" t="s">
+      <c r="C236" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D236">
@@ -8747,7 +8924,7 @@
       <c r="B237" t="s">
         <v>192</v>
       </c>
-      <c r="C237" s="15" t="s">
+      <c r="C237" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D237">
@@ -8764,7 +8941,7 @@
       <c r="B238" t="s">
         <v>192</v>
       </c>
-      <c r="C238" s="15" t="s">
+      <c r="C238" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D238">
@@ -8781,7 +8958,7 @@
       <c r="B239" t="s">
         <v>192</v>
       </c>
-      <c r="C239" s="15" t="s">
+      <c r="C239" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D239">
@@ -8798,7 +8975,7 @@
       <c r="B240" t="s">
         <v>192</v>
       </c>
-      <c r="C240" s="15" t="s">
+      <c r="C240" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D240">
@@ -8815,7 +8992,7 @@
       <c r="B241" t="s">
         <v>192</v>
       </c>
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D241">
@@ -8832,7 +9009,7 @@
       <c r="B242" t="s">
         <v>192</v>
       </c>
-      <c r="C242" s="15" t="s">
+      <c r="C242" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D242">
@@ -8849,7 +9026,7 @@
       <c r="B243" t="s">
         <v>201</v>
       </c>
-      <c r="C243" s="15" t="s">
+      <c r="C243" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D243">
@@ -8866,7 +9043,7 @@
       <c r="B244" t="s">
         <v>201</v>
       </c>
-      <c r="C244" s="15" t="s">
+      <c r="C244" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D244">
@@ -8883,7 +9060,7 @@
       <c r="B245" t="s">
         <v>201</v>
       </c>
-      <c r="C245" s="15" t="s">
+      <c r="C245" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D245">
@@ -8900,7 +9077,7 @@
       <c r="B246" t="s">
         <v>201</v>
       </c>
-      <c r="C246" s="15" t="s">
+      <c r="C246" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D246">
@@ -8917,7 +9094,7 @@
       <c r="B247" t="s">
         <v>201</v>
       </c>
-      <c r="C247" s="15" t="s">
+      <c r="C247" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D247">
@@ -8934,7 +9111,7 @@
       <c r="B248" t="s">
         <v>201</v>
       </c>
-      <c r="C248" s="15" t="s">
+      <c r="C248" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D248">
@@ -8951,7 +9128,7 @@
       <c r="B249" t="s">
         <v>201</v>
       </c>
-      <c r="C249" s="15" t="s">
+      <c r="C249" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D249">
@@ -8968,7 +9145,7 @@
       <c r="B250" t="s">
         <v>201</v>
       </c>
-      <c r="C250" s="15" t="s">
+      <c r="C250" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D250">
@@ -8985,7 +9162,7 @@
       <c r="B251" t="s">
         <v>201</v>
       </c>
-      <c r="C251" s="15" t="s">
+      <c r="C251" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D251">
@@ -9002,7 +9179,7 @@
       <c r="B252" t="s">
         <v>201</v>
       </c>
-      <c r="C252" s="15" t="s">
+      <c r="C252" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D252">
@@ -9019,7 +9196,7 @@
       <c r="B253" t="s">
         <v>201</v>
       </c>
-      <c r="C253" s="15" t="s">
+      <c r="C253" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D253">
@@ -9036,7 +9213,7 @@
       <c r="B254" t="s">
         <v>201</v>
       </c>
-      <c r="C254" s="15" t="s">
+      <c r="C254" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D254">
@@ -9053,7 +9230,7 @@
       <c r="B255" t="s">
         <v>201</v>
       </c>
-      <c r="C255" s="15" t="s">
+      <c r="C255" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D255">
@@ -9070,7 +9247,7 @@
       <c r="B256" t="s">
         <v>201</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="C256" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D256">
@@ -9087,7 +9264,7 @@
       <c r="B257" t="s">
         <v>201</v>
       </c>
-      <c r="C257" s="15" t="s">
+      <c r="C257" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D257">
@@ -9104,7 +9281,7 @@
       <c r="B258" t="s">
         <v>201</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="C258" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D258">
@@ -9121,7 +9298,7 @@
       <c r="B259" t="s">
         <v>201</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="C259" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D259">
@@ -9138,7 +9315,7 @@
       <c r="B260" t="s">
         <v>201</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="C260" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D260">
@@ -9155,7 +9332,7 @@
       <c r="B261" t="s">
         <v>201</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D261">
@@ -9172,7 +9349,7 @@
       <c r="B262" t="s">
         <v>201</v>
       </c>
-      <c r="C262" s="15" t="s">
+      <c r="C262" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D262">
@@ -9189,7 +9366,7 @@
       <c r="B263" t="s">
         <v>201</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="C263" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D263">
@@ -9206,7 +9383,7 @@
       <c r="B264" t="s">
         <v>201</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="C264" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D264">
@@ -9223,7 +9400,7 @@
       <c r="B265" t="s">
         <v>201</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D265">
@@ -9240,7 +9417,7 @@
       <c r="B266" t="s">
         <v>201</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="C266" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D266">
@@ -9257,7 +9434,7 @@
       <c r="B267" t="s">
         <v>214</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D267">
@@ -9274,7 +9451,7 @@
       <c r="B268" t="s">
         <v>214</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D268">
@@ -9291,7 +9468,7 @@
       <c r="B269" t="s">
         <v>214</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D269">
@@ -9308,7 +9485,7 @@
       <c r="B270" t="s">
         <v>214</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C270" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D270">
@@ -9325,7 +9502,7 @@
       <c r="B271" t="s">
         <v>214</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C271" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D271">
@@ -9342,7 +9519,7 @@
       <c r="B272" t="s">
         <v>214</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D272">
@@ -9359,7 +9536,7 @@
       <c r="B273" t="s">
         <v>214</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D273">
@@ -9376,7 +9553,7 @@
       <c r="B274" t="s">
         <v>214</v>
       </c>
-      <c r="C274" s="15" t="s">
+      <c r="C274" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D274">
@@ -9393,7 +9570,7 @@
       <c r="B275" t="s">
         <v>214</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="C275" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D275">
@@ -9410,7 +9587,7 @@
       <c r="B276" t="s">
         <v>214</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="C276" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D276">
@@ -9427,7 +9604,7 @@
       <c r="B277" t="s">
         <v>214</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="C277" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D277">
@@ -9444,7 +9621,7 @@
       <c r="B278" t="s">
         <v>214</v>
       </c>
-      <c r="C278" s="15" t="s">
+      <c r="C278" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D278">
@@ -9461,7 +9638,7 @@
       <c r="B279" t="s">
         <v>214</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="C279" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D279">
@@ -9478,7 +9655,7 @@
       <c r="B280" t="s">
         <v>214</v>
       </c>
-      <c r="C280" s="15" t="s">
+      <c r="C280" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D280">
@@ -9495,7 +9672,7 @@
       <c r="B281" t="s">
         <v>214</v>
       </c>
-      <c r="C281" s="15" t="s">
+      <c r="C281" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D281">
@@ -9512,7 +9689,7 @@
       <c r="B282" t="s">
         <v>214</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="C282" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D282">
@@ -9529,7 +9706,7 @@
       <c r="B283" t="s">
         <v>214</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="C283" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D283">
@@ -9546,7 +9723,7 @@
       <c r="B284" t="s">
         <v>214</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C284" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D284">
@@ -9563,7 +9740,7 @@
       <c r="B285" t="s">
         <v>214</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D285">
@@ -9580,7 +9757,7 @@
       <c r="B286" t="s">
         <v>214</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D286">
@@ -9597,7 +9774,7 @@
       <c r="B287" t="s">
         <v>214</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D287">
@@ -9614,7 +9791,7 @@
       <c r="B288" t="s">
         <v>214</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D288">
@@ -9631,7 +9808,7 @@
       <c r="B289" t="s">
         <v>214</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="C289" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D289">
@@ -9648,7 +9825,7 @@
       <c r="B290" t="s">
         <v>214</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="C290" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D290">
@@ -9682,7 +9859,7 @@
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -9693,7 +9870,7 @@
       <c r="A2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
@@ -9704,7 +9881,7 @@
       <c r="A3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>0.2</v>
       </c>
       <c r="C3">
@@ -9715,7 +9892,7 @@
       <c r="A4" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>0.25600000000000001</v>
       </c>
       <c r="C4">
@@ -9726,7 +9903,7 @@
       <c r="A5" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="C5">
@@ -9737,7 +9914,7 @@
       <c r="A6" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>0.2</v>
       </c>
       <c r="C6">
@@ -9748,7 +9925,7 @@
       <c r="A7" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>0.224</v>
       </c>
       <c r="C7">
@@ -9759,7 +9936,7 @@
       <c r="A8" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C8">
@@ -10000,10 +10177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10468,7 +10645,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="20">
         <v>0.50697570000000003</v>
       </c>
       <c r="G10" s="2">
@@ -10509,7 +10686,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="20">
         <v>0.37906770000000001</v>
       </c>
       <c r="G11" s="2">
@@ -10549,7 +10726,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="20">
         <v>0.28218300000000002</v>
       </c>
       <c r="G12" s="2">
@@ -10589,7 +10766,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="20">
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -10630,7 +10807,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="20">
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -10670,7 +10847,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="20">
         <v>0</v>
       </c>
       <c r="G15" s="2">
@@ -10694,6 +10871,42 @@
         <v>2018</v>
       </c>
       <c r="Q15" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="34">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="N16" s="31">
+        <v>30</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" s="31">
+        <v>2018</v>
+      </c>
+      <c r="Q16" s="31">
         <v>2050</v>
       </c>
     </row>
@@ -10850,114 +11063,114 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>2018</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>310.5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>2025</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>461.4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>64.59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>2030</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>509.7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>152.91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>2035</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>564.79999999999995</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>169.44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>2040</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>616.79999999999995</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>400.92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>2045</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>668.8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>434.72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>2050</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>720.8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>720.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>2055</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>772.7</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>772.7</v>
       </c>
     </row>
@@ -12589,7 +12802,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="26"/>
+      <c r="C149" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -12685,86 +12898,86 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="19">
         <v>2025</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="19">
         <v>23800</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="19">
         <v>2030</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="19">
         <v>19600</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="19">
         <v>2035</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>14700</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="19">
         <v>2040</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="19">
         <v>9800</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>2045</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <v>4900</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="19">
         <v>2050</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="23">
-        <v>0</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>224</v>
       </c>
     </row>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78ECEA1-0182-4C51-8E18-F78BFE3EBA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C32EA1-FE7F-433C-A7EC-D4AD9DA07692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="250">
   <si>
     <t>connection</t>
   </si>
@@ -779,6 +779,15 @@
   </si>
   <si>
     <t>1% of VA land area</t>
+  </si>
+  <si>
+    <t>Brown et al. has 4.11 M$/PJ</t>
+  </si>
+  <si>
+    <t>VA IRP</t>
+  </si>
+  <si>
+    <t>CapacityCreditIncr</t>
   </si>
 </sst>
 </file>
@@ -1510,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,13 +1665,15 @@
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="25">
         <v>2.86</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>247</v>
+      </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
@@ -1676,6 +1687,9 @@
       <c r="P3" s="31">
         <v>14.35</v>
       </c>
+      <c r="Q3" s="31" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1765,8 +1779,14 @@
       <c r="P7" s="31">
         <v>300.68</v>
       </c>
+      <c r="Q7" s="31" t="s">
+        <v>248</v>
+      </c>
       <c r="R7" s="31">
         <v>19890</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1869,21 +1889,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1909,13 +1931,16 @@
         <v>152</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1946,8 +1971,11 @@
       <c r="J2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -1972,11 +2000,14 @@
       <c r="H3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="31">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>238</v>
       </c>
@@ -2001,11 +2032,14 @@
       <c r="H4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="25">
+      <c r="J4" s="25">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -2030,11 +2064,14 @@
       <c r="H5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="31">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -2059,11 +2096,14 @@
       <c r="H6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="31">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>239</v>
       </c>
@@ -2088,11 +2128,14 @@
       <c r="H7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="25">
+      <c r="J7" s="25">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -2117,11 +2160,14 @@
       <c r="H8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I8">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="K8" s="25">
+        <v>-3.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -2146,11 +2192,14 @@
       <c r="H9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I9">
+      <c r="J9" s="31">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -2175,11 +2224,14 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I10">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="K10" s="25">
+        <v>-2.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -2204,14 +2256,17 @@
       <c r="H11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11" s="25">
         <v>0.75</v>
       </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>193</v>
       </c>
@@ -2236,11 +2291,14 @@
       <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="31">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>203</v>
       </c>
@@ -2265,14 +2323,17 @@
       <c r="H13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="25">
         <v>0.75</v>
       </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>108</v>
       </c>
@@ -2298,13 +2359,16 @@
         <v>119</v>
       </c>
       <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="31">
         <v>0.75</v>
       </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
@@ -2329,11 +2393,14 @@
       <c r="H15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="25">
+      <c r="J15" s="25">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
@@ -2358,11 +2425,14 @@
       <c r="H16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I16">
+      <c r="J16" s="31">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
@@ -2387,11 +2457,14 @@
       <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I17">
+      <c r="J17" s="31">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
@@ -2416,11 +2489,14 @@
       <c r="H18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I18">
+      <c r="J18" s="31">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
@@ -2445,11 +2521,14 @@
       <c r="H19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I19">
+      <c r="J19" s="31">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
@@ -2474,11 +2553,14 @@
       <c r="H20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I20">
+      <c r="J20" s="31">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="25">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
@@ -2503,11 +2585,14 @@
       <c r="H21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I21">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="K21" s="25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -2533,13 +2618,16 @@
         <v>119</v>
       </c>
       <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" s="31">
         <v>0.75</v>
       </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -2564,11 +2652,14 @@
       <c r="H23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I23">
+      <c r="J23" s="31">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="25">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>232</v>
       </c>
@@ -2593,22 +2684,25 @@
       <c r="H24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I24">
-        <v>0.36</v>
+      <c r="J24" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="K24" s="25">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H11 D14:H24">
+  <conditionalFormatting sqref="D3:I11 D14:I24">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:H12">
+  <conditionalFormatting sqref="D12:I12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:H13">
+  <conditionalFormatting sqref="D13:I13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>

--- a/projects/virginia/data/data_virginia.xlsx
+++ b/projects/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE64AC-F9DF-45B4-AD69-3ED69C445D21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309D46DA-4409-F74B-B8E1-ADA7F991E460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="21100" tabRatio="941" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="261">
   <si>
     <t>connection</t>
   </si>
@@ -685,9 +685,6 @@
     <t>summer2</t>
   </si>
   <si>
-    <t>Luo</t>
-  </si>
-  <si>
     <t>StorageDuration</t>
   </si>
   <si>
@@ -781,9 +778,6 @@
     <t>1% of VA land area</t>
   </si>
   <si>
-    <t>Brown et al. has 4.11 M$/PJ</t>
-  </si>
-  <si>
     <t>CapacityCreditIncr</t>
   </si>
   <si>
@@ -794,20 +788,59 @@
   </si>
   <si>
     <t>VA IRP, 14.35</t>
+  </si>
+  <si>
+    <t>Luo [Mid Value]</t>
+  </si>
+  <si>
+    <t>Assuming similar to Bath County</t>
+  </si>
+  <si>
+    <t>NREL ATB (NPD 4)</t>
+  </si>
+  <si>
+    <t>Vennemann 2010</t>
+  </si>
+  <si>
+    <t>Immendoerfer 2017</t>
+  </si>
+  <si>
+    <t>Abdulgafar 2014</t>
+  </si>
+  <si>
+    <t>Rehman 2015</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/state/seds/sep_fuel/html/pdf/fuel_pr_ww.pdf</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=15-AEO2020&amp;cases=ref2020&amp;sourcekey=0</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=13-AEO2020&amp;cases=ref2020&amp;sourcekey=0</t>
+  </si>
+  <si>
+    <t>NREL ATB &amp; https://www.eia.gov/outlooks/aeo/data/browser/#/?id=12-AEO2020&amp;cases=ref2020&amp;sourcekey=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -860,8 +893,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,14 +928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -908,64 +953,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1270,15 +1305,15 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1318,7 +1353,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1326,7 +1361,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1335,13 +1370,13 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1352,7 +1387,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1363,7 +1398,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1374,7 +1409,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1385,7 +1420,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1393,32 +1428,32 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -1426,7 +1461,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -1434,7 +1469,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -1442,7 +1477,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1450,13 +1485,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>129</v>
       </c>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -1464,7 +1499,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -1472,7 +1507,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -1480,7 +1515,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -1488,7 +1523,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -1496,7 +1531,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -1526,31 +1561,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1588,13 +1623,13 @@
         <v>145</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>31</v>
@@ -1602,14 +1637,14 @@
       <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1661,25 +1696,25 @@
       <c r="Q2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16">
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="35">
         <v>2.86</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>247</v>
+      <c r="D3" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1691,25 +1726,27 @@
       <c r="K3" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="29">
         <f>14.35*2.99</f>
         <v>42.906500000000001</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q3" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16">
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.76</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25"/>
+      <c r="B4" s="35">
+        <v>1.95</v>
+      </c>
+      <c r="C4" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="H4">
         <v>90.37</v>
       </c>
@@ -1723,7 +1760,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1737,17 +1774,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="16">
       <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="25"/>
+      <c r="B6" s="35">
+        <v>14.6</v>
+      </c>
+      <c r="C6" s="35">
+        <v>3.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
       <c r="H6">
         <v>67.58</v>
       </c>
@@ -1761,17 +1800,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="16">
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="2">
-        <v>3.9140000000000001</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25"/>
+      <c r="B7" s="35">
+        <v>2.79</v>
+      </c>
+      <c r="C7" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
       <c r="H7">
         <v>50.3</v>
       </c>
@@ -1784,21 +1825,21 @@
       <c r="K7" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="29">
         <f>300.68*1.11</f>
         <v>333.75480000000005</v>
       </c>
-      <c r="Q7" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="R7" s="31">
+      <c r="Q7" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="R7" s="29">
         <v>19890</v>
       </c>
-      <c r="S7" s="31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S7" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1812,7 +1853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1826,7 +1867,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -1836,7 +1877,9 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="35" t="s">
+        <v>183</v>
+      </c>
       <c r="J10">
         <v>50</v>
       </c>
@@ -1845,8 +1888,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{9DFC07CD-4C36-0A47-9B34-2362D4146C12}"/>
+    <hyperlink ref="D4" r:id="rId2" location="/?id=15-AEO2020&amp;cases=ref2020&amp;sourcekey=0" xr:uid="{8787F53A-30CD-074C-B037-EDC195177177}"/>
+    <hyperlink ref="D7" r:id="rId3" location="/?id=13-AEO2020&amp;cases=ref2020&amp;sourcekey=0" xr:uid="{D4514A67-18FD-8F45-BB95-641739EA515E}"/>
+    <hyperlink ref="D6" r:id="rId4" location="/?id=12-AEO2020&amp;cases=ref2020&amp;sourcekey=0" display="https://www.eia.gov/outlooks/aeo/data/browser/#/?id=12-AEO2020&amp;cases=ref2020&amp;sourcekey=0" xr:uid="{9B24FC26-FE76-2549-8935-E6553B98E315}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1858,12 +1907,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1877,7 +1926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1900,21 +1949,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1940,16 +1989,16 @@
         <v>152</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>180</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1984,7 +2033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -2009,16 +2058,16 @@
       <c r="H3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3">
         <v>0.9</v>
       </c>
-      <c r="K3" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>174</v>
@@ -2041,14 +2090,14 @@
       <c r="H4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="25">
-        <v>0.91</v>
-      </c>
-      <c r="K4" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -2073,14 +2122,14 @@
       <c r="H5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5">
         <v>0.95</v>
       </c>
-      <c r="K5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -2105,16 +2154,16 @@
       <c r="H6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6">
         <v>0.95</v>
       </c>
-      <c r="K6" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>175</v>
@@ -2137,14 +2186,14 @@
       <c r="H7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="35">
         <v>0.91</v>
       </c>
-      <c r="K7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -2169,14 +2218,14 @@
       <c r="H8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="25">
-        <v>0.37</v>
-      </c>
-      <c r="K8" s="25">
-        <v>-3.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K8" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -2201,22 +2250,22 @@
       <c r="H9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9">
         <v>0.98</v>
       </c>
-      <c r="K9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>241</v>
+      <c r="C10" t="s">
+        <v>240</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>119</v>
@@ -2233,14 +2282,14 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="25">
-        <v>0.51</v>
-      </c>
-      <c r="K10" s="25">
-        <v>-2.84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="K10" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -2268,14 +2317,14 @@
       <c r="I11">
         <v>12</v>
       </c>
-      <c r="J11" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>193</v>
       </c>
@@ -2300,14 +2349,14 @@
       <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12">
         <v>0.95</v>
       </c>
-      <c r="K12" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16">
       <c r="A13" s="14" t="s">
         <v>203</v>
       </c>
@@ -2335,14 +2384,14 @@
       <c r="I13">
         <v>12</v>
       </c>
-      <c r="J13" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="K13" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
         <v>108</v>
       </c>
@@ -2370,14 +2419,14 @@
       <c r="I14">
         <v>4</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14">
         <v>0.75</v>
       </c>
-      <c r="K14" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16">
       <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
@@ -2402,14 +2451,14 @@
       <c r="H15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="35">
         <v>0.95</v>
       </c>
-      <c r="K15" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
@@ -2434,14 +2483,14 @@
       <c r="H16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16">
         <v>0.9</v>
       </c>
-      <c r="K16" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
@@ -2466,14 +2515,14 @@
       <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17">
         <v>0.95</v>
       </c>
-      <c r="K17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
@@ -2498,14 +2547,14 @@
       <c r="H18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18">
         <v>0.95</v>
       </c>
-      <c r="K18" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
@@ -2530,14 +2579,14 @@
       <c r="H19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19">
         <v>0.91</v>
       </c>
-      <c r="K19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16">
       <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
@@ -2562,22 +2611,22 @@
       <c r="H20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20">
         <v>0.23</v>
       </c>
-      <c r="K20" s="25">
-        <v>-2.95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>241</v>
+      <c r="C21" t="s">
+        <v>240</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>118</v>
@@ -2594,14 +2643,14 @@
       <c r="H21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="25">
-        <v>0.33</v>
-      </c>
-      <c r="K21" s="25">
+      <c r="J21" s="35">
+        <v>0.36</v>
+      </c>
+      <c r="K21" s="35">
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -2629,14 +2678,14 @@
       <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22">
         <v>0.75</v>
       </c>
-      <c r="K22" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -2661,22 +2710,22 @@
       <c r="H23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23">
         <v>0.23</v>
       </c>
-      <c r="K23" s="25">
-        <v>-2.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16">
       <c r="A24" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>241</v>
+      <c r="C24" t="s">
+        <v>240</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>118</v>
@@ -2693,10 +2742,10 @@
       <c r="H24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="25">
-        <v>0.33</v>
-      </c>
-      <c r="K24" s="25">
+      <c r="J24" s="35">
+        <v>0.36</v>
+      </c>
+      <c r="K24" s="35">
         <v>-2</v>
       </c>
     </row>
@@ -2726,21 +2775,21 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" activeCellId="1" sqref="E23 E20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2769,7 +2818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2798,11 +2847,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>29.1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2823,11 +2872,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="26">
+        <v>237</v>
+      </c>
+      <c r="B4" s="25">
         <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2848,11 +2897,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>23.3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2873,11 +2922,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>87</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2898,11 +2947,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="27">
+        <v>238</v>
+      </c>
+      <c r="B7" s="26">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2923,11 +2972,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>23.2</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2948,11 +2997,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>93.6</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2973,11 +3022,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>61.9</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2998,11 +3047,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>50</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3011,23 +3060,23 @@
       <c r="D11" s="5">
         <v>80</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>183</v>
+      <c r="E11" s="34" t="s">
+        <v>256</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="8"/>
       <c r="H11" s="5">
         <v>100</v>
       </c>
-      <c r="I11" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>48.5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -3048,14 +3097,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>50</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" t="s">
         <v>154</v>
       </c>
       <c r="D13" s="14">
@@ -3073,36 +3122,36 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>50</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" t="s">
         <v>154</v>
       </c>
       <c r="D14" s="14">
         <v>80</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>183</v>
+      <c r="E14" s="34" t="s">
+        <v>256</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <v>100</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>61.9</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3123,11 +3172,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3148,11 +3197,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>87</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -3173,11 +3222,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>87</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -3198,11 +3247,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3223,11 +3272,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16">
       <c r="A20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>23.2</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3237,7 +3286,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -3248,11 +3297,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>48.5</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3273,14 +3322,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>50</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" t="s">
         <v>154</v>
       </c>
       <c r="D22" s="8">
@@ -3298,11 +3347,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>23.2</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3312,7 +3361,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
@@ -3323,11 +3372,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="27">
+        <v>231</v>
+      </c>
+      <c r="B24" s="26">
         <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -3359,26 +3408,26 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3386,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -3395,7 +3444,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>34</v>
@@ -3413,10 +3462,10 @@
         <v>79</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3454,252 +3503,242 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:12" ht="16">
+      <c r="A3" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="48">
+      <c r="E3">
         <v>39.700000000000003</v>
       </c>
-      <c r="F3" s="33">
-        <v>0</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="33">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3">
         <v>1.22</v>
       </c>
-      <c r="I3" s="33">
-        <v>0</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>238</v>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="A4" s="36" t="s">
+        <v>237</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="39">
-        <v>30.57</v>
-      </c>
-      <c r="F4" s="33">
+      <c r="E4" s="32">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="35">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I4" s="33">
+      <c r="H4" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="36" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="39">
+      <c r="E5" s="32">
         <v>42</v>
       </c>
-      <c r="F5" s="42">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>183</v>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>252</v>
       </c>
       <c r="H5" s="35">
         <v>0</v>
       </c>
-      <c r="I5" s="33">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="48">
+      <c r="E6">
         <v>12.9</v>
       </c>
-      <c r="F6" s="43">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="33">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6">
         <v>0.6</v>
       </c>
-      <c r="I6" s="33">
-        <v>0</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>239</v>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="48">
+      <c r="E7">
         <v>11.4</v>
       </c>
-      <c r="F7" s="43">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7">
         <v>1.25</v>
       </c>
-      <c r="I7" s="33">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="36" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="48">
+      <c r="E8">
         <v>18.8</v>
       </c>
-      <c r="F8" s="35">
-        <v>-2.67</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="36" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>119</v>
       </c>
-      <c r="F9" s="33">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9">
         <v>0.64</v>
       </c>
-      <c r="I9" s="33">
-        <v>0</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="36" t="s">
         <v>193</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>123</v>
       </c>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="40">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10">
         <v>1.31</v>
       </c>
-      <c r="I10" s="40">
-        <v>0</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="36" t="s">
         <v>202</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="37">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="40">
-        <v>0</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="38">
-        <v>2.78</v>
-      </c>
-      <c r="I11" s="40">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="34">
+        <v>13.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="46">
+      <c r="E12">
         <v>129.6</v>
       </c>
-      <c r="F12" s="38">
-        <v>-2.65</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>183</v>
@@ -3714,254 +3753,254 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13">
         <v>1004</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13">
         <v>-1.97</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="46">
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13">
         <v>25.1</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13">
         <v>-1.97</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="40">
-        <v>0</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="G13" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="37">
-        <v>4300</v>
+      <c r="B14" s="32">
+        <v>1179</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="37">
+        <v>251</v>
+      </c>
+      <c r="E14" s="32">
         <v>3</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="38">
-        <v>2.78</v>
+      <c r="G14" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="34">
+        <v>13.9</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="J14" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15">
         <v>4247</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15">
         <v>-0.53</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="29">
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15">
         <v>123</v>
       </c>
-      <c r="F15" s="40">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H15" s="40">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15">
         <v>1.31</v>
       </c>
-      <c r="I15" s="40">
-        <v>0</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16">
         <v>4099</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16">
         <v>-0.35</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="D16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16">
         <v>39.700000000000003</v>
       </c>
-      <c r="F16" s="40">
-        <v>0</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H16" s="40">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16">
         <v>1.22</v>
       </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17">
         <v>1008</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17">
         <v>-0.4</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="46">
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17">
         <v>13</v>
       </c>
-      <c r="F17" s="40">
-        <v>0</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="40">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17">
         <v>0.6</v>
       </c>
-      <c r="I17" s="40">
-        <v>0</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18">
         <v>1008</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18">
         <v>-0.4</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="46">
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18">
         <v>12.9</v>
       </c>
-      <c r="F18" s="41">
-        <v>0</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H18" s="40">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18">
         <v>0.6</v>
       </c>
-      <c r="I18" s="40">
-        <v>0</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16">
+      <c r="A19" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19">
         <v>925</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19">
         <v>-0.41</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="46">
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19">
         <v>11.4</v>
       </c>
-      <c r="F19" s="40">
-        <v>0</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="40">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19">
         <v>1.25</v>
       </c>
-      <c r="I19" s="40">
-        <v>0</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20">
         <v>1095</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20">
         <v>-1.86</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="46">
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20">
         <v>12.8</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20">
         <v>-1.86</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <v>0</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>245</v>
+      <c r="G20" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>244</v>
       </c>
       <c r="K20">
         <v>0.08</v>
@@ -3970,36 +4009,36 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:12" ht="16">
+      <c r="A21" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21">
         <v>3245</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21">
         <v>-1.7</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="46">
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21">
         <v>88.6</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21">
         <v>-1.88</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>245</v>
+      <c r="G21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>244</v>
       </c>
       <c r="K21">
         <v>0.08</v>
@@ -4008,68 +4047,68 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:12" ht="16">
+      <c r="A22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22">
         <v>1004</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22">
         <v>-1.97</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="46">
+      <c r="D22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22">
         <v>25.1</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22">
         <v>-1.97</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="40">
-        <v>0</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="G22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16">
+      <c r="A23" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23">
         <v>1390</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23">
         <v>-2.23</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" s="46">
+      <c r="D23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23">
         <v>10</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23">
         <v>-2.23</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>245</v>
+      <c r="G23" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>244</v>
       </c>
       <c r="K23">
         <v>0.08</v>
@@ -4078,36 +4117,36 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="46">
+    <row r="24" spans="1:12" ht="16">
+      <c r="A24" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24">
         <v>4289</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24">
         <v>-2.14</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="46">
+      <c r="D24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24">
         <v>78.7</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>245</v>
+      <c r="G24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>244</v>
       </c>
       <c r="K24">
         <v>0.08</v>
@@ -4116,7 +4155,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -4124,7 +4163,7 @@
       <c r="L25" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4135,23 +4174,23 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4174,16 +4213,16 @@
         <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4215,7 +4254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4225,9 +4264,9 @@
       <c r="C3" s="5"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="5">
         <v>0.67</v>
@@ -4235,7 +4274,7 @@
       <c r="C4" s="5"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -4243,7 +4282,7 @@
       <c r="C5" s="5"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -4251,15 +4290,15 @@
       <c r="C6" s="5"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -4267,7 +4306,7 @@
       <c r="C8" s="5"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -4277,7 +4316,7 @@
       <c r="C9" s="5"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>193</v>
       </c>
@@ -4287,7 +4326,7 @@
       <c r="C10" s="5"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -4295,53 +4334,43 @@
       <c r="C11" s="5"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="31">
+      <c r="H12">
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="31">
+      <c r="H13">
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="14" t="s">
         <v>203</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="45">
+      <c r="D14">
         <v>300</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="31">
+      <c r="E14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14">
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
@@ -4349,15 +4378,11 @@
         <v>0.01</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="31">
+      <c r="H15">
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="14" t="s">
         <v>176</v>
       </c>
@@ -4365,15 +4390,11 @@
         <v>0.01</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="31">
+      <c r="H16">
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
@@ -4381,102 +4402,87 @@
         <v>0.67</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="31">
+      <c r="H17">
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="31">
+      <c r="H18">
         <v>2025</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="31">
+      <c r="H19">
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="16">
+      <c r="D20">
         <v>40000</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="31">
+      <c r="E20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20">
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>5200</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="H21" s="31">
+      <c r="E21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21">
         <v>2025</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22">
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23">
         <v>10200</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="H23" s="31">
+      <c r="E23" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23">
         <v>2025</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="H24" s="31">
+        <v>231</v>
+      </c>
+      <c r="H24">
         <v>2025</v>
       </c>
     </row>
@@ -4494,14 +4500,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4515,7 +4521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -4543,9 +4549,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4">
         <v>2343</v>
@@ -4557,7 +4563,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4599,9 +4605,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8">
         <v>5317</v>
@@ -4610,10 +4616,10 @@
         <v>1990</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -4697,28 +4703,28 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4732,7 +4738,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="13">
         <v>2025</v>
       </c>
@@ -4743,10 +4749,10 @@
         <v>2600</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="13">
         <v>2030</v>
       </c>
@@ -4757,10 +4763,10 @@
         <v>2600</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13">
         <v>2035</v>
       </c>
@@ -4771,10 +4777,10 @@
         <v>5200</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="13">
         <v>2040</v>
       </c>
@@ -4785,10 +4791,10 @@
         <v>5200</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="13">
         <v>2045</v>
       </c>
@@ -4799,10 +4805,10 @@
         <v>5200</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="13">
         <v>2050</v>
       </c>
@@ -4813,10 +4819,10 @@
         <v>5200</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="22">
         <v>2035</v>
       </c>
@@ -4827,10 +4833,10 @@
         <v>16100</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="22">
         <v>2040</v>
       </c>
@@ -4841,10 +4847,10 @@
         <v>16100</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="22">
         <v>2045</v>
       </c>
@@ -4855,10 +4861,10 @@
         <v>16100</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="22">
         <v>2050</v>
       </c>
@@ -4869,10 +4875,10 @@
         <v>16100</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="13">
         <v>2035</v>
       </c>
@@ -4883,10 +4889,10 @@
         <v>2700</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="13">
         <v>2040</v>
       </c>
@@ -4897,10 +4903,10 @@
         <v>2700</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="13">
         <v>2045</v>
       </c>
@@ -4911,10 +4917,10 @@
         <v>2700</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="13">
         <v>2050</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>2700</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4938,17 +4944,17 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4956,7 +4962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -4964,9 +4970,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.15</v>
+        <v>0.36399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4978,19 +4984,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="I232" sqref="I232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5007,7 +5013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5024,7 +5030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5092,7 +5098,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5126,7 +5132,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5262,7 +5268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -5381,7 +5387,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -5398,7 +5404,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5483,7 +5489,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -5517,7 +5523,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -5534,7 +5540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -5568,7 +5574,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -5636,7 +5642,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -5653,7 +5659,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -5772,7 +5778,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -5925,7 +5931,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -5959,7 +5965,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -5993,7 +5999,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6061,7 +6067,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6095,7 +6101,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6129,7 +6135,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6163,7 +6169,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6197,7 +6203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6248,7 +6254,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6299,7 +6305,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6316,7 +6322,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6333,7 +6339,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6350,7 +6356,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -6367,7 +6373,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -6384,7 +6390,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -6401,7 +6407,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6418,7 +6424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6452,7 +6458,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -6469,7 +6475,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -6486,7 +6492,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -6520,7 +6526,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -6622,7 +6628,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -6639,7 +6645,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -6673,7 +6679,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -6707,7 +6713,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -6724,7 +6730,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -6741,7 +6747,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -6758,7 +6764,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -6775,7 +6781,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -6792,7 +6798,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -6843,7 +6849,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -6860,7 +6866,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -6877,7 +6883,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -6894,7 +6900,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -6945,7 +6951,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -6962,7 +6968,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7013,7 +7019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7064,7 +7070,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -7115,7 +7121,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7132,7 +7138,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -7149,7 +7155,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -7183,7 +7189,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -7200,7 +7206,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -7217,7 +7223,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -7268,7 +7274,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7285,7 +7291,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7302,7 +7308,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7336,7 +7342,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7353,7 +7359,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -7370,7 +7376,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -7387,7 +7393,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -7404,7 +7410,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -7421,7 +7427,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -7472,7 +7478,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -7489,7 +7495,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -7506,7 +7512,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -7523,7 +7529,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -7540,7 +7546,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -7574,7 +7580,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -7608,7 +7614,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -7659,7 +7665,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -7676,7 +7682,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -7710,7 +7716,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -7744,7 +7750,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -7761,7 +7767,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -7778,7 +7784,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -7795,7 +7801,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -7812,7 +7818,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -7846,7 +7852,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -7891,13 +7897,13 @@
         <v>155</v>
       </c>
       <c r="D171">
-        <v>0.7082865292096221</v>
+        <v>0.81452950859106532</v>
       </c>
       <c r="E171" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -7908,13 +7914,13 @@
         <v>156</v>
       </c>
       <c r="D172">
-        <v>0.7055918900343644</v>
+        <v>0.81143067353951903</v>
       </c>
       <c r="E172" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -7925,13 +7931,13 @@
         <v>157</v>
       </c>
       <c r="D173">
-        <v>0.73409807560137474</v>
+        <v>0.84421278694158086</v>
       </c>
       <c r="E173" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -7942,13 +7948,13 @@
         <v>158</v>
       </c>
       <c r="D174">
-        <v>0.7242515463917526</v>
+        <v>0.83288927835051541</v>
       </c>
       <c r="E174" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -7959,13 +7965,13 @@
         <v>159</v>
       </c>
       <c r="D175">
-        <v>0.69141910652920968</v>
+        <v>0.79513197250859102</v>
       </c>
       <c r="E175" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -7976,13 +7982,13 @@
         <v>160</v>
       </c>
       <c r="D176">
-        <v>0.64054776632302413</v>
+        <v>0.73662993127147769</v>
       </c>
       <c r="E176" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -7993,13 +7999,13 @@
         <v>161</v>
       </c>
       <c r="D177">
-        <v>0.59681731958762885</v>
+        <v>0.68633991752577317</v>
       </c>
       <c r="E177" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8010,13 +8016,13 @@
         <v>162</v>
       </c>
       <c r="D178">
-        <v>0.58485711340206181</v>
+        <v>0.67258568041237099</v>
       </c>
       <c r="E178" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8027,13 +8033,13 @@
         <v>163</v>
       </c>
       <c r="D179">
-        <v>0.59055931271477669</v>
+        <v>0.67914320962199315</v>
       </c>
       <c r="E179" t="s">
 